--- a/on_trucks/Processed_Stand_Alone/27_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/27_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>0.007707455584163857</v>
+        <v>0.007460579820718383</v>
       </c>
       <c r="F2">
         <v>0.509174095312277</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>133</v>
       </c>
       <c r="E3">
-        <v>0.01044062284429724</v>
+        <v>0.01037312888609691</v>
       </c>
       <c r="F3">
         <v>0.510378690937853</v>
       </c>
       <c r="G3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>97</v>
       </c>
       <c r="E4">
-        <v>0.03897273437608828</v>
+        <v>0.0169815007156006</v>
       </c>
       <c r="F4">
         <v>0.5228154233765387</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>92</v>
       </c>
       <c r="E5">
-        <v>0.005893491149298841</v>
+        <v>0.005888959148646303</v>
       </c>
       <c r="F5">
         <v>0.502613559364696</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>94</v>
       </c>
       <c r="E6">
-        <v>0.01564284044279425</v>
+        <v>0.06351611211930204</v>
       </c>
       <c r="F6">
         <v>0.5007924827250148</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>156</v>
       </c>
       <c r="E2">
-        <v>0.007707455584163857</v>
+        <v>0.007460579820718383</v>
       </c>
       <c r="F2">
         <v>0.742645824479327</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>156</v>
       </c>
       <c r="E3">
-        <v>0.01044062284429724</v>
+        <v>0.01037312888609691</v>
       </c>
       <c r="F3">
         <v>0.7399613164462182</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>106</v>
       </c>
       <c r="E4">
-        <v>0.03897273437608828</v>
+        <v>0.0169815007156006</v>
       </c>
       <c r="F4">
         <v>0.7206540688222011</v>
       </c>
       <c r="G4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5">
-        <v>0.005893491149298841</v>
+        <v>0.005888959148646303</v>
       </c>
       <c r="F5">
         <v>0.7040058172069124</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>0.01564284044279425</v>
+        <v>0.06351611211930204</v>
       </c>
       <c r="F6">
         <v>0.7169560999141985</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.007707455584163857</v>
+        <v>0.007460579820718383</v>
       </c>
       <c r="F2">
         <v>0.8011505485200328</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>0.01044062284429724</v>
+        <v>0.01037312888609691</v>
       </c>
       <c r="F3">
         <v>0.8028040097705685</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>115</v>
       </c>
       <c r="E4">
-        <v>0.03897273437608828</v>
+        <v>0.0169815007156006</v>
       </c>
       <c r="F4">
         <v>0.8043906446824315</v>
       </c>
       <c r="G4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>109</v>
       </c>
       <c r="E5">
-        <v>0.005893491149298841</v>
+        <v>0.005888959148646303</v>
       </c>
       <c r="F5">
         <v>0.8076237504226809</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>118</v>
       </c>
       <c r="E6">
-        <v>0.01564284044279425</v>
+        <v>0.06351611211930204</v>
       </c>
       <c r="F6">
         <v>0.8036706705377185</v>
       </c>
       <c r="G6">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>172</v>
       </c>
       <c r="E2">
-        <v>0.007707455584163857</v>
+        <v>0.007460579820718383</v>
       </c>
       <c r="F2">
         <v>0.9041215076861644</v>
       </c>
       <c r="G2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>166</v>
       </c>
       <c r="E3">
-        <v>0.01044062284429724</v>
+        <v>0.01037312888609691</v>
       </c>
       <c r="F3">
         <v>0.9058154855238508</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>147</v>
       </c>
       <c r="E4">
-        <v>0.03897273437608828</v>
+        <v>0.0169815007156006</v>
       </c>
       <c r="F4">
         <v>0.9016503871375742</v>
       </c>
       <c r="G4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>144</v>
       </c>
       <c r="E5">
-        <v>0.005893491149298841</v>
+        <v>0.005888959148646303</v>
       </c>
       <c r="F5">
         <v>0.900122925432416</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>142</v>
       </c>
       <c r="E6">
-        <v>0.01564284044279425</v>
+        <v>0.06351611211930204</v>
       </c>
       <c r="F6">
         <v>0.9003635981317373</v>
       </c>
       <c r="G6">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H6">
         <v>27</v>

--- a/on_trucks/Processed_Stand_Alone/27_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/27_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.085551191529042E-05</v>
+        <v>3.012643461731851E-05</v>
       </c>
       <c r="C2">
-        <v>9.167382756606944E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.343088464341141E-05</v>
+        <v>2.646176802890383E-06</v>
       </c>
       <c r="E2">
-        <v>2.607693930765998E-05</v>
+        <v>1.531788384429265E-05</v>
       </c>
       <c r="F2">
-        <v>4.405919283023303E-05</v>
+        <v>3.33366141623313E-05</v>
       </c>
       <c r="G2">
-        <v>2.234041440686433E-05</v>
+        <v>1.157377944549986E-05</v>
       </c>
       <c r="H2">
-        <v>2.276501539559122E-05</v>
+        <v>1.199924173247287E-05</v>
       </c>
       <c r="I2">
-        <v>2.79352322583225E-05</v>
+        <v>1.717994632093763E-05</v>
       </c>
       <c r="J2">
-        <v>1.889267649840141E-05</v>
+        <v>8.119047840148611E-06</v>
       </c>
       <c r="K2">
-        <v>1.079006471352491E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.049836572126949E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.108047944031547E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.101146070764687E-05</v>
+        <v>2.218450933621822E-07</v>
       </c>
       <c r="O2">
-        <v>7.175141809500734E-05</v>
+        <v>6.10850127891207E-05</v>
       </c>
       <c r="P2">
-        <v>7.04321681300333E-05</v>
+        <v>5.976308674069138E-05</v>
       </c>
       <c r="Q2">
-        <v>2.829078124888271E-05</v>
+        <v>1.753621653855598E-05</v>
       </c>
       <c r="R2">
-        <v>2.119336743731831E-05</v>
+        <v>1.042440570430394E-05</v>
       </c>
       <c r="S2">
-        <v>1.049836572126949E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3.929761395665245E-07</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>2.179390942137398E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.00810827323483E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1.522194359585899E-05</v>
+        <v>4.44086889792452E-06</v>
       </c>
       <c r="X2">
-        <v>5.525303853303759E-05</v>
+        <v>4.455316645303166E-05</v>
       </c>
       <c r="Y2">
-        <v>9.631044744296766E-05</v>
+        <v>8.569385984703793E-05</v>
       </c>
       <c r="Z2">
-        <v>0.0001005234373311132</v>
+        <v>8.991539573695439E-05</v>
       </c>
       <c r="AA2">
-        <v>0.000106665467168043</v>
+        <v>9.606988461111349E-05</v>
       </c>
       <c r="AB2">
-        <v>8.586153772038513E-05</v>
+        <v>7.522375463066977E-05</v>
       </c>
       <c r="AC2">
-        <v>9.39125575066314E-05</v>
+        <v>8.32911058184094E-05</v>
       </c>
       <c r="AD2">
-        <v>9.896079137260132E-05</v>
+        <v>8.834957996899995E-05</v>
       </c>
       <c r="AE2">
-        <v>8.648402770385808E-05</v>
+        <v>7.584750732794987E-05</v>
       </c>
       <c r="AF2">
-        <v>0.000113703536981183</v>
+        <v>0.0001031222310683195</v>
       </c>
       <c r="AG2">
-        <v>0.0001395787262941994</v>
+        <v>0.0001290499079067186</v>
       </c>
       <c r="AH2">
-        <v>5.149761463274371E-05</v>
+        <v>4.079012471833644E-05</v>
       </c>
       <c r="AI2">
-        <v>4.096228491245562E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.891114149791117E-07</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>7.863151391234152E-08</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>6.556097825936287E-08</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.362621237272653E-05</v>
+        <v>1.286218563781999E-05</v>
       </c>
       <c r="AN2">
-        <v>7.617232797763264E-05</v>
+        <v>6.551489043684607E-05</v>
       </c>
       <c r="AO2">
-        <v>4.940515168829838E-05</v>
+        <v>3.869341723675632E-05</v>
       </c>
       <c r="AP2">
-        <v>0.0001150949569442409</v>
+        <v>0.0001045164735108478</v>
       </c>
       <c r="AQ2">
-        <v>0.0001589074157810247</v>
+        <v>0.0001484178054189532</v>
       </c>
       <c r="AR2">
-        <v>0.0002205903241433499</v>
+        <v>0.0002102258368549372</v>
       </c>
       <c r="AS2">
-        <v>0.0001589074157810247</v>
+        <v>0.0001484178054189532</v>
       </c>
       <c r="AT2">
-        <v>0.0001524927159513343</v>
+        <v>0.0001419900934440738</v>
       </c>
       <c r="AU2">
-        <v>0.0001730142354064901</v>
+        <v>0.0001625532405665778</v>
       </c>
       <c r="AV2">
-        <v>0.0001411199162532809</v>
+        <v>0.0001305942241519934</v>
       </c>
       <c r="AW2">
-        <v>9.583280745564897E-05</v>
+        <v>8.52152509724715E-05</v>
       </c>
       <c r="AX2">
-        <v>7.91267178991939E-05</v>
+        <v>6.847527330455054E-05</v>
       </c>
       <c r="AY2">
-        <v>7.676856296180266E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>6.775971320098669E-06</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>5.622258450729625E-07</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>1.891114149791117E-07</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>1.240122267074883E-05</v>
+        <v>1.614426172700625E-06</v>
       </c>
       <c r="BD2">
-        <v>5.777342246612166E-05</v>
+        <v>4.707866295607847E-05</v>
       </c>
       <c r="BE2">
-        <v>8.98419576147054E-05</v>
+        <v>7.921224876119019E-05</v>
       </c>
       <c r="BF2">
-        <v>0.0001539258759132841</v>
+        <v>0.0001434261605546041</v>
       </c>
       <c r="BG2">
-        <v>0.0001519907459646616</v>
+        <v>0.0001414871052170281</v>
       </c>
       <c r="BH2">
-        <v>0.0001792974752396708</v>
+        <v>0.0001688492258798491</v>
       </c>
       <c r="BI2">
-        <v>0.0001467999461024767</v>
+        <v>0.000136285775876731</v>
       </c>
       <c r="BJ2">
-        <v>0.0001933298248671133</v>
+        <v>0.0001829100399679122</v>
       </c>
       <c r="BK2">
-        <v>0.0002637425929976617</v>
+        <v>0.0002534656395927469</v>
       </c>
       <c r="BL2">
-        <v>0.0001550371658837794</v>
+        <v>0.000144539704764086</v>
       </c>
       <c r="BM2">
-        <v>0.0001120412070253176</v>
+        <v>0.0001014565290951639</v>
       </c>
       <c r="BN2">
-        <v>7.876527290879022E-05</v>
+        <v>6.811309512712053E-05</v>
       </c>
       <c r="BO2">
-        <v>0.0001129896170001375</v>
+        <v>0.0001024068629087632</v>
       </c>
       <c r="BP2">
-        <v>2.019490346382742E-05</v>
+        <v>9.423916358070144E-06</v>
       </c>
       <c r="BQ2">
-        <v>2.632751430100724E-07</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>2.79352322583225E-05</v>
+        <v>1.717994632093763E-05</v>
       </c>
       <c r="BS2">
-        <v>8.853736764934213E-05</v>
+        <v>7.790501245001309E-05</v>
       </c>
       <c r="BT2">
-        <v>0.0001196963168220753</v>
+        <v>0.0001091271671945323</v>
       </c>
       <c r="BU2">
-        <v>0.0001451310361467861</v>
+        <v>0.0001346134805562958</v>
       </c>
       <c r="BV2">
-        <v>0.0001429847862037689</v>
+        <v>0.0001324628769698327</v>
       </c>
       <c r="BW2">
-        <v>0.0003016108919922623</v>
+        <v>0.0002914107539984595</v>
       </c>
       <c r="BX2">
-        <v>0.0003121832517115672</v>
+        <v>0.0003020045596284555</v>
       </c>
       <c r="BY2">
-        <v>0.0002985133220745025</v>
+        <v>0.0002883069006955729</v>
       </c>
       <c r="BZ2">
-        <v>0.0003733705900870498</v>
+        <v>0.0003633160158195504</v>
       </c>
       <c r="CA2">
-        <v>0.0002900774322984744</v>
+        <v>0.000279853898813682</v>
       </c>
       <c r="CB2">
-        <v>0.0002282920939388688</v>
+        <v>0.0002179432296023404</v>
       </c>
       <c r="CC2">
-        <v>0.0001187201168479933</v>
+        <v>0.0001081489870099754</v>
       </c>
       <c r="CD2">
-        <v>5.17899626249819E-05</v>
+        <v>4.1083065735131E-05</v>
       </c>
       <c r="CE2">
-        <v>5.003560567155989E-05</v>
+        <v>3.932515008870741E-05</v>
       </c>
       <c r="CF2">
-        <v>2.480155634152126E-06</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.240122267074883E-05</v>
+        <v>1.614426172700625E-06</v>
       </c>
       <c r="CH2">
-        <v>1.295835165595712E-05</v>
+        <v>2.172685287679122E-06</v>
       </c>
       <c r="CI2">
-        <v>5.983020141151439E-05</v>
+        <v>4.913961405402232E-05</v>
       </c>
       <c r="CJ2">
-        <v>0.0001129896170001375</v>
+        <v>0.0001024068629087632</v>
       </c>
       <c r="CK2">
-        <v>0.0001239345667095502</v>
+        <v>0.0001133740143233977</v>
       </c>
       <c r="CL2">
-        <v>0.000122941196735924</v>
+        <v>0.000112378629310149</v>
       </c>
       <c r="CM2">
-        <v>0.0006244589334206805</v>
+        <v>0.0006149136889839546</v>
       </c>
       <c r="CN2">
-        <v>0.08197638782353546</v>
+        <v>0.08213186403578834</v>
       </c>
       <c r="CO2">
-        <v>0.001498903360204272</v>
+        <v>0.001491131916279355</v>
       </c>
       <c r="CP2">
-        <v>0.05425361355957222</v>
+        <v>0.05435285444151479</v>
       </c>
       <c r="CQ2">
-        <v>0.01949808948232776</v>
+        <v>0.01952682918145283</v>
       </c>
       <c r="CR2">
-        <v>8.339405778589646E-05</v>
+        <v>7.275126944137403E-05</v>
       </c>
       <c r="CS2">
-        <v>9.631044744296766E-05</v>
+        <v>8.569385984703793E-05</v>
       </c>
       <c r="CT2">
-        <v>0.002754449526869653</v>
+        <v>0.002749224943974227</v>
       </c>
       <c r="CU2">
-        <v>0.0001631621356680623</v>
+        <v>0.0001526811559565869</v>
       </c>
       <c r="CV2">
-        <v>0.001012506273118064</v>
+        <v>0.001003748178268754</v>
       </c>
       <c r="CW2">
-        <v>0.005588938851614257</v>
+        <v>0.005589463997873654</v>
       </c>
       <c r="CX2">
-        <v>0.0004667661876074064</v>
+        <v>0.0004569010652405745</v>
       </c>
       <c r="CY2">
-        <v>0.009502467747710474</v>
+        <v>0.009510931442545688</v>
       </c>
       <c r="CZ2">
-        <v>0.07821892792329563</v>
+        <v>0.07836678217114459</v>
       </c>
       <c r="DA2">
-        <v>0.02539679532571773</v>
+        <v>0.02543750048213608</v>
       </c>
       <c r="DB2">
-        <v>0.0005091306364826347</v>
+        <v>0.0004993514499154897</v>
       </c>
       <c r="DC2">
-        <v>0.006986696814503929</v>
+        <v>0.006990057296793859</v>
       </c>
       <c r="DD2">
-        <v>0.01160275269194813</v>
+        <v>0.0116154767907552</v>
       </c>
       <c r="DE2">
-        <v>0.007950117788925203</v>
+        <v>0.007955432559635498</v>
       </c>
       <c r="DF2">
-        <v>0.02299435338950232</v>
+        <v>0.02303018521994874</v>
       </c>
       <c r="DG2">
-        <v>0.01435415361889872</v>
+        <v>0.01437245890299662</v>
       </c>
       <c r="DH2">
-        <v>0.0003816220198679752</v>
+        <v>0.0003715841835313497</v>
       </c>
       <c r="DI2">
-        <v>0.002143908743079447</v>
+        <v>0.002137445685191676</v>
       </c>
       <c r="DJ2">
-        <v>0.0008378468077552547</v>
+        <v>0.0008287344181794153</v>
       </c>
       <c r="DK2">
-        <v>0.0004155297289677291</v>
+        <v>0.0004055606740309423</v>
       </c>
       <c r="DL2">
-        <v>0.009893876737318607</v>
+        <v>0.009903134400809607</v>
       </c>
       <c r="DM2">
-        <v>0.01172345068874361</v>
+        <v>0.0117364196220558</v>
       </c>
       <c r="DN2">
-        <v>7.369186804348859E-05</v>
+        <v>6.302939891811419E-05</v>
       </c>
       <c r="DO2">
-        <v>0.00142371596220049</v>
+        <v>0.001415792001499234</v>
       </c>
       <c r="DP2">
-        <v>0.0004220158887955222</v>
+        <v>0.0004120599909597128</v>
       </c>
       <c r="DQ2">
-        <v>0.001056357771953811</v>
+        <v>0.001047688629368014</v>
       </c>
       <c r="DR2">
-        <v>0.008122804784340382</v>
+        <v>0.008128469848644492</v>
       </c>
       <c r="DS2">
-        <v>0.01020574472903854</v>
+        <v>0.01021563501318145</v>
       </c>
       <c r="DT2">
-        <v>0.001572477958250874</v>
+        <v>0.001564855759556041</v>
       </c>
       <c r="DU2">
-        <v>0.002119326443732104</v>
+        <v>0.002112813520931448</v>
       </c>
       <c r="DV2">
-        <v>0.01110070570527742</v>
+        <v>0.0111124114075179</v>
       </c>
       <c r="DW2">
-        <v>0.0182550285153309</v>
+        <v>0.01828124667951112</v>
       </c>
       <c r="DX2">
-        <v>0.004779997873091555</v>
+        <v>0.00477888209183426</v>
       </c>
       <c r="DY2">
-        <v>0.00265469142951822</v>
+        <v>0.002649264488464037</v>
       </c>
       <c r="DZ2">
-        <v>0.008199537782303127</v>
+        <v>0.008205358498615404</v>
       </c>
       <c r="EA2">
-        <v>4.002822093725491E-05</v>
+        <v>2.929746548900231E-05</v>
       </c>
       <c r="EB2">
-        <v>0.01467190061046257</v>
+        <v>0.01469085044069628</v>
       </c>
       <c r="EC2">
-        <v>0.02168485442426938</v>
+        <v>0.0217180299510519</v>
       </c>
       <c r="ED2">
-        <v>0.005173866462634386</v>
+        <v>0.005173549639303195</v>
       </c>
       <c r="EE2">
-        <v>0.001405908462673277</v>
+        <v>0.001397948379663035</v>
       </c>
       <c r="EF2">
-        <v>0.01757537353337567</v>
+        <v>0.01760021302520357</v>
       </c>
       <c r="EG2">
-        <v>0.01700518754851405</v>
+        <v>0.01702887042459738</v>
       </c>
       <c r="EH2">
-        <v>0.002634942730042546</v>
+        <v>0.002629475728977498</v>
       </c>
       <c r="EI2">
-        <v>0.0007632390297360835</v>
+        <v>0.0007539752991364101</v>
       </c>
       <c r="EJ2">
-        <v>0.0004456745381673875</v>
+        <v>0.0004357666316310582</v>
       </c>
       <c r="EK2">
-        <v>2.480155634152126E-06</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.001835241951274518</v>
+        <v>0.001828152766332228</v>
       </c>
       <c r="EM2">
-        <v>0.006330590531923482</v>
+        <v>0.006332620110128263</v>
       </c>
       <c r="EN2">
-        <v>0.003707522401565667</v>
+        <v>0.003704231116088747</v>
       </c>
       <c r="EO2">
-        <v>0.003603463404328423</v>
+        <v>0.00359996103636655</v>
       </c>
       <c r="EP2">
-        <v>0.001338169764471732</v>
+        <v>0.00133007227428745</v>
       </c>
       <c r="EQ2">
-        <v>0.001261617466504188</v>
+        <v>0.001253364690859612</v>
       </c>
       <c r="ER2">
-        <v>0.002158609642689139</v>
+        <v>0.002152176405407976</v>
       </c>
       <c r="ES2">
-        <v>0.005300328459276833</v>
+        <v>0.005300268162658487</v>
       </c>
       <c r="ET2">
-        <v>0.01080595021310315</v>
+        <v>0.0108170580072012</v>
       </c>
       <c r="EU2">
-        <v>0.01394253162982724</v>
+        <v>0.01396000194343128</v>
       </c>
       <c r="EV2">
-        <v>0.006722403521520888</v>
+        <v>0.00672522788789081</v>
       </c>
       <c r="EW2">
-        <v>0.0001276953066097029</v>
+        <v>0.0001171423828413966</v>
       </c>
       <c r="EX2">
-        <v>0.008126471784243021</v>
+        <v>0.008132144287014465</v>
       </c>
       <c r="EY2">
-        <v>0.03248610213749738</v>
+        <v>0.03254118787164708</v>
       </c>
       <c r="EZ2">
-        <v>0.05161049462974675</v>
+        <v>0.05170437397519038</v>
       </c>
       <c r="FA2">
-        <v>0.06326301232037364</v>
+        <v>0.0633805286645909</v>
       </c>
       <c r="FB2">
-        <v>0.03007888520140874</v>
+        <v>0.03012908792355391</v>
       </c>
       <c r="FC2">
-        <v>0.00310889921745905</v>
+        <v>0.003104393631704347</v>
       </c>
       <c r="FD2">
-        <v>9.896079137260132E-05</v>
+        <v>8.834957996899995E-05</v>
       </c>
       <c r="FE2">
-        <v>0.00867584276965728</v>
+        <v>0.008682629665185146</v>
       </c>
       <c r="FF2">
-        <v>0.009770158740603305</v>
+        <v>0.009779165443553908</v>
       </c>
       <c r="FG2">
-        <v>0.006771977320204709</v>
+        <v>0.006774902246457894</v>
       </c>
       <c r="FH2">
-        <v>0.01115493820383755</v>
+        <v>0.01116675391608068</v>
       </c>
       <c r="FI2">
-        <v>0.02758649926758133</v>
+        <v>0.02763164621338482</v>
       </c>
       <c r="FJ2">
-        <v>0.02481595334113903</v>
+        <v>0.02485548026623933</v>
       </c>
       <c r="FK2">
-        <v>0.018403311511394</v>
+        <v>0.01842983046593466</v>
       </c>
       <c r="FL2">
-        <v>0.005049502865936226</v>
+        <v>0.005048933772472461</v>
       </c>
       <c r="FM2">
-        <v>0.001606340757351821</v>
+        <v>0.001598787248957408</v>
       </c>
       <c r="FN2">
-        <v>0.0004173542889192872</v>
+        <v>0.0004073889350814802</v>
       </c>
       <c r="FO2">
-        <v>0.004011325893499717</v>
+        <v>0.004008650869929187</v>
       </c>
       <c r="FP2">
-        <v>0.004795186572688297</v>
+        <v>0.0047941016015343</v>
       </c>
       <c r="FQ2">
-        <v>0.005130546463784527</v>
+        <v>0.005130141766331461</v>
       </c>
       <c r="FR2">
-        <v>0.008758945767450904</v>
+        <v>0.008765901236458689</v>
       </c>
       <c r="FS2">
-        <v>0.01229166567365756</v>
+        <v>0.01230578722456349</v>
       </c>
       <c r="FT2">
-        <v>0.006747755520847796</v>
+        <v>0.006750631313458201</v>
       </c>
       <c r="FU2">
-        <v>0.007353862504755718</v>
+        <v>0.007357967778446152</v>
       </c>
       <c r="FV2">
-        <v>0.00578415684643124</v>
+        <v>0.005785077990158874</v>
       </c>
       <c r="FW2">
-        <v>0.006579887425304676</v>
+        <v>0.006582422699404504</v>
       </c>
       <c r="FX2">
-        <v>0.002312702938597979</v>
+        <v>0.002306582277803985</v>
       </c>
       <c r="FY2">
-        <v>8.072538785674937E-05</v>
+        <v>7.007718614581831E-05</v>
       </c>
       <c r="FZ2">
-        <v>0.0002199864941593816</v>
+        <v>0.0002096207820087571</v>
       </c>
       <c r="GA2">
-        <v>0.003991783894018554</v>
+        <v>0.003989069229725733</v>
       </c>
       <c r="GB2">
-        <v>0.01284083365907721</v>
+        <v>0.01285606919095639</v>
       </c>
       <c r="GC2">
-        <v>0.005943646542196805</v>
+        <v>0.005944891208946957</v>
       </c>
       <c r="GD2">
-        <v>0.005840699844930028</v>
+        <v>0.005841735685482988</v>
       </c>
       <c r="GE2">
-        <v>0.004276306286464514</v>
+        <v>0.004274168772588441</v>
       </c>
       <c r="GF2">
-        <v>0.0001366889463709227</v>
+        <v>0.0001261542660979408</v>
       </c>
       <c r="GG2">
-        <v>0.000212043094370278</v>
+        <v>0.0002016612691240927</v>
       </c>
       <c r="GH2">
-        <v>0.0004019727493276655</v>
+        <v>0.000391976194212837</v>
       </c>
       <c r="GI2">
-        <v>1.101146070764687E-05</v>
+        <v>2.218450933621822E-07</v>
       </c>
       <c r="GJ2">
-        <v>0.001357042463970664</v>
+        <v>0.00134898325684132</v>
       </c>
       <c r="GK2">
-        <v>0.001688899655159891</v>
+        <v>0.001681513616544804</v>
       </c>
       <c r="GL2">
-        <v>0.003624964203757579</v>
+        <v>0.003621505449921274</v>
       </c>
       <c r="GM2">
-        <v>0.001061449271818633</v>
+        <v>0.00105279045728204</v>
       </c>
       <c r="GN2">
-        <v>1.597510357586267E-06</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.000199854794693876</v>
+        <v>0.000189448245621291</v>
       </c>
       <c r="GP2">
-        <v>0.001859085850641465</v>
+        <v>0.00185204503277615</v>
       </c>
       <c r="GQ2">
-        <v>0.001553760358747825</v>
+        <v>0.001546100191616621</v>
       </c>
       <c r="GR2">
-        <v>0.0006897595416869562</v>
+        <v>0.00068034675878674</v>
       </c>
       <c r="GS2">
-        <v>5.740362647593971E-05</v>
+        <v>4.670811683896271E-05</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001023715072703465</v>
+        <v>9.937496186170261E-05</v>
       </c>
       <c r="C3">
-        <v>0.0001271260066102878</v>
+        <v>0.0001241438670292113</v>
       </c>
       <c r="D3">
-        <v>2.804651525216235E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>7.421119202121858E-08</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.100027270668662E-05</v>
+        <v>7.950554004910344E-06</v>
       </c>
       <c r="G3">
-        <v>3.054342818558419E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.532864632463213E-05</v>
+        <v>2.228726598901819E-05</v>
       </c>
       <c r="I3">
-        <v>0.0001278878165899748</v>
+        <v>0.0001249061203425749</v>
       </c>
       <c r="J3">
-        <v>0.0001571144158106712</v>
+        <v>0.000154149727919731</v>
       </c>
       <c r="K3">
-        <v>0.0004495775380123786</v>
+        <v>0.0004467830484054115</v>
       </c>
       <c r="L3">
-        <v>0.0004638275576324133</v>
+        <v>0.0004610413607936682</v>
       </c>
       <c r="M3">
-        <v>0.0002022425946073648</v>
+        <v>0.0001993041689628652</v>
       </c>
       <c r="N3">
-        <v>7.232083407162345E-05</v>
+        <v>6.930680073844342E-05</v>
       </c>
       <c r="O3">
-        <v>5.616188250248882E-05</v>
+        <v>5.313844550225097E-05</v>
       </c>
       <c r="P3">
-        <v>9.989430733639908E-05</v>
+        <v>9.68963203265897E-05</v>
       </c>
       <c r="Q3">
-        <v>0.0002022425946073648</v>
+        <v>0.0001993041689628652</v>
       </c>
       <c r="R3">
-        <v>8.500878773330942E-05</v>
+        <v>8.200213812743179E-05</v>
       </c>
       <c r="S3">
-        <v>3.08301231779397E-05</v>
+        <v>2.779194441492986E-05</v>
       </c>
       <c r="T3">
-        <v>5.141095562916844E-06</v>
+        <v>2.087967125622949E-06</v>
       </c>
       <c r="U3">
-        <v>1.158914369098486E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>4.313891884973562E-05</v>
+        <v>4.010790316385271E-05</v>
       </c>
       <c r="W3">
-        <v>6.621110323453447E-05</v>
+        <v>6.319351435665471E-05</v>
       </c>
       <c r="X3">
-        <v>6.028565439253178E-05</v>
+        <v>5.726461721246237E-05</v>
       </c>
       <c r="Y3">
-        <v>2.077302544610408E-05</v>
+        <v>1.77289939767331E-05</v>
       </c>
       <c r="Z3">
-        <v>6.212684834343784E-05</v>
+        <v>5.910688264222205E-05</v>
       </c>
       <c r="AA3">
-        <v>0.0001123258010049234</v>
+        <v>0.0001093350484760758</v>
       </c>
       <c r="AB3">
-        <v>0.0001356678363825268</v>
+        <v>0.0001326906677008864</v>
       </c>
       <c r="AC3">
-        <v>0.0001419058062161964</v>
+        <v>0.0001389322677076635</v>
       </c>
       <c r="AD3">
-        <v>0.0002209414641087745</v>
+        <v>0.0002180139202311022</v>
       </c>
       <c r="AE3">
-        <v>0.0002924073422031947</v>
+        <v>0.0002895213877393354</v>
       </c>
       <c r="AF3">
-        <v>0.0003080379317864177</v>
+        <v>0.0003051610735104966</v>
       </c>
       <c r="AG3">
-        <v>0.0003104521917220434</v>
+        <v>0.0003075767384194913</v>
       </c>
       <c r="AH3">
-        <v>0.0001117030770215278</v>
+        <v>0.0001087119620997995</v>
       </c>
       <c r="AI3">
-        <v>8.858256763801747E-05</v>
+        <v>8.557799778565714E-05</v>
       </c>
       <c r="AJ3">
-        <v>4.365571883595556E-05</v>
+        <v>4.06250039007114E-05</v>
       </c>
       <c r="AK3">
-        <v>1.633882756433838E-07</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>7.178436808592788E-06</v>
+        <v>4.126493997648196E-06</v>
       </c>
       <c r="AM3">
-        <v>9.620462243478155E-05</v>
+        <v>9.320448822079159E-05</v>
       </c>
       <c r="AN3">
-        <v>9.562838745014639E-05</v>
+        <v>9.262791789744839E-05</v>
       </c>
       <c r="AO3">
-        <v>8.77428376604082E-05</v>
+        <v>8.473777912899626E-05</v>
       </c>
       <c r="AP3">
-        <v>0.0001022604022733091</v>
+        <v>9.926379220735144E-05</v>
       </c>
       <c r="AQ3">
-        <v>6.984065813775534E-05</v>
+        <v>6.682518147153311E-05</v>
       </c>
       <c r="AR3">
-        <v>9.486276147056118E-05</v>
+        <v>9.186184636347359E-05</v>
       </c>
       <c r="AS3">
-        <v>0.0001330399164525982</v>
+        <v>0.0001300612184586153</v>
       </c>
       <c r="AT3">
-        <v>0.0001364547963615432</v>
+        <v>0.0001334780856495674</v>
       </c>
       <c r="AU3">
-        <v>0.0002858842423771279</v>
+        <v>0.0002829944918093762</v>
       </c>
       <c r="AV3">
-        <v>0.0003277719612602257</v>
+        <v>0.0003249065871602481</v>
       </c>
       <c r="AW3">
-        <v>0.0001618199656852015</v>
+        <v>0.0001588580161788747</v>
       </c>
       <c r="AX3">
-        <v>9.852686737286076E-05</v>
+        <v>9.55280845843102E-05</v>
       </c>
       <c r="AY3">
-        <v>0.0001082968271123527</v>
+        <v>0.0001053037299308271</v>
       </c>
       <c r="AZ3">
-        <v>6.80493581855189E-05</v>
+        <v>6.503283907614809E-05</v>
       </c>
       <c r="BA3">
-        <v>2.208384741115207E-05</v>
+        <v>1.904057877180002E-05</v>
       </c>
       <c r="BB3">
-        <v>2.333610137776173E-06</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0001015792972914702</v>
+        <v>9.858229085793555E-05</v>
       </c>
       <c r="BD3">
-        <v>0.0001677512855270476</v>
+        <v>0.0001647927877395262</v>
       </c>
       <c r="BE3">
-        <v>0.0002035164645733981</v>
+        <v>0.0002005787802547812</v>
       </c>
       <c r="BF3">
-        <v>0.0003727342300613432</v>
+        <v>0.0003698950216568415</v>
       </c>
       <c r="BG3">
-        <v>0.0002412096135683407</v>
+        <v>0.000238293864696587</v>
       </c>
       <c r="BH3">
-        <v>0.0001509226859757686</v>
+        <v>0.0001479543948209887</v>
       </c>
       <c r="BI3">
-        <v>0.0003712211901016872</v>
+        <v>0.0003683811011868402</v>
       </c>
       <c r="BJ3">
-        <v>0.0005427718855274266</v>
+        <v>0.0005400316301702468</v>
       </c>
       <c r="BK3">
-        <v>0.0002342546737537886</v>
+        <v>0.0002313348774697913</v>
       </c>
       <c r="BL3">
-        <v>0.0001229592267213916</v>
+        <v>0.0001199746622917344</v>
       </c>
       <c r="BM3">
-        <v>4.762979872998994E-05</v>
+        <v>4.460139650197958E-05</v>
       </c>
       <c r="BN3">
-        <v>3.344913910810576E-05</v>
+        <v>3.041248447577488E-05</v>
       </c>
       <c r="BO3">
-        <v>3.054342818558419E-06</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1.678578755242055E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>2.678820528571417E-07</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>7.604966197219726E-06</v>
+        <v>4.553271604134062E-06</v>
       </c>
       <c r="BS3">
-        <v>5.015841866256633E-05</v>
+        <v>4.713148795947885E-05</v>
       </c>
       <c r="BT3">
-        <v>8.019654786162391E-05</v>
+        <v>7.718709778311895E-05</v>
       </c>
       <c r="BU3">
-        <v>7.879762189892514E-05</v>
+        <v>7.578735771846962E-05</v>
       </c>
       <c r="BV3">
-        <v>0.0001038531872308387</v>
+        <v>0.0001008575040826562</v>
       </c>
       <c r="BW3">
-        <v>0.0001161914229018497</v>
+        <v>0.0001132029199633381</v>
       </c>
       <c r="BX3">
-        <v>0.0001178888468565892</v>
+        <v>0.0001149013317302917</v>
       </c>
       <c r="BY3">
-        <v>0.0001834554351083092</v>
+        <v>0.0001805060763168084</v>
       </c>
       <c r="BZ3">
-        <v>0.000187461715001485</v>
+        <v>0.0001845146876559381</v>
       </c>
       <c r="CA3">
-        <v>0.0001896160749440407</v>
+        <v>0.0001866703013236217</v>
       </c>
       <c r="CB3">
-        <v>0.0001980805447183425</v>
+        <v>0.0001951396969778754</v>
       </c>
       <c r="CC3">
-        <v>0.0001270021866135894</v>
+        <v>0.0001240199749757325</v>
       </c>
       <c r="CD3">
-        <v>5.240545460265093E-05</v>
+        <v>4.937983155728846E-05</v>
       </c>
       <c r="CE3">
-        <v>5.853815143912753E-05</v>
+        <v>5.551609730347866E-05</v>
       </c>
       <c r="CF3">
-        <v>2.348797137371224E-05</v>
+        <v>2.044551986127559E-05</v>
       </c>
       <c r="CG3">
-        <v>3.552435905277169E-07</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>1.944482348151951E-08</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>3.762334899680382E-08</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>2.35412313722921E-05</v>
+        <v>2.04988108543969E-05</v>
       </c>
       <c r="CK3">
-        <v>7.207892207807383E-06</v>
+        <v>4.155966538368913E-06</v>
       </c>
       <c r="CL3">
-        <v>3.221305714106488E-05</v>
+        <v>2.917568317349591E-05</v>
       </c>
       <c r="CM3">
-        <v>6.749395820032819E-05</v>
+        <v>6.447711587713239E-05</v>
       </c>
       <c r="CN3">
-        <v>0.01513803359635658</v>
+        <v>0.01514378702211249</v>
       </c>
       <c r="CO3">
-        <v>0.05070093164810065</v>
+        <v>0.05072738082577205</v>
       </c>
       <c r="CP3">
-        <v>0.01811785351690209</v>
+        <v>0.01812534104244196</v>
       </c>
       <c r="CQ3">
-        <v>0.06121346536779245</v>
+        <v>0.06124603229181706</v>
       </c>
       <c r="CR3">
-        <v>0.01122098270080157</v>
+        <v>0.0112244566072265</v>
       </c>
       <c r="CS3">
-        <v>0.0001007901713125116</v>
+        <v>9.779270564881334E-05</v>
       </c>
       <c r="CT3">
-        <v>0.004163203188991554</v>
+        <v>0.004162569835832687</v>
       </c>
       <c r="CU3">
-        <v>0.0001526139759306717</v>
+        <v>0.0001496466690184378</v>
       </c>
       <c r="CV3">
-        <v>0.00173302685379024</v>
+        <v>0.001730979264747923</v>
       </c>
       <c r="CW3">
-        <v>0.001915207448932542</v>
+        <v>0.001913265879495135</v>
       </c>
       <c r="CX3">
-        <v>0.004776497272638563</v>
+        <v>0.004776220824650582</v>
       </c>
       <c r="CY3">
-        <v>0.000109229527087483</v>
+        <v>0.0001062369726886989</v>
       </c>
       <c r="CZ3">
-        <v>0.03934605895086916</v>
+        <v>0.03936590018483383</v>
       </c>
       <c r="DA3">
-        <v>0.08293111778870881</v>
+        <v>0.08297632325377798</v>
       </c>
       <c r="DB3">
-        <v>0.002014303546290225</v>
+        <v>0.002012419645613213</v>
       </c>
       <c r="DC3">
-        <v>0.008615217770282185</v>
+        <v>0.008617175257418853</v>
       </c>
       <c r="DD3">
-        <v>0.0055371302523569</v>
+        <v>0.005537296453092993</v>
       </c>
       <c r="DE3">
-        <v>0.006753294119928873</v>
+        <v>0.006754168064607972</v>
       </c>
       <c r="DF3">
-        <v>0.02325294337997907</v>
+        <v>0.02326341926000331</v>
       </c>
       <c r="DG3">
-        <v>0.01664183055625905</v>
+        <v>0.01664845911341646</v>
       </c>
       <c r="DH3">
-        <v>3.170745915454624E-05</v>
+        <v>2.866979095531812E-05</v>
       </c>
       <c r="DI3">
-        <v>0.002000630746654799</v>
+        <v>0.001998738889121491</v>
       </c>
       <c r="DJ3">
-        <v>0.003542180505550622</v>
+        <v>0.003541185749578864</v>
       </c>
       <c r="DK3">
-        <v>0.0001659778755743342</v>
+        <v>0.0001630183457547108</v>
       </c>
       <c r="DL3">
-        <v>0.001638023556323427</v>
+        <v>0.001635920680316794</v>
       </c>
       <c r="DM3">
-        <v>0.02155645142521466</v>
+        <v>0.02156594003540022</v>
       </c>
       <c r="DN3">
-        <v>0.004906738869165777</v>
+        <v>0.004906538214994343</v>
       </c>
       <c r="DO3">
-        <v>0.003041315718905776</v>
+        <v>0.003040029485750339</v>
       </c>
       <c r="DP3">
-        <v>0.001336304564368519</v>
+        <v>0.001334026103644449</v>
       </c>
       <c r="DQ3">
-        <v>0.0003212570914339394</v>
+        <v>0.0003183879260195</v>
       </c>
       <c r="DR3">
-        <v>0.003436249608375183</v>
+        <v>0.003435193206145999</v>
       </c>
       <c r="DS3">
-        <v>0.01143716469503725</v>
+        <v>0.01144076440810805</v>
       </c>
       <c r="DT3">
-        <v>0.006828545417922359</v>
+        <v>0.006829463154932228</v>
       </c>
       <c r="DU3">
-        <v>0.001319865664806849</v>
+        <v>0.00131757763750059</v>
       </c>
       <c r="DV3">
-        <v>0.003533500905782056</v>
+        <v>0.00353250109873591</v>
       </c>
       <c r="DW3">
-        <v>0.01142877669526091</v>
+        <v>0.01143237152695331</v>
       </c>
       <c r="DX3">
-        <v>0.01350285163995738</v>
+        <v>0.0135076534750961</v>
       </c>
       <c r="DY3">
-        <v>0.002670482928793732</v>
+        <v>0.002668980890294897</v>
       </c>
       <c r="DZ3">
-        <v>0.002907619222470685</v>
+        <v>0.002906255184927142</v>
       </c>
       <c r="EA3">
-        <v>0.002533437132447948</v>
+        <v>0.002531855340443138</v>
       </c>
       <c r="EB3">
-        <v>0.004181496888503767</v>
+        <v>0.004180874181323924</v>
       </c>
       <c r="EC3">
-        <v>0.02404614635882895</v>
+        <v>0.0240570838416181</v>
       </c>
       <c r="ED3">
-        <v>0.01913761148971107</v>
+        <v>0.01914569246120656</v>
       </c>
       <c r="EE3">
-        <v>0.001413705462304687</v>
+        <v>0.001411472044866443</v>
       </c>
       <c r="EF3">
-        <v>0.003577284904614591</v>
+        <v>0.003576310577572251</v>
       </c>
       <c r="EG3">
-        <v>0.01667980255524655</v>
+        <v>0.01668645321012698</v>
       </c>
       <c r="EH3">
-        <v>0.008931170761857555</v>
+        <v>0.008933312117157078</v>
       </c>
       <c r="EI3">
-        <v>0.003086302317706245</v>
+        <v>0.003085042264405075</v>
       </c>
       <c r="EJ3">
-        <v>0.0003710095701073299</v>
+        <v>0.000368169358040683</v>
       </c>
       <c r="EK3">
-        <v>0.0001897673549400069</v>
+        <v>0.0001868216693566557</v>
       </c>
       <c r="EL3">
-        <v>0.0007249972406685348</v>
+        <v>0.0007223630309642493</v>
       </c>
       <c r="EM3">
-        <v>0.006231216833849642</v>
+        <v>0.00623178695677671</v>
       </c>
       <c r="EN3">
-        <v>0.01098654570705264</v>
+        <v>0.01098988318337406</v>
       </c>
       <c r="EO3">
-        <v>0.00958506174442208</v>
+        <v>0.009587583630170366</v>
       </c>
       <c r="EP3">
-        <v>0.002959669921082795</v>
+        <v>0.002958336174331188</v>
       </c>
       <c r="EQ3">
-        <v>7.125071810015722E-05</v>
+        <v>6.823606201529271E-05</v>
       </c>
       <c r="ER3">
-        <v>0.0001289012065629536</v>
+        <v>0.0001259201000556656</v>
       </c>
       <c r="ES3">
-        <v>0.003158146615790574</v>
+        <v>0.003156928372123916</v>
       </c>
       <c r="ET3">
-        <v>0.008363252777000627</v>
+        <v>0.00836506363365221</v>
       </c>
       <c r="EU3">
-        <v>0.01193751868169572</v>
+        <v>0.01194140957469124</v>
       </c>
       <c r="EV3">
-        <v>0.009733480740464607</v>
+        <v>0.009736088998327933</v>
       </c>
       <c r="EW3">
-        <v>0.001947961548059181</v>
+        <v>0.001946039039799205</v>
       </c>
       <c r="EX3">
-        <v>0.002216706240893321</v>
+        <v>0.002214940128028439</v>
       </c>
       <c r="EY3">
-        <v>0.02374600336683202</v>
+        <v>0.02375676618205351</v>
       </c>
       <c r="EZ3">
-        <v>0.04539554478956451</v>
+        <v>0.04541890650878187</v>
       </c>
       <c r="FA3">
-        <v>0.05814732444954861</v>
+        <v>0.05817810703947061</v>
       </c>
       <c r="FB3">
-        <v>0.04889539469624384</v>
+        <v>0.0489207931455754</v>
       </c>
       <c r="FC3">
-        <v>0.01394729862810656</v>
+        <v>0.01395235910821265</v>
       </c>
       <c r="FD3">
-        <v>0.001631679756492579</v>
+        <v>0.0016295731887253</v>
       </c>
       <c r="FE3">
-        <v>0.001941042948243659</v>
+        <v>0.001939116413719424</v>
       </c>
       <c r="FF3">
-        <v>0.007726579793976999</v>
+        <v>0.007728020140157564</v>
       </c>
       <c r="FG3">
-        <v>0.005361317857044795</v>
+        <v>0.005361381744136153</v>
       </c>
       <c r="FH3">
-        <v>0.006669041522175402</v>
+        <v>0.006669866436236726</v>
       </c>
       <c r="FI3">
-        <v>0.01988149146987611</v>
+        <v>0.01989000534072367</v>
       </c>
       <c r="FJ3">
-        <v>0.02924737022014253</v>
+        <v>0.02926133454395385</v>
       </c>
       <c r="FK3">
-        <v>0.03055295218533024</v>
+        <v>0.03056767628975387</v>
       </c>
       <c r="FL3">
-        <v>0.0144557656145487</v>
+        <v>0.01446112199592227</v>
       </c>
       <c r="FM3">
-        <v>0.005027767165938655</v>
+        <v>0.005027636943923822</v>
       </c>
       <c r="FN3">
-        <v>0.0004577483477945105</v>
+        <v>0.0004549586131726954</v>
       </c>
       <c r="FO3">
-        <v>0.0003078451717915574</v>
+        <v>0.0003049682013393726</v>
       </c>
       <c r="FP3">
-        <v>0.002248212640053228</v>
+        <v>0.00224646486226947</v>
       </c>
       <c r="FQ3">
-        <v>0.004755429873200307</v>
+        <v>0.004755141165084605</v>
       </c>
       <c r="FR3">
-        <v>0.003174082715365651</v>
+        <v>0.003172873745677812</v>
       </c>
       <c r="FS3">
-        <v>0.00917186975543951</v>
+        <v>0.009174151184999861</v>
       </c>
       <c r="FT3">
-        <v>0.005604466250561439</v>
+        <v>0.00560467163733664</v>
       </c>
       <c r="FU3">
-        <v>0.005387831856337821</v>
+        <v>0.005387911173193954</v>
       </c>
       <c r="FV3">
-        <v>0.003985992893716723</v>
+        <v>0.003985256413408247</v>
       </c>
       <c r="FW3">
-        <v>0.004196729388097605</v>
+        <v>0.004196115545438088</v>
       </c>
       <c r="FX3">
-        <v>0.004622478376745352</v>
+        <v>0.004622112297792677</v>
       </c>
       <c r="FY3">
-        <v>0.0009719547740836119</v>
+        <v>0.0009694642807839283</v>
       </c>
       <c r="FZ3">
-        <v>3.610960903716647E-06</v>
+        <v>5.569420078538806E-07</v>
       </c>
       <c r="GA3">
-        <v>0.0007265823506262692</v>
+        <v>0.0007239490633733091</v>
       </c>
       <c r="GB3">
-        <v>0.005516075852918298</v>
+        <v>0.005516229801091991</v>
       </c>
       <c r="GC3">
-        <v>0.007382264203157895</v>
+        <v>0.00738350417562207</v>
       </c>
       <c r="GD3">
-        <v>0.002564131631629504</v>
+        <v>0.002562567702222375</v>
       </c>
       <c r="GE3">
-        <v>0.00264419682949463</v>
+        <v>0.002642679493856931</v>
       </c>
       <c r="GF3">
-        <v>0.0003555200405203456</v>
+        <v>0.0003526708143553215</v>
       </c>
       <c r="GG3">
-        <v>0.001109165970424986</v>
+        <v>0.001106755326885448</v>
       </c>
       <c r="GH3">
-        <v>0.001764191352959264</v>
+        <v>0.001762161900030107</v>
       </c>
       <c r="GI3">
-        <v>0.002023503946044904</v>
+        <v>0.00202162539952071</v>
       </c>
       <c r="GJ3">
-        <v>1.004399823218491E-08</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.000218615444170796</v>
+        <v>0.0002156865466708312</v>
       </c>
       <c r="GL3">
-        <v>0.001749033253363443</v>
+        <v>0.001746994979210878</v>
       </c>
       <c r="GM3">
-        <v>0.001915207448932542</v>
+        <v>0.001913265879495135</v>
       </c>
       <c r="GN3">
-        <v>0.0001949353848022056</v>
+        <v>0.0001919927067427003</v>
       </c>
       <c r="GO3">
-        <v>4.562112278354965E-05</v>
+        <v>4.259155161089913E-05</v>
       </c>
       <c r="GP3">
-        <v>0.0003987073593687907</v>
+        <v>0.000395883265970941</v>
       </c>
       <c r="GQ3">
-        <v>0.0008324442078035483</v>
+        <v>0.0008298725266303365</v>
       </c>
       <c r="GR3">
-        <v>0.000372522190066997</v>
+        <v>0.0003696828582662774</v>
       </c>
       <c r="GS3">
-        <v>5.850524844000486E-11</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001463351377408007</v>
+        <v>8.282393344217215E-06</v>
       </c>
       <c r="C4">
-        <v>0.0001441567577744316</v>
+        <v>6.050748670113143E-06</v>
       </c>
       <c r="D4">
-        <v>0.0002482879961667984</v>
+        <v>0.0001127281544275345</v>
       </c>
       <c r="E4">
-        <v>0.0002270457264947478</v>
+        <v>9.096647891115059E-05</v>
       </c>
       <c r="F4">
-        <v>0.0001874104471066583</v>
+        <v>5.036205657959082E-05</v>
       </c>
       <c r="G4">
-        <v>0.000233560326394172</v>
+        <v>9.764037069950628E-05</v>
       </c>
       <c r="H4">
-        <v>0.0001112857622819115</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001382504278656167</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>8.266235872381473E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001722640373404966</v>
+        <v>3.484529402746657E-05</v>
       </c>
       <c r="L4">
-        <v>0.0001422640578036521</v>
+        <v>4.111769302566266E-06</v>
       </c>
       <c r="M4">
-        <v>7.641687882023576E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001049433323798293</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3.239277349990321E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.828490640893735E-06</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>6.711930896377657E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0001323116379573028</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001426415777978238</v>
+        <v>4.498520235538384E-06</v>
       </c>
       <c r="T4">
-        <v>0.0007882328878308433</v>
+        <v>0.0006658755210002394</v>
       </c>
       <c r="U4">
-        <v>0.0007450708584972015</v>
+        <v>0.0006216581143159054</v>
       </c>
       <c r="V4">
-        <v>0.0003641614643778825</v>
+        <v>0.0002314349054055349</v>
       </c>
       <c r="W4">
-        <v>0.000322727045017569</v>
+        <v>0.0001889873513894355</v>
       </c>
       <c r="X4">
-        <v>0.0001726794273340836</v>
+        <v>3.527084093901372E-05</v>
       </c>
       <c r="Y4">
-        <v>0.0002121155067252485</v>
+        <v>7.567119253035298E-05</v>
       </c>
       <c r="Z4">
-        <v>0.0001236228080914456</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>5.698293412026729E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>6.711930896377657E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>6.026957906952632E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.064933368120465E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.766109672733863E-07</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>7.648119881924275E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>4.377375632419757E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01166107481997015</v>
+        <v>0.01180457499714278</v>
       </c>
       <c r="AI4">
-        <v>0.02199123366048769</v>
+        <v>0.02238732195359579</v>
       </c>
       <c r="AJ4">
-        <v>0.004628520928542443</v>
+        <v>0.00460006445286254</v>
       </c>
       <c r="AK4">
-        <v>0.02917356354960307</v>
+        <v>0.02974527074680809</v>
       </c>
       <c r="AL4">
-        <v>0.00831396287164464</v>
+        <v>0.00837562106420648</v>
       </c>
       <c r="AM4">
-        <v>0.001689293073919799</v>
+        <v>0.001588968000906013</v>
       </c>
       <c r="AN4">
-        <v>0.0002020371268808438</v>
+        <v>6.53463809499139E-05</v>
       </c>
       <c r="AO4">
-        <v>0.00197595566949415</v>
+        <v>0.001882639933514108</v>
       </c>
       <c r="AP4">
-        <v>8.327977271428276E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0006044069206688459</v>
+        <v>0.0004775547289839187</v>
       </c>
       <c r="AR4">
-        <v>0.0003903122239741532</v>
+        <v>0.0002582250909001563</v>
       </c>
       <c r="AS4">
-        <v>0.026614257589115</v>
+        <v>0.02712338585789864</v>
       </c>
       <c r="AT4">
-        <v>0.05640976912911611</v>
+        <v>0.05764744303203887</v>
       </c>
       <c r="AU4">
-        <v>0.01918846670375829</v>
+        <v>0.01951602307630872</v>
       </c>
       <c r="AV4">
-        <v>0.003602290744385928</v>
+        <v>0.003548741377809177</v>
       </c>
       <c r="AW4">
-        <v>0.0008213047273202626</v>
+        <v>0.0006997560173318351</v>
       </c>
       <c r="AX4">
-        <v>0.006159585904905051</v>
+        <v>0.006168566299628086</v>
       </c>
       <c r="AY4">
-        <v>0.01629686674840034</v>
+        <v>0.01655371909828868</v>
       </c>
       <c r="AZ4">
-        <v>0.008969154861529436</v>
+        <v>0.009046833496066661</v>
       </c>
       <c r="BA4">
-        <v>0.0071562708895177</v>
+        <v>0.007189621750012961</v>
       </c>
       <c r="BB4">
-        <v>0.007428307485317855</v>
+        <v>0.007468310054877757</v>
       </c>
       <c r="BC4">
-        <v>0.006214678704054499</v>
+        <v>0.006225006201620154</v>
       </c>
       <c r="BD4">
-        <v>0.0005895023308989509</v>
+        <v>0.000462285699295249</v>
       </c>
       <c r="BE4">
-        <v>8.923848362228903E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.009649193851030635</v>
+        <v>0.009743500474524529</v>
       </c>
       <c r="BG4">
-        <v>0.02089747967737364</v>
+        <v>0.02126682401986522</v>
       </c>
       <c r="BH4">
-        <v>0.001973345169534452</v>
+        <v>0.001879965602854743</v>
       </c>
       <c r="BI4">
-        <v>0.0004198659635178869</v>
+        <v>0.0002885014643845145</v>
       </c>
       <c r="BJ4">
-        <v>7.229126888392911E-08</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0003177135950949692</v>
+        <v>0.0001838513149810095</v>
       </c>
       <c r="BL4">
-        <v>0.005223879519350981</v>
+        <v>0.00520998046791595</v>
       </c>
       <c r="BM4">
-        <v>0.00562315661318673</v>
+        <v>0.005619020494773851</v>
       </c>
       <c r="BN4">
-        <v>0.002499858361405862</v>
+        <v>0.002419352844119115</v>
       </c>
       <c r="BO4">
-        <v>0.006171293904724297</v>
+        <v>0.006180560577873576</v>
       </c>
       <c r="BP4">
-        <v>0.008255556872546341</v>
+        <v>0.008315786949480986</v>
       </c>
       <c r="BQ4">
-        <v>0.003602290744385928</v>
+        <v>0.003548741377809177</v>
       </c>
       <c r="BR4">
-        <v>0.005526996914671295</v>
+        <v>0.005520509545183585</v>
       </c>
       <c r="BS4">
-        <v>0.01120928382694514</v>
+        <v>0.01134173702628455</v>
       </c>
       <c r="BT4">
-        <v>0.01041301783923832</v>
+        <v>0.01052600112250737</v>
       </c>
       <c r="BU4">
-        <v>0.001944943569972931</v>
+        <v>0.00185086954092981</v>
       </c>
       <c r="BV4">
-        <v>0.001383261478644477</v>
+        <v>0.001275453467056297</v>
       </c>
       <c r="BW4">
-        <v>0.00557986691385506</v>
+        <v>0.005574672296365601</v>
       </c>
       <c r="BX4">
-        <v>0.008986280861265038</v>
+        <v>0.009064378252577788</v>
       </c>
       <c r="BY4">
-        <v>0.007713354580917147</v>
+        <v>0.007760326986076083</v>
       </c>
       <c r="BZ4">
-        <v>0.01082369883289801</v>
+        <v>0.01094672389190744</v>
       </c>
       <c r="CA4">
-        <v>0.01041624783918845</v>
+        <v>0.0105293101008754</v>
       </c>
       <c r="CB4">
-        <v>0.007721293880794576</v>
+        <v>0.007768460413926648</v>
       </c>
       <c r="CC4">
-        <v>0.007346744886577061</v>
+        <v>0.007384753126382234</v>
       </c>
       <c r="CD4">
-        <v>0.001826629471799527</v>
+        <v>0.00172966248286996</v>
       </c>
       <c r="CE4">
-        <v>7.72089588080072E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.000200626556902621</v>
+        <v>6.390132038750011E-05</v>
       </c>
       <c r="CG4">
-        <v>0.001782098072487026</v>
+        <v>0.001684042223025307</v>
       </c>
       <c r="CH4">
-        <v>0.004316688933356671</v>
+        <v>0.004280607690490861</v>
       </c>
       <c r="CI4">
-        <v>0.009047641860317713</v>
+        <v>0.009127239621506853</v>
       </c>
       <c r="CJ4">
-        <v>0.005032959322298509</v>
+        <v>0.005014391981284196</v>
       </c>
       <c r="CK4">
-        <v>0.001291232980065261</v>
+        <v>0.00118117473153229</v>
       </c>
       <c r="CL4">
-        <v>0.000662160149777221</v>
+        <v>0.0005367201124991029</v>
       </c>
       <c r="CM4">
-        <v>0.002252142165230237</v>
+        <v>0.002165579609688348</v>
       </c>
       <c r="CN4">
-        <v>0.007794128579670115</v>
+        <v>0.007843076032113082</v>
       </c>
       <c r="CO4">
-        <v>0.01449118677627739</v>
+        <v>0.01470388750089235</v>
       </c>
       <c r="CP4">
-        <v>0.008925555862202542</v>
+        <v>0.009002168434807258</v>
       </c>
       <c r="CQ4">
-        <v>0.001414188378167011</v>
+        <v>0.001307136576372187</v>
       </c>
       <c r="CR4">
-        <v>0.002428527462507107</v>
+        <v>0.002346277796109104</v>
       </c>
       <c r="CS4">
-        <v>0.01883767370917402</v>
+        <v>0.01915665265876771</v>
       </c>
       <c r="CT4">
-        <v>0.04316231533363732</v>
+        <v>0.04407606881609009</v>
       </c>
       <c r="CU4">
-        <v>0.06419214900896761</v>
+        <v>0.06562011395210514</v>
       </c>
       <c r="CV4">
-        <v>0.05062772221838242</v>
+        <v>0.05172401626858652</v>
       </c>
       <c r="CW4">
-        <v>0.01900238670663109</v>
+        <v>0.01932539313986179</v>
       </c>
       <c r="CX4">
-        <v>0.00437537593245063</v>
+        <v>0.004340729676089859</v>
       </c>
       <c r="CY4">
-        <v>0.001691708473882509</v>
+        <v>0.001591442461076337</v>
       </c>
       <c r="CZ4">
-        <v>0.01157826682124859</v>
+        <v>0.01171974221674028</v>
       </c>
       <c r="DA4">
-        <v>0.01225399281081637</v>
+        <v>0.01241199073584789</v>
       </c>
       <c r="DB4">
-        <v>0.01213921081258844</v>
+        <v>0.01229440214295638</v>
       </c>
       <c r="DC4">
-        <v>0.02197783266069458</v>
+        <v>0.02237359327894873</v>
       </c>
       <c r="DD4">
-        <v>0.02602776859816952</v>
+        <v>0.02652255631793288</v>
       </c>
       <c r="DE4">
-        <v>0.0261664685960282</v>
+        <v>0.02666464774197196</v>
       </c>
       <c r="DF4">
-        <v>0.01062621383594688</v>
+        <v>0.01074441008602167</v>
       </c>
       <c r="DG4">
-        <v>0.00480478792582114</v>
+        <v>0.004780641446670003</v>
       </c>
       <c r="DH4">
-        <v>0.0007917892577759382</v>
+        <v>0.000669518849606655</v>
       </c>
       <c r="DI4">
-        <v>2.136993267007966E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0004804241425829577</v>
+        <v>0.0003505403831546257</v>
       </c>
       <c r="DK4">
-        <v>0.00390454673971954</v>
+        <v>0.003858387992548569</v>
       </c>
       <c r="DL4">
-        <v>0.01091320683151613</v>
+        <v>0.01103842049740772</v>
       </c>
       <c r="DM4">
-        <v>0.01719735373449815</v>
+        <v>0.01747622436259057</v>
       </c>
       <c r="DN4">
-        <v>0.01031962184068021</v>
+        <v>0.01043032144954736</v>
       </c>
       <c r="DO4">
-        <v>0.01013681884350242</v>
+        <v>0.01024304864068929</v>
       </c>
       <c r="DP4">
-        <v>0.009724801849863358</v>
+        <v>0.009820957204075692</v>
       </c>
       <c r="DQ4">
-        <v>0.008235861872850404</v>
+        <v>0.00829561037704804</v>
       </c>
       <c r="DR4">
-        <v>0.00407868893703104</v>
+        <v>0.004036788231793679</v>
       </c>
       <c r="DS4">
-        <v>0.0008222114273062646</v>
+        <v>0.0007006848875133509</v>
       </c>
       <c r="DT4">
-        <v>1.002000984530578E-05</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.001691708473882509</v>
+        <v>0.001591442461076337</v>
       </c>
       <c r="DV4">
-        <v>0.005956650608038073</v>
+        <v>0.005960668925693001</v>
       </c>
       <c r="DW4">
-        <v>0.004236899934588495</v>
+        <v>0.004198867729188384</v>
       </c>
       <c r="DX4">
-        <v>0.004615617428741654</v>
+        <v>0.004586845442840275</v>
       </c>
       <c r="DY4">
-        <v>0.006199725304285357</v>
+        <v>0.00620968716845342</v>
       </c>
       <c r="DZ4">
-        <v>0.001587426275492472</v>
+        <v>0.001484610404119399</v>
       </c>
       <c r="EA4">
-        <v>1.406720878282298E-07</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>2.196845566083935E-06</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>5.110516121101146E-05</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.0003554188545128555</v>
+        <v>0.0002224785254147762</v>
       </c>
       <c r="EE4">
-        <v>0.0005222010619379834</v>
+        <v>0.0003933388118119175</v>
       </c>
       <c r="EF4">
-        <v>0.001437222577811397</v>
+        <v>0.001330733997277744</v>
       </c>
       <c r="EG4">
-        <v>0.0009178773458293234</v>
+        <v>0.0007986899834384259</v>
       </c>
       <c r="EH4">
-        <v>0.0002067531968080346</v>
+        <v>7.017776596914924E-05</v>
       </c>
       <c r="EI4">
-        <v>0.0001993484769223526</v>
+        <v>6.25919894052661E-05</v>
       </c>
       <c r="EJ4">
-        <v>2.617084959596057E-06</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0008144553874260064</v>
+        <v>0.0006927392006459824</v>
       </c>
       <c r="EL4">
-        <v>0.0006450623900411852</v>
+        <v>0.0005192042864985384</v>
       </c>
       <c r="EM4">
-        <v>6.711930896377657E-05</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>8.350893871074479E-06</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>3.976596738607193E-05</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.0009878897847484345</v>
+        <v>0.0008704143331143458</v>
       </c>
       <c r="EQ4">
-        <v>0.002793119256878346</v>
+        <v>0.002719784415106713</v>
       </c>
       <c r="ER4">
-        <v>0.003395691647575514</v>
+        <v>0.003337090618442266</v>
       </c>
       <c r="ES4">
-        <v>0.002871274955671737</v>
+        <v>0.002799851139762593</v>
       </c>
       <c r="ET4">
-        <v>0.0003239458549987523</v>
+        <v>0.0001902359631308418</v>
       </c>
       <c r="EU4">
-        <v>0.0001933333970152166</v>
+        <v>5.642983163375245E-05</v>
       </c>
       <c r="EV4">
-        <v>0.001132438382516817</v>
+        <v>0.001018497364238024</v>
       </c>
       <c r="EW4">
-        <v>0.0008116207874697685</v>
+        <v>0.0006898352904038689</v>
       </c>
       <c r="EX4">
-        <v>1.248720780721587E-05</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.0004749920526668212</v>
+        <v>0.0003449754703672545</v>
       </c>
       <c r="EZ4">
-        <v>0.002894323955315894</v>
+        <v>0.002823463722550456</v>
       </c>
       <c r="FA4">
-        <v>0.003395691647575514</v>
+        <v>0.003337090618442266</v>
       </c>
       <c r="FB4">
-        <v>0.001133502982500381</v>
+        <v>0.001019587995312515</v>
       </c>
       <c r="FC4">
-        <v>8.808963864002551E-05</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.00364854504367183</v>
+        <v>0.003596126665155467</v>
       </c>
       <c r="FE4">
-        <v>0.007657101881785606</v>
+        <v>0.007702698822780894</v>
       </c>
       <c r="FF4">
-        <v>0.008853126863320739</v>
+        <v>0.008927968436597265</v>
       </c>
       <c r="FG4">
-        <v>0.00480478792582114</v>
+        <v>0.004780641446670003</v>
       </c>
       <c r="FH4">
-        <v>0.0009762777849277065</v>
+        <v>0.0008585184022135402</v>
       </c>
       <c r="FI4">
-        <v>3.036794553116357E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0007309536287151508</v>
+        <v>0.0006071956967658901</v>
       </c>
       <c r="FK4">
-        <v>0.001440993877753174</v>
+        <v>0.001334597511246587</v>
       </c>
       <c r="FL4">
-        <v>0.00131030097977088</v>
+        <v>0.001200708972870264</v>
       </c>
       <c r="FM4">
-        <v>0.003552829545149536</v>
+        <v>0.003498070776924669</v>
       </c>
       <c r="FN4">
-        <v>0.005313094617973631</v>
+        <v>0.005301377011569794</v>
       </c>
       <c r="FO4">
-        <v>0.002128853967133625</v>
+        <v>0.002039276827386878</v>
       </c>
       <c r="FP4">
-        <v>0.0006256990903401261</v>
+        <v>0.0004993675246305085</v>
       </c>
       <c r="FQ4">
-        <v>0.0003239458549987523</v>
+        <v>0.0001902359631308418</v>
       </c>
       <c r="FR4">
-        <v>7.194164888932673E-05</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001956919169788046</v>
+        <v>0.001863137962398609</v>
       </c>
       <c r="FT4">
-        <v>0.00254297016074028</v>
+        <v>0.002463518792604247</v>
       </c>
       <c r="FU4">
-        <v>0.003264788949596459</v>
+        <v>0.003202987150139747</v>
       </c>
       <c r="FV4">
-        <v>0.00305649895281215</v>
+        <v>0.002989604145719428</v>
       </c>
       <c r="FW4">
-        <v>0.001642813674637372</v>
+        <v>0.001541352109525467</v>
       </c>
       <c r="FX4">
-        <v>0.0001666757274267719</v>
+        <v>2.912034142565126E-05</v>
       </c>
       <c r="FY4">
-        <v>8.091765875075034E-06</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>7.804504879509921E-07</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>3.194072550688217E-06</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>8.274455372254575E-05</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>3.863429940354322E-05</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>2.383973263194958E-05</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.00027773694571215</v>
+        <v>0.0001428971756384604</v>
       </c>
       <c r="GF4">
-        <v>0.001571621975736468</v>
+        <v>0.001468419665165248</v>
       </c>
       <c r="GG4">
-        <v>0.004998396922832101</v>
+        <v>0.00497898447851413</v>
       </c>
       <c r="GH4">
-        <v>0.005690110312153064</v>
+        <v>0.005687611313646848</v>
       </c>
       <c r="GI4">
-        <v>0.003134942051601104</v>
+        <v>0.003069965297738457</v>
       </c>
       <c r="GJ4">
-        <v>0.002253644165207048</v>
+        <v>0.002167118335852059</v>
       </c>
       <c r="GK4">
-        <v>0.0005014490422583641</v>
+        <v>0.0003720793736469046</v>
       </c>
       <c r="GL4">
-        <v>1.968679669606481E-06</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0005144850520571074</v>
+        <v>0.0003854341337383797</v>
       </c>
       <c r="GN4">
-        <v>0.0003205389650513497</v>
+        <v>0.0001867457695357123</v>
       </c>
       <c r="GO4">
-        <v>0.000907638185987401</v>
+        <v>0.0007882004605446703</v>
       </c>
       <c r="GP4">
-        <v>0.001937974770080519</v>
+        <v>0.001843730343266916</v>
       </c>
       <c r="GQ4">
-        <v>0.002818970656479238</v>
+        <v>0.00274626792079816</v>
       </c>
       <c r="GR4">
-        <v>0.003196725150647264</v>
+        <v>0.003133259087648683</v>
       </c>
       <c r="GS4">
-        <v>0.002634936959320448</v>
+        <v>0.002557734319470263</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.260141046149684E-05</v>
+        <v>1.536075397683742E-05</v>
       </c>
       <c r="C5">
-        <v>8.38948017130429E-05</v>
+        <v>7.674131758848523E-05</v>
       </c>
       <c r="D5">
-        <v>0.0001208402274674293</v>
+        <v>0.0001137392876693025</v>
       </c>
       <c r="E5">
-        <v>0.0001336870327297475</v>
+        <v>0.0001266043638465042</v>
       </c>
       <c r="F5">
-        <v>0.0002338225347744083</v>
+        <v>0.0002268822800709806</v>
       </c>
       <c r="G5">
-        <v>0.0002327351147522043</v>
+        <v>0.0002257933135040706</v>
       </c>
       <c r="H5">
-        <v>0.0003216444065676378</v>
+        <v>0.0003148290534184634</v>
       </c>
       <c r="I5">
-        <v>0.0004348695588795754</v>
+        <v>0.0004282152362028283</v>
       </c>
       <c r="J5">
-        <v>0.0003108824663478904</v>
+        <v>0.0003040518074094771</v>
       </c>
       <c r="K5">
-        <v>0.0001895969238713682</v>
+        <v>0.0001825937708554041</v>
       </c>
       <c r="L5">
-        <v>0.000145031232961384</v>
+        <v>0.0001379646979661092</v>
       </c>
       <c r="M5">
-        <v>3.410383669636419E-05</v>
+        <v>2.687953913101591E-05</v>
       </c>
       <c r="N5">
-        <v>9.166153187163129E-06</v>
+        <v>1.906388882537101E-06</v>
       </c>
       <c r="O5">
-        <v>7.328311149636344E-07</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.601334732697557E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>7.262471748291973E-06</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.736641755879323E-05</v>
+        <v>2.013253793712168E-05</v>
       </c>
       <c r="S5">
-        <v>4.804044598093497E-05</v>
+        <v>4.083596926573619E-05</v>
       </c>
       <c r="T5">
-        <v>6.256938127760042E-05</v>
+        <v>5.538556782729391E-05</v>
       </c>
       <c r="U5">
-        <v>8.778980179257467E-05</v>
+        <v>8.064185719426276E-05</v>
       </c>
       <c r="V5">
-        <v>9.286425689618966E-05</v>
+        <v>8.572352926235923E-05</v>
       </c>
       <c r="W5">
-        <v>0.0002288467846728087</v>
+        <v>0.0002218994533846013</v>
       </c>
       <c r="X5">
-        <v>0.0003393165069284833</v>
+        <v>0.00033252628729966</v>
       </c>
       <c r="Y5">
-        <v>0.0003455747070562691</v>
+        <v>0.0003387933879314641</v>
       </c>
       <c r="Z5">
-        <v>0.0004127466884278498</v>
+        <v>0.0004060609022802435</v>
       </c>
       <c r="AA5">
-        <v>0.0004815742098332347</v>
+        <v>0.0004749863111961471</v>
       </c>
       <c r="AB5">
-        <v>0.0005332798108890083</v>
+        <v>0.0005267654487161703</v>
       </c>
       <c r="AC5">
-        <v>0.000472632329650651</v>
+        <v>0.0004660317137404065</v>
       </c>
       <c r="AD5">
-        <v>0.000307633456281549</v>
+        <v>0.0003007981765533623</v>
       </c>
       <c r="AE5">
-        <v>0.0001662520133946899</v>
+        <v>0.000159215658904618</v>
       </c>
       <c r="AF5">
-        <v>4.479238791461307E-06</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>5.276186107734127E-08</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001057391921590822</v>
+        <v>0.001051622959349606</v>
       </c>
       <c r="AI5">
-        <v>0.08477014173091642</v>
+        <v>0.08488343026936948</v>
       </c>
       <c r="AJ5">
-        <v>0.0007194088646895663</v>
+        <v>0.0007131592179872219</v>
       </c>
       <c r="AK5">
-        <v>0.03535517772191524</v>
+        <v>0.03539818757372607</v>
       </c>
       <c r="AL5">
-        <v>0.01275422926042784</v>
+        <v>0.01276509571182148</v>
       </c>
       <c r="AM5">
-        <v>0.0006244238627500732</v>
+        <v>0.0006180391269847114</v>
       </c>
       <c r="AN5">
-        <v>0.003044766662170907</v>
+        <v>0.003041824173436956</v>
       </c>
       <c r="AO5">
-        <v>7.232762147685335E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.003300999867402917</v>
+        <v>0.003298421797291928</v>
       </c>
       <c r="AQ5">
-        <v>0.0003049482262267195</v>
+        <v>0.0002981091275249613</v>
       </c>
       <c r="AR5">
-        <v>0.01299939126543379</v>
+        <v>0.01301060638982703</v>
       </c>
       <c r="AS5">
-        <v>0.003254511666453678</v>
+        <v>0.0032518674801414</v>
       </c>
       <c r="AT5">
-        <v>0.01195385024408495</v>
+        <v>0.01196357838470143</v>
       </c>
       <c r="AU5">
-        <v>0.06331758129287787</v>
+        <v>0.06340035968520549</v>
       </c>
       <c r="AV5">
-        <v>0.02482539250690819</v>
+        <v>0.02485342674373323</v>
       </c>
       <c r="AW5">
-        <v>7.433977751793943E-05</v>
+        <v>6.717270409781647E-05</v>
       </c>
       <c r="AX5">
-        <v>0.01345303027469661</v>
+        <v>0.0134648905711429</v>
       </c>
       <c r="AY5">
-        <v>0.01464905729911822</v>
+        <v>0.0146626186027422</v>
       </c>
       <c r="AZ5">
-        <v>0.00275409105623562</v>
+        <v>0.00275073516439122</v>
       </c>
       <c r="BA5">
-        <v>0.01591396932494638</v>
+        <v>0.01592932960500749</v>
       </c>
       <c r="BB5">
-        <v>0.01250220725528182</v>
+        <v>0.01251271527728303</v>
       </c>
       <c r="BC5">
-        <v>0.0005700643616401099</v>
+        <v>0.0005636023149949134</v>
       </c>
       <c r="BD5">
-        <v>0.0002608593253264709</v>
+        <v>0.0002539575227431475</v>
       </c>
       <c r="BE5">
-        <v>0.0002958846260416504</v>
+        <v>0.0002890326369547623</v>
       </c>
       <c r="BF5">
-        <v>0.002081797542508099</v>
+        <v>0.002077485504967139</v>
       </c>
       <c r="BG5">
-        <v>0.01259392425715458</v>
+        <v>0.01260456272042118</v>
       </c>
       <c r="BH5">
-        <v>0.004009319581866054</v>
+        <v>0.00400774889444275</v>
       </c>
       <c r="BI5">
-        <v>0.0001473987230097256</v>
+        <v>0.0001403355550935244</v>
       </c>
       <c r="BJ5">
-        <v>0.0002737736055901668</v>
+        <v>0.0002668901698856636</v>
       </c>
       <c r="BK5">
-        <v>0.00181815463712479</v>
+        <v>0.001813467642776627</v>
       </c>
       <c r="BL5">
-        <v>0.0006689474836591983</v>
+        <v>0.0006626260700405749</v>
       </c>
       <c r="BM5">
-        <v>0.004130109084332449</v>
+        <v>0.004128710185511317</v>
       </c>
       <c r="BN5">
-        <v>0.005640863515180452</v>
+        <v>0.005641613233470922</v>
       </c>
       <c r="BO5">
-        <v>0.001068056721808586</v>
+        <v>0.001062302927202673</v>
       </c>
       <c r="BP5">
-        <v>0.001797720436707545</v>
+        <v>0.001793004380539816</v>
       </c>
       <c r="BQ5">
-        <v>0.005398876610239336</v>
+        <v>0.005399282171204087</v>
       </c>
       <c r="BR5">
-        <v>0.01387828028337977</v>
+        <v>0.01389074537662606</v>
       </c>
       <c r="BS5">
-        <v>0.002728351655710048</v>
+        <v>0.00272495915691267</v>
       </c>
       <c r="BT5">
-        <v>0.002280741746570328</v>
+        <v>0.00227671265039454</v>
       </c>
       <c r="BU5">
-        <v>0.004363230489092541</v>
+        <v>0.004362163138952732</v>
       </c>
       <c r="BV5">
-        <v>2.173159444373612E-05</v>
+        <v>1.448970089397761E-05</v>
       </c>
       <c r="BW5">
-        <v>0.01308602526720276</v>
+        <v>0.01309736360374409</v>
       </c>
       <c r="BX5">
-        <v>0.02139829143693042</v>
+        <v>0.02142145160034433</v>
       </c>
       <c r="BY5">
-        <v>0.004355733088939451</v>
+        <v>0.00435465507588717</v>
       </c>
       <c r="BZ5">
-        <v>0.001598036832630218</v>
+        <v>0.00159303678351177</v>
       </c>
       <c r="CA5">
-        <v>0.01494568330517501</v>
+        <v>0.01495966647465577</v>
       </c>
       <c r="CB5">
-        <v>0.01495438830535275</v>
+        <v>0.01496838385521246</v>
       </c>
       <c r="CC5">
-        <v>0.0030680094626455</v>
+        <v>0.003065100030163315</v>
       </c>
       <c r="CD5">
-        <v>1.615329932983325E-06</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>7.547667154115361E-05</v>
+        <v>6.831121502838665E-05</v>
       </c>
       <c r="CF5">
-        <v>1.605224132776975E-05</v>
+        <v>8.802270518703819E-06</v>
       </c>
       <c r="CG5">
-        <v>0.002929975559826995</v>
+        <v>0.002926869813503512</v>
       </c>
       <c r="CH5">
-        <v>0.007363689150358725</v>
+        <v>0.007366889096538299</v>
       </c>
       <c r="CI5">
-        <v>0.004889658099841634</v>
+        <v>0.004889339442771578</v>
       </c>
       <c r="CJ5">
-        <v>0.003830338078211443</v>
+        <v>0.003828512840668305</v>
       </c>
       <c r="CK5">
-        <v>0.001629770633278188</v>
+        <v>0.0016248157164365</v>
       </c>
       <c r="CL5">
-        <v>0.001575617232172433</v>
+        <v>0.00157058529756936</v>
       </c>
       <c r="CM5">
-        <v>0.002893478159081757</v>
+        <v>0.002890320505619583</v>
       </c>
       <c r="CN5">
-        <v>0.006188266526357841</v>
+        <v>0.006189794769240226</v>
       </c>
       <c r="CO5">
-        <v>0.01025573370941121</v>
+        <v>0.01026304676378376</v>
       </c>
       <c r="CP5">
-        <v>0.01029723421025861</v>
+        <v>0.0103046062872522</v>
       </c>
       <c r="CQ5">
-        <v>0.00296282476049774</v>
+        <v>0.00295976573278929</v>
       </c>
       <c r="CR5">
-        <v>0.0001307440326696545</v>
+        <v>0.0001236571782085573</v>
       </c>
       <c r="CS5">
-        <v>0.01293173626405234</v>
+        <v>0.01294285516851025</v>
       </c>
       <c r="CT5">
-        <v>0.03798957077570676</v>
+        <v>0.03803632729996049</v>
       </c>
       <c r="CU5">
-        <v>0.05663607715644865</v>
+        <v>0.05670935301558778</v>
       </c>
       <c r="CV5">
-        <v>0.05824428118928647</v>
+        <v>0.05831984425979057</v>
       </c>
       <c r="CW5">
-        <v>0.02219978945329617</v>
+        <v>0.02222408951894548</v>
       </c>
       <c r="CX5">
-        <v>0.002750356056159354</v>
+        <v>0.00274699485234306</v>
       </c>
       <c r="CY5">
-        <v>0.0007651721156240033</v>
+        <v>0.0007589875540884025</v>
       </c>
       <c r="CZ5">
-        <v>0.007939666162119564</v>
+        <v>0.00794368527125381</v>
       </c>
       <c r="DA5">
-        <v>0.007013597143210218</v>
+        <v>0.007016299183402005</v>
       </c>
       <c r="DB5">
-        <v>0.006611109134991839</v>
+        <v>0.006613238750834563</v>
       </c>
       <c r="DC5">
-        <v>0.012006451245159</v>
+        <v>0.01201625419569077</v>
       </c>
       <c r="DD5">
-        <v>0.02445101649926383</v>
+        <v>0.02447851829303938</v>
       </c>
       <c r="DE5">
-        <v>0.0262531945360624</v>
+        <v>0.02628325941387659</v>
       </c>
       <c r="DF5">
-        <v>0.01582737032317812</v>
+        <v>0.01584260744086866</v>
       </c>
       <c r="DG5">
-        <v>0.004590683093736882</v>
+        <v>0.004589939230027719</v>
       </c>
       <c r="DH5">
-        <v>0.001058769821618957</v>
+        <v>0.001053002819047373</v>
       </c>
       <c r="DI5">
-        <v>0.0001628273233247613</v>
+        <v>0.0001557860981902379</v>
       </c>
       <c r="DJ5">
-        <v>0.003575433773006567</v>
+        <v>0.003573246006821579</v>
       </c>
       <c r="DK5">
-        <v>0.004951612101106669</v>
+        <v>0.004951381555925965</v>
       </c>
       <c r="DL5">
-        <v>0.00389407487951288</v>
+        <v>0.003892340289383457</v>
       </c>
       <c r="DM5">
-        <v>0.008251332168483455</v>
+        <v>0.008255794533583532</v>
       </c>
       <c r="DN5">
-        <v>0.007095251144877506</v>
+        <v>0.007098069314588182</v>
       </c>
       <c r="DO5">
-        <v>0.005445561111192584</v>
+        <v>0.005446033067539368</v>
       </c>
       <c r="DP5">
-        <v>0.004324073088292988</v>
+        <v>0.004322950047923393</v>
       </c>
       <c r="DQ5">
-        <v>0.003278540066944312</v>
+        <v>0.003275930054175666</v>
       </c>
       <c r="DR5">
-        <v>0.004418215090215267</v>
+        <v>0.004417225939981699</v>
       </c>
       <c r="DS5">
-        <v>0.001630216333287289</v>
+        <v>0.001625262050326692</v>
       </c>
       <c r="DT5">
-        <v>1.228336925081338E-05</v>
+        <v>5.028038296597025E-06</v>
       </c>
       <c r="DU5">
-        <v>0.0008187612567182368</v>
+        <v>0.0008126529104451565</v>
       </c>
       <c r="DV5">
-        <v>0.004120963084145697</v>
+        <v>0.004119551177748945</v>
       </c>
       <c r="DW5">
-        <v>0.01074819421946673</v>
+        <v>0.01075620765840019</v>
       </c>
       <c r="DX5">
-        <v>0.005212189706427388</v>
+        <v>0.005212329758539176</v>
       </c>
       <c r="DY5">
-        <v>0.004230227086376752</v>
+        <v>0.004228970576846679</v>
       </c>
       <c r="DZ5">
-        <v>0.001155883123601908</v>
+        <v>0.001150254236992881</v>
       </c>
       <c r="EA5">
-        <v>0.0002795823757087757</v>
+        <v>0.0002727072013223395</v>
       </c>
       <c r="EB5">
-        <v>0.0006905816141009444</v>
+        <v>0.000684290968859969</v>
       </c>
       <c r="EC5">
-        <v>0.0023566943481212</v>
+        <v>0.002352773272849425</v>
       </c>
       <c r="ED5">
-        <v>0.000271897855551866</v>
+        <v>0.0002650117521281445</v>
       </c>
       <c r="EE5">
-        <v>0.0004990651101903804</v>
+        <v>0.0004925020873683408</v>
       </c>
       <c r="EF5">
-        <v>0.001101470922490868</v>
+        <v>0.001095764650051292</v>
       </c>
       <c r="EG5">
-        <v>0.001643452033557548</v>
+        <v>0.001638516574604019</v>
       </c>
       <c r="EH5">
-        <v>0.0001127621123024828</v>
+        <v>0.0001056496836904769</v>
       </c>
       <c r="EI5">
-        <v>2.333671247651093E-05</v>
+        <v>1.609710174916282E-05</v>
       </c>
       <c r="EJ5">
-        <v>0.0010093325206095</v>
+        <v>0.001003495207583264</v>
       </c>
       <c r="EK5">
-        <v>0.002861607158430984</v>
+        <v>0.002858404177564194</v>
       </c>
       <c r="EL5">
-        <v>0.001395692028498551</v>
+        <v>0.001390404201631634</v>
       </c>
       <c r="EM5">
-        <v>0.0004059046082881418</v>
+        <v>0.0003992090912337998</v>
       </c>
       <c r="EN5">
-        <v>9.814825200408325E-05</v>
+        <v>9.101503934560197E-05</v>
       </c>
       <c r="EO5">
-        <v>0.0007745555158156024</v>
+        <v>0.0007683842994893916</v>
       </c>
       <c r="EP5">
-        <v>0.0001566145131979023</v>
+        <v>0.0001495644521136858</v>
       </c>
       <c r="EQ5">
-        <v>0.0004321346088237306</v>
+        <v>0.0004254763964608973</v>
       </c>
       <c r="ER5">
-        <v>0.001824702637258493</v>
+        <v>0.001820024955572168</v>
       </c>
       <c r="ES5">
-        <v>0.001708019934875956</v>
+        <v>0.001703176305338777</v>
       </c>
       <c r="ET5">
-        <v>3.86778407897605E-05</v>
+        <v>3.146004844012626E-05</v>
       </c>
       <c r="EU5">
-        <v>0.0009493925193855886</v>
+        <v>0.0009434699588103995</v>
       </c>
       <c r="EV5">
-        <v>0.003312647667640753</v>
+        <v>0.003310086163202114</v>
       </c>
       <c r="EW5">
-        <v>0.004355004088924566</v>
+        <v>0.004353925039077771</v>
       </c>
       <c r="EX5">
-        <v>0.0006497520532672481</v>
+        <v>0.0006434033396259588</v>
       </c>
       <c r="EY5">
-        <v>9.199594187845959E-06</v>
+        <v>1.939877443501621E-06</v>
       </c>
       <c r="EZ5">
-        <v>0.0007674485156704849</v>
+        <v>0.0007612671916644209</v>
       </c>
       <c r="FA5">
-        <v>0.002178730744487372</v>
+        <v>0.002174556566768103</v>
       </c>
       <c r="FB5">
-        <v>0.0007561493154397673</v>
+        <v>0.0007499519215453962</v>
       </c>
       <c r="FC5">
-        <v>2.823540257653698E-06</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.001635524133395669</v>
+        <v>0.001630577399266241</v>
       </c>
       <c r="FE5">
-        <v>0.00615051912558708</v>
+        <v>0.006151993683562403</v>
       </c>
       <c r="FF5">
-        <v>0.006375892130188958</v>
+        <v>0.00637768721695724</v>
       </c>
       <c r="FG5">
-        <v>0.002564469652363751</v>
+        <v>0.00256084407817736</v>
       </c>
       <c r="FH5">
-        <v>1.609648632867318E-05</v>
+        <v>8.846578445496532E-06</v>
       </c>
       <c r="FI5">
-        <v>0.001641013933507765</v>
+        <v>0.001636075007052582</v>
       </c>
       <c r="FJ5">
-        <v>0.004472805791329952</v>
+        <v>0.004471894280792257</v>
       </c>
       <c r="FK5">
-        <v>0.004160616084955369</v>
+        <v>0.004159260573638007</v>
       </c>
       <c r="FL5">
-        <v>0.003242966566217939</v>
+        <v>0.003240305960294761</v>
       </c>
       <c r="FM5">
-        <v>0.00389407487951288</v>
+        <v>0.003892340289383457</v>
       </c>
       <c r="FN5">
-        <v>0.006322875729106418</v>
+        <v>0.006324595415171426</v>
       </c>
       <c r="FO5">
-        <v>0.002711290355361674</v>
+        <v>0.002707873591732682</v>
       </c>
       <c r="FP5">
-        <v>0.0007507750153300297</v>
+        <v>0.0007445699780272112</v>
       </c>
       <c r="FQ5">
-        <v>0.0001760308035943624</v>
+        <v>0.0001690083566431498</v>
       </c>
       <c r="FR5">
-        <v>7.968618162710734E-06</v>
+        <v>7.071507062072451E-07</v>
       </c>
       <c r="FS5">
-        <v>0.001546082931569374</v>
+        <v>0.001541008992850768</v>
       </c>
       <c r="FT5">
-        <v>0.003872312879068523</v>
+        <v>0.003870547338702859</v>
       </c>
       <c r="FU5">
-        <v>0.004979682701679841</v>
+        <v>0.004979492078919018</v>
       </c>
       <c r="FV5">
-        <v>0.003692794875402956</v>
+        <v>0.003690774021899272</v>
       </c>
       <c r="FW5">
-        <v>0.001457117529752795</v>
+        <v>0.001451917063134763</v>
       </c>
       <c r="FX5">
-        <v>0.0007725752857751681</v>
+        <v>0.0007664012531367475</v>
       </c>
       <c r="FY5">
-        <v>0.0004419505490241616</v>
+        <v>0.0004353062970354636</v>
       </c>
       <c r="FZ5">
-        <v>3.568083472856481E-05</v>
+        <v>2.845877999294964E-05</v>
       </c>
       <c r="GA5">
-        <v>0.0001401429828615711</v>
+        <v>0.0001330694957253025</v>
       </c>
       <c r="GB5">
-        <v>0.0008091130165212299</v>
+        <v>0.0008029909483794191</v>
       </c>
       <c r="GC5">
-        <v>0.000670790113696823</v>
+        <v>0.0006644713206936672</v>
       </c>
       <c r="GD5">
-        <v>0.0002360049848189716</v>
+        <v>0.0002290678340280099</v>
       </c>
       <c r="GE5">
-        <v>0.0001328651127129647</v>
+        <v>0.0001257812748830175</v>
       </c>
       <c r="GF5">
-        <v>0.000281968365757495</v>
+        <v>0.0002750965847611043</v>
       </c>
       <c r="GG5">
-        <v>0.002281268846581091</v>
+        <v>0.002277240500054669</v>
       </c>
       <c r="GH5">
-        <v>0.005445561111192584</v>
+        <v>0.005446033067539368</v>
       </c>
       <c r="GI5">
-        <v>0.004346340088747657</v>
+        <v>0.004345248716832725</v>
       </c>
       <c r="GJ5">
-        <v>0.002261757446182689</v>
+        <v>0.002257701350256423</v>
       </c>
       <c r="GK5">
-        <v>0.001330637027170197</v>
+        <v>0.00132525667812615</v>
       </c>
       <c r="GL5">
-        <v>0.0003026586861799695</v>
+        <v>0.0002958163312607733</v>
       </c>
       <c r="GM5">
-        <v>4.932955300725717E-05</v>
+        <v>4.212690967898011E-05</v>
       </c>
       <c r="GN5">
-        <v>0.0005533510812988424</v>
+        <v>0.0005468652647811908</v>
       </c>
       <c r="GO5">
-        <v>3.175500064840344E-05</v>
+        <v>2.452736253397454E-05</v>
       </c>
       <c r="GP5">
-        <v>1.319680426946475E-05</v>
+        <v>5.942772415930374E-06</v>
       </c>
       <c r="GQ5">
-        <v>0.0002038241241618725</v>
+        <v>0.000196841205278849</v>
       </c>
       <c r="GR5">
-        <v>0.001654293333778916</v>
+        <v>0.001649373293481584</v>
       </c>
       <c r="GS5">
-        <v>0.001069802421844231</v>
+        <v>0.001064051109998516</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0002394125313847346</v>
+        <v>0.0001753420775827942</v>
       </c>
       <c r="C6">
-        <v>0.0002020910296099929</v>
+        <v>0.0001375611271992462</v>
       </c>
       <c r="D6">
-        <v>0.0002605874423916607</v>
+        <v>0.0001967776636146014</v>
       </c>
       <c r="E6">
-        <v>9.574914455313927E-05</v>
+        <v>2.991011392343433E-05</v>
       </c>
       <c r="F6">
-        <v>6.62027631481263E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3.080474746485179E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2.274193608144258E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>9.955922473431922E-05</v>
+        <v>3.37670983275271E-05</v>
       </c>
       <c r="J6">
-        <v>0.0002239535206496155</v>
+        <v>0.0001596927577594009</v>
       </c>
       <c r="K6">
-        <v>8.303584394858632E-05</v>
+        <v>1.704030546152469E-05</v>
       </c>
       <c r="L6">
-        <v>4.367262407675526E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>4.629853220162452E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001236917958818904</v>
+        <v>5.819675495433734E-05</v>
       </c>
       <c r="O6">
-        <v>0.0001792536285240107</v>
+        <v>0.0001144425849035389</v>
       </c>
       <c r="P6">
-        <v>8.606763409275641E-05</v>
+        <v>2.010941864195252E-05</v>
       </c>
       <c r="Q6">
-        <v>0.0002135906401568315</v>
+        <v>0.0001492023043984518</v>
       </c>
       <c r="R6">
-        <v>0.0003066059045799672</v>
+        <v>0.0002433626388698105</v>
       </c>
       <c r="S6">
-        <v>7.480036355696622E-05</v>
+        <v>8.70344168957818E-06</v>
       </c>
       <c r="T6">
-        <v>3.429664663090134E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>5.993805785022206E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1.975522593941617E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>2.124794501039914E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1.924831891531133E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>5.888355280007741E-10</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3.383298160885277E-09</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.27252180806476E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0001262929660055833</v>
+        <v>6.08299469404358E-05</v>
       </c>
       <c r="AC6">
-        <v>0.0001167533395519474</v>
+        <v>5.117288233736239E-05</v>
       </c>
       <c r="AD6">
-        <v>4.41218350981165E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>5.636952068052815E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.407254257130043E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>5.529165262927252E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0001609825776551712</v>
+        <v>9.594660715598527E-05</v>
       </c>
       <c r="AI6">
-        <v>0.00921378643814128</v>
+        <v>0.009260195558051392</v>
       </c>
       <c r="AJ6">
-        <v>0.002352988111891157</v>
+        <v>0.002314936958328841</v>
       </c>
       <c r="AK6">
-        <v>1.519852572273235E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0009231181438968462</v>
+        <v>0.000867464489461601</v>
       </c>
       <c r="AM6">
-        <v>0.002464960117215738</v>
+        <v>0.00242828740180905</v>
       </c>
       <c r="AN6">
-        <v>0.03503483666600434</v>
+        <v>0.03539911738917182</v>
       </c>
       <c r="AO6">
-        <v>0.00860639140925795</v>
+        <v>0.00864532315586458</v>
       </c>
       <c r="AP6">
-        <v>0.001767083484029755</v>
+        <v>0.001721819516047783</v>
       </c>
       <c r="AQ6">
-        <v>0.0001066732250726098</v>
+        <v>4.096867599800016E-05</v>
       </c>
       <c r="AR6">
-        <v>0.01337388963596581</v>
+        <v>0.01347151195834208</v>
       </c>
       <c r="AS6">
-        <v>0.0003346437459132448</v>
+        <v>0.0002717456417475581</v>
       </c>
       <c r="AT6">
-        <v>0.0472406172464233</v>
+        <v>0.04775515797094109</v>
       </c>
       <c r="AU6">
-        <v>0.04828549029610994</v>
+        <v>0.04881289399361192</v>
       </c>
       <c r="AV6">
-        <v>0.006099722290058832</v>
+        <v>0.00610779553460129</v>
       </c>
       <c r="AW6">
-        <v>0.005101348242583358</v>
+        <v>0.005097130942925601</v>
       </c>
       <c r="AX6">
-        <v>0.004593600218438521</v>
+        <v>0.004583132255966455</v>
       </c>
       <c r="AY6">
-        <v>0.008973470426713584</v>
+        <v>0.009016921121804921</v>
       </c>
       <c r="AZ6">
-        <v>0.03006738542978816</v>
+        <v>0.03037051404354783</v>
       </c>
       <c r="BA6">
-        <v>0.01646588678299891</v>
+        <v>0.01660157332358944</v>
       </c>
       <c r="BB6">
-        <v>0.0004121936396009589</v>
+        <v>0.0003502502181000521</v>
       </c>
       <c r="BC6">
-        <v>0.0002591622623238895</v>
+        <v>0.000195334938781258</v>
       </c>
       <c r="BD6">
-        <v>0.01641568078061147</v>
+        <v>0.01655074925716777</v>
       </c>
       <c r="BE6">
-        <v>0.001640955678032026</v>
+        <v>0.001594139006052577</v>
       </c>
       <c r="BF6">
-        <v>0.007333001348704696</v>
+        <v>0.007356256949819642</v>
       </c>
       <c r="BG6">
-        <v>0.001087448351711207</v>
+        <v>0.001033817694255581</v>
       </c>
       <c r="BH6">
-        <v>0.01822126386647199</v>
+        <v>0.01837856008300215</v>
       </c>
       <c r="BI6">
-        <v>0.001479826870369901</v>
+        <v>0.001431026612441371</v>
       </c>
       <c r="BJ6">
-        <v>0.001307046962153734</v>
+        <v>0.001256119686696844</v>
       </c>
       <c r="BK6">
-        <v>0.00270835762878997</v>
+        <v>0.00267468127319631</v>
       </c>
       <c r="BL6">
-        <v>0.0008645939911138591</v>
+        <v>0.0008082198715499597</v>
       </c>
       <c r="BM6">
-        <v>0.00240323591428058</v>
+        <v>0.002365803339333957</v>
       </c>
       <c r="BN6">
-        <v>0.003624359772348431</v>
+        <v>0.003601959916641128</v>
       </c>
       <c r="BO6">
-        <v>0.001110875952825254</v>
+        <v>0.001057533702272558</v>
       </c>
       <c r="BP6">
-        <v>0.009040533429902617</v>
+        <v>0.009084809708157877</v>
       </c>
       <c r="BQ6">
-        <v>0.01491315570916221</v>
+        <v>0.01502972725979252</v>
       </c>
       <c r="BR6">
-        <v>0.003743180477998687</v>
+        <v>0.003722243371787315</v>
       </c>
       <c r="BS6">
-        <v>0.002741706430375799</v>
+        <v>0.002708440617224575</v>
       </c>
       <c r="BT6">
-        <v>0.007318889648033645</v>
+        <v>0.00734197152620249</v>
       </c>
       <c r="BU6">
-        <v>0.005802458275923098</v>
+        <v>0.005806872033809119</v>
       </c>
       <c r="BV6">
-        <v>6.937716329907788E-05</v>
+        <v>3.213478796338147E-06</v>
       </c>
       <c r="BW6">
-        <v>0.003962808488442612</v>
+        <v>0.003944575126160474</v>
       </c>
       <c r="BX6">
-        <v>0.006136328691799569</v>
+        <v>0.00614485258166854</v>
       </c>
       <c r="BY6">
-        <v>0.009296481442073659</v>
+        <v>0.009343908583839947</v>
       </c>
       <c r="BZ6">
-        <v>0.01202055757161109</v>
+        <v>0.01210151961761441</v>
       </c>
       <c r="CA6">
-        <v>0.01511443471873359</v>
+        <v>0.01523348412680617</v>
       </c>
       <c r="CB6">
-        <v>0.006384158803584583</v>
+        <v>0.006395733621060035</v>
       </c>
       <c r="CC6">
-        <v>0.009055648430621377</v>
+        <v>0.009100110783008762</v>
       </c>
       <c r="CD6">
-        <v>0.0131389926247958</v>
+        <v>0.0132337232332843</v>
       </c>
       <c r="CE6">
-        <v>0.00221483750532171</v>
+        <v>0.002175085640347051</v>
       </c>
       <c r="CF6">
-        <v>0.000881032241895544</v>
+        <v>0.0008248604864138413</v>
       </c>
       <c r="CG6">
-        <v>0.00074877683560643</v>
+        <v>0.0006909769419326096</v>
       </c>
       <c r="CH6">
-        <v>0.000355310716896017</v>
+        <v>0.0002926670347287693</v>
       </c>
       <c r="CI6">
-        <v>1.258998259868884E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.006309114700016026</v>
+        <v>0.006319765682507779</v>
       </c>
       <c r="CK6">
-        <v>0.008268120393172219</v>
+        <v>0.008302887833940403</v>
       </c>
       <c r="CL6">
-        <v>0.005736714272796787</v>
+        <v>0.005740318685149073</v>
       </c>
       <c r="CM6">
-        <v>0.0045517936164505</v>
+        <v>0.004540810991271712</v>
       </c>
       <c r="CN6">
-        <v>0.008958423425998056</v>
+        <v>0.009001688884075428</v>
       </c>
       <c r="CO6">
-        <v>0.01395268366348908</v>
+        <v>0.01405743126480874</v>
       </c>
       <c r="CP6">
-        <v>0.01587701875499659</v>
+        <v>0.01600545600005049</v>
       </c>
       <c r="CQ6">
-        <v>0.01116051203071352</v>
+        <v>0.0112308864339778</v>
       </c>
       <c r="CR6">
-        <v>0.004445365811389561</v>
+        <v>0.004433073000268399</v>
       </c>
       <c r="CS6">
-        <v>0.0004151275997404769</v>
+        <v>0.0003532202969336283</v>
       </c>
       <c r="CT6">
-        <v>0.01386934065952589</v>
+        <v>0.01397306226174573</v>
       </c>
       <c r="CU6">
-        <v>0.03869370883999394</v>
+        <v>0.03910303233074043</v>
       </c>
       <c r="CV6">
-        <v>0.0585009147818819</v>
+        <v>0.05915407608144078</v>
       </c>
       <c r="CW6">
-        <v>0.04129808196383915</v>
+        <v>0.04173946674771863</v>
       </c>
       <c r="CX6">
-        <v>0.01499811571320229</v>
+        <v>0.01511573316910983</v>
       </c>
       <c r="CY6">
-        <v>0.003581942670331379</v>
+        <v>0.003559020636319758</v>
       </c>
       <c r="CZ6">
-        <v>0.0002529922420304878</v>
+        <v>0.0001890889620792097</v>
       </c>
       <c r="DA6">
-        <v>0.005023635238887888</v>
+        <v>0.005018461248589717</v>
       </c>
       <c r="DB6">
-        <v>0.008210132390414727</v>
+        <v>0.008244185966361629</v>
       </c>
       <c r="DC6">
-        <v>0.009664240459561628</v>
+        <v>0.009716194920994219</v>
       </c>
       <c r="DD6">
-        <v>0.01721001881838446</v>
+        <v>0.01735486604148155</v>
       </c>
       <c r="DE6">
-        <v>0.02020088296060841</v>
+        <v>0.02038254939793667</v>
       </c>
       <c r="DF6">
-        <v>0.02406000114412026</v>
+        <v>0.02428917548966012</v>
       </c>
       <c r="DG6">
-        <v>0.01199636857046083</v>
+        <v>0.01207703283629995</v>
       </c>
       <c r="DH6">
-        <v>0.002984239141908907</v>
+        <v>0.002953959042397409</v>
       </c>
       <c r="DI6">
-        <v>0.0009160626435613374</v>
+        <v>0.0008603221319617384</v>
       </c>
       <c r="DJ6">
-        <v>0.001911749790909042</v>
+        <v>0.001868266746262846</v>
       </c>
       <c r="DK6">
-        <v>0.0004312364205064963</v>
+        <v>0.0003695274263136775</v>
       </c>
       <c r="DL6">
-        <v>0.0008505388404454976</v>
+        <v>0.0007939916940977318</v>
       </c>
       <c r="DM6">
-        <v>0.005062725240746726</v>
+        <v>0.005058032470284794</v>
       </c>
       <c r="DN6">
-        <v>0.008928626424581126</v>
+        <v>0.008971525064867234</v>
       </c>
       <c r="DO6">
-        <v>0.009372139445671408</v>
+        <v>0.009420497979874898</v>
       </c>
       <c r="DP6">
-        <v>0.0123756115884949</v>
+        <v>0.01246094454848483</v>
       </c>
       <c r="DQ6">
-        <v>0.009724526462428397</v>
+        <v>0.009777223078351846</v>
       </c>
       <c r="DR6">
-        <v>0.009918545471654543</v>
+        <v>0.009973630570346155</v>
       </c>
       <c r="DS6">
-        <v>0.005425310057988647</v>
+        <v>0.005425080909887401</v>
       </c>
       <c r="DT6">
-        <v>0.002488549018337457</v>
+        <v>0.002452166695527215</v>
       </c>
       <c r="DU6">
-        <v>4.007292790557965E-05</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.005501914561631405</v>
+        <v>0.005502628457913513</v>
       </c>
       <c r="DW6">
-        <v>0.01472250570009627</v>
+        <v>0.01483673024223901</v>
       </c>
       <c r="DX6">
-        <v>0.007943444377732967</v>
+        <v>0.007974214874741849</v>
       </c>
       <c r="DY6">
-        <v>0.007164565740695112</v>
+        <v>0.0071857478050526</v>
       </c>
       <c r="DZ6">
-        <v>0.005119026243423996</v>
+        <v>0.005115026569866648</v>
       </c>
       <c r="EA6">
-        <v>0.001031304649041417</v>
+        <v>0.0009769828311324801</v>
       </c>
       <c r="EB6">
-        <v>0.0002359178412185523</v>
+        <v>0.0001718043658215873</v>
       </c>
       <c r="EC6">
-        <v>0.0001659888778932348</v>
+        <v>0.0001010145377564476</v>
       </c>
       <c r="ED6">
-        <v>0.0001550248773718659</v>
+        <v>8.991556424238146E-05</v>
       </c>
       <c r="EE6">
-        <v>0.0006858705326150596</v>
+        <v>0.000627296227086942</v>
       </c>
       <c r="EF6">
-        <v>0.002156349102540423</v>
+        <v>0.002115877212539672</v>
       </c>
       <c r="EG6">
-        <v>0.003796322880525757</v>
+        <v>0.003776039987080448</v>
       </c>
       <c r="EH6">
-        <v>0.0007549926359020087</v>
+        <v>0.0006972692622143255</v>
       </c>
       <c r="EI6">
-        <v>0.0001387952066000998</v>
+        <v>7.348609712526784E-05</v>
       </c>
       <c r="EJ6">
-        <v>0.0003611614171742342</v>
+        <v>0.0002985897604072395</v>
       </c>
       <c r="EK6">
-        <v>0.001510104971809709</v>
+        <v>0.001461677454283422</v>
       </c>
       <c r="EL6">
-        <v>0.00202975289652042</v>
+        <v>0.001987722536255339</v>
       </c>
       <c r="EM6">
-        <v>0.003247269554416737</v>
+        <v>0.003220227506734715</v>
       </c>
       <c r="EN6">
-        <v>0.001402384166687284</v>
+        <v>0.001352630545663027</v>
       </c>
       <c r="EO6">
-        <v>0.0001560529274207526</v>
+        <v>9.095627016368171E-05</v>
       </c>
       <c r="EP6">
-        <v>0.000231102890989588</v>
+        <v>0.0001669301408561046</v>
       </c>
       <c r="EQ6">
-        <v>0.001615178776806262</v>
+        <v>0.001568044776722521</v>
       </c>
       <c r="ER6">
-        <v>0.003341896658916521</v>
+        <v>0.003316019523937642</v>
       </c>
       <c r="ES6">
-        <v>0.004031862791726337</v>
+        <v>0.004014479526628586</v>
       </c>
       <c r="ET6">
-        <v>0.0026674479268446</v>
+        <v>0.002633267949886534</v>
       </c>
       <c r="EU6">
-        <v>4.128144396304797E-07</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.001874351389130644</v>
+        <v>0.001830407949193486</v>
       </c>
       <c r="EW6">
-        <v>0.003898581885388458</v>
+        <v>0.003879557857618107</v>
       </c>
       <c r="EX6">
-        <v>0.001411110667102254</v>
+        <v>0.001361464474190069</v>
       </c>
       <c r="EY6">
-        <v>9.655745459157667E-05</v>
+        <v>3.072837471157322E-05</v>
       </c>
       <c r="EZ6">
-        <v>8.024289381577374E-05</v>
+        <v>1.421297254688487E-05</v>
       </c>
       <c r="FA6">
-        <v>0.0007041846334859463</v>
+        <v>0.0006458357848062013</v>
       </c>
       <c r="FB6">
-        <v>5.282357851190871E-05</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.0001445073068717261</v>
+        <v>7.926851655336864E-05</v>
       </c>
       <c r="FD6">
-        <v>0.00083039937948781</v>
+        <v>0.0007736043050857295</v>
       </c>
       <c r="FE6">
-        <v>0.00592237598162552</v>
+        <v>0.005928265993693079</v>
       </c>
       <c r="FF6">
-        <v>0.01090509251856761</v>
+        <v>0.01097232256445245</v>
       </c>
       <c r="FG6">
-        <v>0.008643308411013458</v>
+        <v>0.0086826946266069</v>
       </c>
       <c r="FH6">
-        <v>0.002273695908120591</v>
+        <v>0.002234668623079659</v>
       </c>
       <c r="FI6">
-        <v>0.0001530529072780932</v>
+        <v>8.791931809129309E-05</v>
       </c>
       <c r="FJ6">
-        <v>0.0001560529274207526</v>
+        <v>9.095627016368171E-05</v>
       </c>
       <c r="FK6">
-        <v>0.001028467648906509</v>
+        <v>0.0009741109059355257</v>
       </c>
       <c r="FL6">
-        <v>0.001035750149252813</v>
+        <v>0.0009814830579435692</v>
       </c>
       <c r="FM6">
-        <v>0.001482999470520767</v>
+        <v>0.001434238269078614</v>
       </c>
       <c r="FN6">
-        <v>0.0045834237179546</v>
+        <v>0.00457283047705676</v>
       </c>
       <c r="FO6">
-        <v>0.006682301717762112</v>
+        <v>0.006697546841646217</v>
       </c>
       <c r="FP6">
-        <v>0.0042385796015563</v>
+        <v>0.00422374113627037</v>
       </c>
       <c r="FQ6">
-        <v>0.002924547939070423</v>
+        <v>0.002893533007389854</v>
       </c>
       <c r="FR6">
-        <v>0.001378562365554491</v>
+        <v>0.00132851548480409</v>
       </c>
       <c r="FS6">
-        <v>6.76139232152309E-06</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0002286938108750295</v>
+        <v>0.0001644914036148362</v>
       </c>
       <c r="FU6">
-        <v>0.0008215154390653537</v>
+        <v>0.0007646109983764488</v>
       </c>
       <c r="FV6">
-        <v>0.001419639067507803</v>
+        <v>0.001370097863985524</v>
       </c>
       <c r="FW6">
-        <v>0.0009350529444643792</v>
+        <v>0.0008795462141146179</v>
       </c>
       <c r="FX6">
-        <v>0.0002747468630649807</v>
+        <v>0.0002111113946940011</v>
       </c>
       <c r="FY6">
-        <v>9.724769462439951E-06</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>3.197875552067914E-08</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>9.736916463017574E-05</v>
+        <v>3.155007735578177E-05</v>
       </c>
       <c r="GB6">
-        <v>0.0004152493697462674</v>
+        <v>0.0003533435659964528</v>
       </c>
       <c r="GC6">
-        <v>0.0001342898663858582</v>
+        <v>6.892529364735258E-05</v>
       </c>
       <c r="GD6">
-        <v>1.419927167521503E-06</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>2.341810411359626E-05</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>9.428473448350248E-05</v>
+        <v>2.842767614491065E-05</v>
       </c>
       <c r="GG6">
-        <v>0.001003506847719554</v>
+        <v>0.0009488428232932509</v>
       </c>
       <c r="GH6">
-        <v>0.003428222763021568</v>
+        <v>0.003403408350777539</v>
       </c>
       <c r="GI6">
-        <v>0.003516871867237081</v>
+        <v>0.003493148775161505</v>
       </c>
       <c r="GJ6">
-        <v>0.001646804478310153</v>
+        <v>0.001600059808340891</v>
       </c>
       <c r="GK6">
-        <v>0.000551131326207834</v>
+        <v>0.000490898305515758</v>
       </c>
       <c r="GL6">
-        <v>0.0001352468264313644</v>
+        <v>6.989403440747851E-05</v>
       </c>
       <c r="GM6">
-        <v>0.0009913297471404983</v>
+        <v>0.0009365158157797398</v>
       </c>
       <c r="GN6">
-        <v>0.001512740971935059</v>
+        <v>0.001464345905048023</v>
       </c>
       <c r="GO6">
-        <v>0.00156202917427885</v>
+        <v>0.001514240872793006</v>
       </c>
       <c r="GP6">
-        <v>0.001935511892038997</v>
+        <v>0.001892321372178441</v>
       </c>
       <c r="GQ6">
-        <v>0.001497550271212698</v>
+        <v>0.001448968198284056</v>
       </c>
       <c r="GR6">
-        <v>0.001419639067507803</v>
+        <v>0.001370097863985524</v>
       </c>
       <c r="GS6">
-        <v>0.00202630979635669</v>
+        <v>0.001984237049598436</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.085551191529042E-05</v>
+        <v>3.012643461731851E-05</v>
       </c>
       <c r="C2">
-        <v>5.002289467189736E-05</v>
+        <v>3.012643461731851E-05</v>
       </c>
       <c r="D2">
-        <v>6.345377931530878E-05</v>
+        <v>3.277261142020889E-05</v>
       </c>
       <c r="E2">
-        <v>8.953071862296877E-05</v>
+        <v>4.809049526450155E-05</v>
       </c>
       <c r="F2">
-        <v>0.0001335899114532018</v>
+        <v>8.142710942683285E-05</v>
       </c>
       <c r="G2">
-        <v>0.0001559303258600661</v>
+        <v>9.300088887233271E-05</v>
       </c>
       <c r="H2">
-        <v>0.0001786953412556573</v>
+        <v>0.0001050001306048056</v>
       </c>
       <c r="I2">
-        <v>0.0002066305735139798</v>
+        <v>0.0001221800769257432</v>
       </c>
       <c r="J2">
-        <v>0.0002255232500123813</v>
+        <v>0.0001302991247658918</v>
       </c>
       <c r="K2">
-        <v>0.0002363133147259062</v>
+        <v>0.0001302991247658918</v>
       </c>
       <c r="L2">
-        <v>0.0002468116804471756</v>
+        <v>0.0001302991247658918</v>
       </c>
       <c r="M2">
-        <v>0.0002489197283912072</v>
+        <v>0.0001302991247658918</v>
       </c>
       <c r="N2">
-        <v>0.0002599311890988541</v>
+        <v>0.000130520969859254</v>
       </c>
       <c r="O2">
-        <v>0.0003316826071938614</v>
+        <v>0.0001916059826483747</v>
       </c>
       <c r="P2">
-        <v>0.0004021147753238947</v>
+        <v>0.0002513690693890661</v>
       </c>
       <c r="Q2">
-        <v>0.0004304055565727774</v>
+        <v>0.0002689052859276221</v>
       </c>
       <c r="R2">
-        <v>0.0004515989240100956</v>
+        <v>0.000279329691631926</v>
       </c>
       <c r="S2">
-        <v>0.0004620972897313651</v>
+        <v>0.000279329691631926</v>
       </c>
       <c r="T2">
-        <v>0.0004624902658709316</v>
+        <v>0.000279329691631926</v>
       </c>
       <c r="U2">
-        <v>0.000464669656813069</v>
+        <v>0.000279329691631926</v>
       </c>
       <c r="V2">
-        <v>0.0004747507395454173</v>
+        <v>0.000279329691631926</v>
       </c>
       <c r="W2">
-        <v>0.0004899726831412763</v>
+        <v>0.0002837705605298505</v>
       </c>
       <c r="X2">
-        <v>0.0005452257216743138</v>
+        <v>0.0003283237269828822</v>
       </c>
       <c r="Y2">
-        <v>0.0006415361691172814</v>
+        <v>0.0004140175868299201</v>
       </c>
       <c r="Z2">
-        <v>0.0007420596064483946</v>
+        <v>0.0005039329825668746</v>
       </c>
       <c r="AA2">
-        <v>0.0008487250736164376</v>
+        <v>0.000600002867177988</v>
       </c>
       <c r="AB2">
-        <v>0.0009345866113368228</v>
+        <v>0.0006752266218086579</v>
       </c>
       <c r="AC2">
-        <v>0.001028499168843454</v>
+        <v>0.0007585177276270672</v>
       </c>
       <c r="AD2">
-        <v>0.001127459960216055</v>
+        <v>0.0008468673075960672</v>
       </c>
       <c r="AE2">
-        <v>0.001213943987919914</v>
+        <v>0.000922714814924017</v>
       </c>
       <c r="AF2">
-        <v>0.001327647524901096</v>
+        <v>0.001025837045992336</v>
       </c>
       <c r="AG2">
-        <v>0.001467226251195296</v>
+        <v>0.001154886953899055</v>
       </c>
       <c r="AH2">
-        <v>0.00151872386582804</v>
+        <v>0.001195677078617391</v>
       </c>
       <c r="AI2">
-        <v>0.001522820094319285</v>
+        <v>0.001195677078617391</v>
       </c>
       <c r="AJ2">
-        <v>0.001523009205734264</v>
+        <v>0.001195677078617391</v>
       </c>
       <c r="AK2">
-        <v>0.001523087837248176</v>
+        <v>0.001195677078617391</v>
       </c>
       <c r="AL2">
-        <v>0.001523153398226436</v>
+        <v>0.001195677078617391</v>
       </c>
       <c r="AM2">
-        <v>0.001546779610599162</v>
+        <v>0.001208539264255211</v>
       </c>
       <c r="AN2">
-        <v>0.001622951938576795</v>
+        <v>0.001274054154692057</v>
       </c>
       <c r="AO2">
-        <v>0.001672357090265093</v>
+        <v>0.001312747571928814</v>
       </c>
       <c r="AP2">
-        <v>0.001787452047209334</v>
+        <v>0.001417264045439661</v>
       </c>
       <c r="AQ2">
-        <v>0.001946359462990359</v>
+        <v>0.001565681850858615</v>
       </c>
       <c r="AR2">
-        <v>0.002166949787133709</v>
+        <v>0.001775907687713552</v>
       </c>
       <c r="AS2">
-        <v>0.002325857202914734</v>
+        <v>0.001924325493132505</v>
       </c>
       <c r="AT2">
-        <v>0.002478349918866068</v>
+        <v>0.002066315586576579</v>
       </c>
       <c r="AU2">
-        <v>0.002651364154272559</v>
+        <v>0.002228868827143157</v>
       </c>
       <c r="AV2">
-        <v>0.00279248407052584</v>
+        <v>0.00235946305129515</v>
       </c>
       <c r="AW2">
-        <v>0.002888316877981488</v>
+        <v>0.002444678302267622</v>
       </c>
       <c r="AX2">
-        <v>0.002967443595880682</v>
+        <v>0.002513153575572172</v>
       </c>
       <c r="AY2">
-        <v>0.002975120452176862</v>
+        <v>0.002513153575572172</v>
       </c>
       <c r="AZ2">
-        <v>0.002981896423496961</v>
+        <v>0.002513153575572172</v>
       </c>
       <c r="BA2">
-        <v>0.002982458649342034</v>
+        <v>0.002513153575572172</v>
       </c>
       <c r="BB2">
-        <v>0.002982647760757013</v>
+        <v>0.002513153575572172</v>
       </c>
       <c r="BC2">
-        <v>0.002995048983427762</v>
+        <v>0.002514768001744873</v>
       </c>
       <c r="BD2">
-        <v>0.003052822405893884</v>
+        <v>0.002561846664700951</v>
       </c>
       <c r="BE2">
-        <v>0.003142664363508589</v>
+        <v>0.002641058913462141</v>
       </c>
       <c r="BF2">
-        <v>0.003296590239421873</v>
+        <v>0.002784485074016745</v>
       </c>
       <c r="BG2">
-        <v>0.003448580985386535</v>
+        <v>0.002925972179233773</v>
       </c>
       <c r="BH2">
-        <v>0.003627878460626205</v>
+        <v>0.003094821405113623</v>
       </c>
       <c r="BI2">
-        <v>0.003774678406728682</v>
+        <v>0.003231107180990353</v>
       </c>
       <c r="BJ2">
-        <v>0.003968008231595795</v>
+        <v>0.003414017220958266</v>
       </c>
       <c r="BK2">
-        <v>0.004231750824593456</v>
+        <v>0.003667482860551013</v>
       </c>
       <c r="BL2">
-        <v>0.004386787990477235</v>
+        <v>0.003812022565315099</v>
       </c>
       <c r="BM2">
-        <v>0.004498829197502553</v>
+        <v>0.003913479094410263</v>
       </c>
       <c r="BN2">
-        <v>0.004577594470411343</v>
+        <v>0.003981592189537383</v>
       </c>
       <c r="BO2">
-        <v>0.00469058408741148</v>
+        <v>0.004083999052446146</v>
       </c>
       <c r="BP2">
-        <v>0.004710778990875308</v>
+        <v>0.004093422968804216</v>
       </c>
       <c r="BQ2">
-        <v>0.004711042266018318</v>
+        <v>0.004093422968804216</v>
       </c>
       <c r="BR2">
-        <v>0.004738977498276641</v>
+        <v>0.004110602915125153</v>
       </c>
       <c r="BS2">
-        <v>0.004827514865925983</v>
+        <v>0.004188507927575166</v>
       </c>
       <c r="BT2">
-        <v>0.004947211182748058</v>
+        <v>0.004297635094769698</v>
       </c>
       <c r="BU2">
-        <v>0.005092342218894844</v>
+        <v>0.004432248575325994</v>
       </c>
       <c r="BV2">
-        <v>0.005235327005098613</v>
+        <v>0.004564711452295827</v>
       </c>
       <c r="BW2">
-        <v>0.005536937897090875</v>
+        <v>0.004856122206294286</v>
       </c>
       <c r="BX2">
-        <v>0.005849121148802442</v>
+        <v>0.005158126765922742</v>
       </c>
       <c r="BY2">
-        <v>0.006147634470876945</v>
+        <v>0.005446433666618315</v>
       </c>
       <c r="BZ2">
-        <v>0.006521005060963995</v>
+        <v>0.005809749682437865</v>
       </c>
       <c r="CA2">
-        <v>0.006811082493262469</v>
+        <v>0.006089603581251548</v>
       </c>
       <c r="CB2">
-        <v>0.007039374587201338</v>
+        <v>0.006307546810853888</v>
       </c>
       <c r="CC2">
-        <v>0.007158094704049331</v>
+        <v>0.006415695797863863</v>
       </c>
       <c r="CD2">
-        <v>0.007209884666674313</v>
+        <v>0.006456778863598994</v>
       </c>
       <c r="CE2">
-        <v>0.007259920272345873</v>
+        <v>0.006496104013687702</v>
       </c>
       <c r="CF2">
-        <v>0.007262400427980025</v>
+        <v>0.006496104013687702</v>
       </c>
       <c r="CG2">
-        <v>0.007274801650650774</v>
+        <v>0.006497718439860403</v>
       </c>
       <c r="CH2">
-        <v>0.007287760002306731</v>
+        <v>0.006499891125148082</v>
       </c>
       <c r="CI2">
-        <v>0.007347590203718246</v>
+        <v>0.006549030739202104</v>
       </c>
       <c r="CJ2">
-        <v>0.007460579820718383</v>
+        <v>0.006651437602110867</v>
       </c>
       <c r="CK2">
-        <v>0.007584514387427933</v>
+        <v>0.006764811616434265</v>
       </c>
       <c r="CL2">
-        <v>0.007707455584163857</v>
+        <v>0.006877190245744414</v>
       </c>
       <c r="CM2">
-        <v>0.008331914517584537</v>
+        <v>0.007492103934728368</v>
       </c>
       <c r="CN2">
-        <v>0.09030830234112</v>
+        <v>0.08962396797051671</v>
       </c>
       <c r="CO2">
-        <v>0.09180720570132428</v>
+        <v>0.09111509988679606</v>
       </c>
       <c r="CP2">
-        <v>0.1460608192608965</v>
+        <v>0.1454679543283108</v>
       </c>
       <c r="CQ2">
-        <v>0.1655589087432243</v>
+        <v>0.1649947835097637</v>
       </c>
       <c r="CR2">
-        <v>0.1656423028010102</v>
+        <v>0.165067534779205</v>
       </c>
       <c r="CS2">
-        <v>0.1657386132484531</v>
+        <v>0.165153228639052</v>
       </c>
       <c r="CT2">
-        <v>0.1684930627753228</v>
+        <v>0.1679024535830263</v>
       </c>
       <c r="CU2">
-        <v>0.1686562249109908</v>
+        <v>0.1680551347389829</v>
       </c>
       <c r="CV2">
-        <v>0.1696687311841089</v>
+        <v>0.1690588829172516</v>
       </c>
       <c r="CW2">
-        <v>0.1752576700357232</v>
+        <v>0.1746483469151253</v>
       </c>
       <c r="CX2">
-        <v>0.1757244362233306</v>
+        <v>0.1751052479803659</v>
       </c>
       <c r="CY2">
-        <v>0.185226903971041</v>
+        <v>0.1846161794229116</v>
       </c>
       <c r="CZ2">
-        <v>0.2634458318943367</v>
+        <v>0.2629829615940562</v>
       </c>
       <c r="DA2">
-        <v>0.2888426272200544</v>
+        <v>0.2884204620761922</v>
       </c>
       <c r="DB2">
-        <v>0.2893517578565371</v>
+        <v>0.2889198135261077</v>
       </c>
       <c r="DC2">
-        <v>0.296338454671041</v>
+        <v>0.2959098708229015</v>
       </c>
       <c r="DD2">
-        <v>0.3079412073629891</v>
+        <v>0.3075253476136567</v>
       </c>
       <c r="DE2">
-        <v>0.3158913251519143</v>
+        <v>0.3154807801732922</v>
       </c>
       <c r="DF2">
-        <v>0.3388856785414166</v>
+        <v>0.338510965393241</v>
       </c>
       <c r="DG2">
-        <v>0.3532398321603153</v>
+        <v>0.3528834242962376</v>
       </c>
       <c r="DH2">
-        <v>0.3536214541801833</v>
+        <v>0.3532550084797689</v>
       </c>
       <c r="DI2">
-        <v>0.3557653629232627</v>
+        <v>0.3553924541649606</v>
       </c>
       <c r="DJ2">
-        <v>0.3566032097310179</v>
+        <v>0.3562211885831401</v>
       </c>
       <c r="DK2">
-        <v>0.3570187394599857</v>
+        <v>0.356626749257171</v>
       </c>
       <c r="DL2">
-        <v>0.3669126161973043</v>
+        <v>0.3665298836579806</v>
       </c>
       <c r="DM2">
-        <v>0.3786360668860479</v>
+        <v>0.3782663032800364</v>
       </c>
       <c r="DN2">
-        <v>0.3787097587540914</v>
+        <v>0.3783293326789545</v>
       </c>
       <c r="DO2">
-        <v>0.3801334747162919</v>
+        <v>0.3797451246804537</v>
       </c>
       <c r="DP2">
-        <v>0.3805554906050874</v>
+        <v>0.3801571846714135</v>
       </c>
       <c r="DQ2">
-        <v>0.3816118483770412</v>
+        <v>0.3812048733007815</v>
       </c>
       <c r="DR2">
-        <v>0.3897346531613816</v>
+        <v>0.389333343149426</v>
       </c>
       <c r="DS2">
-        <v>0.3999403978904201</v>
+        <v>0.3995489781626074</v>
       </c>
       <c r="DT2">
-        <v>0.401512875848671</v>
+        <v>0.4011138339221635</v>
       </c>
       <c r="DU2">
-        <v>0.4036322022924031</v>
+        <v>0.4032266474430949</v>
       </c>
       <c r="DV2">
-        <v>0.4147329079976805</v>
+        <v>0.4143390588506128</v>
       </c>
       <c r="DW2">
-        <v>0.4329879365130114</v>
+        <v>0.432620305530124</v>
       </c>
       <c r="DX2">
-        <v>0.437767934386103</v>
+        <v>0.4373991876219582</v>
       </c>
       <c r="DY2">
-        <v>0.4404226258156212</v>
+        <v>0.4400484521104223</v>
       </c>
       <c r="DZ2">
-        <v>0.4486221635979244</v>
+        <v>0.4482538106090377</v>
       </c>
       <c r="EA2">
-        <v>0.4486621918188616</v>
+        <v>0.4482831080745267</v>
       </c>
       <c r="EB2">
-        <v>0.4633340924293242</v>
+        <v>0.462973958515223</v>
       </c>
       <c r="EC2">
-        <v>0.4850189468535936</v>
+        <v>0.4846919884662749</v>
       </c>
       <c r="ED2">
-        <v>0.490192813316228</v>
+        <v>0.4898655381055781</v>
       </c>
       <c r="EE2">
-        <v>0.4915987217789013</v>
+        <v>0.4912634864852412</v>
       </c>
       <c r="EF2">
-        <v>0.509174095312277</v>
+        <v>0.5088636995104447</v>
       </c>
       <c r="EG2">
-        <v>0.5261792828607911</v>
+        <v>0.5258925699350421</v>
       </c>
       <c r="EH2">
-        <v>0.5288142255908336</v>
+        <v>0.5285220456640196</v>
       </c>
       <c r="EI2">
-        <v>0.5295774646205696</v>
+        <v>0.5292760209631561</v>
       </c>
       <c r="EJ2">
-        <v>0.530023139158737</v>
+        <v>0.5297117875947871</v>
       </c>
       <c r="EK2">
-        <v>0.5300256193143712</v>
+        <v>0.5297117875947871</v>
       </c>
       <c r="EL2">
-        <v>0.5318608612656457</v>
+        <v>0.5315399403611193</v>
       </c>
       <c r="EM2">
-        <v>0.5381914517975692</v>
+        <v>0.5378725604712475</v>
       </c>
       <c r="EN2">
-        <v>0.5418989741991349</v>
+        <v>0.5415767915873363</v>
       </c>
       <c r="EO2">
-        <v>0.5455024376034633</v>
+        <v>0.5451767526237028</v>
       </c>
       <c r="EP2">
-        <v>0.546840607367935</v>
+        <v>0.5465068248979903</v>
       </c>
       <c r="EQ2">
-        <v>0.5481022248344393</v>
+        <v>0.5477601895888499</v>
       </c>
       <c r="ER2">
-        <v>0.5502608344771284</v>
+        <v>0.5499123659942579</v>
       </c>
       <c r="ES2">
-        <v>0.5555611629364052</v>
+        <v>0.5552126341569164</v>
       </c>
       <c r="ET2">
-        <v>0.5663671131495084</v>
+        <v>0.5660296921641176</v>
       </c>
       <c r="EU2">
-        <v>0.5803096447793357</v>
+        <v>0.5799896941075489</v>
       </c>
       <c r="EV2">
-        <v>0.5870320483008565</v>
+        <v>0.5867149219954396</v>
       </c>
       <c r="EW2">
-        <v>0.5871597436074663</v>
+        <v>0.5868320643782811</v>
       </c>
       <c r="EX2">
-        <v>0.5952862153917092</v>
+        <v>0.5949642086652955</v>
       </c>
       <c r="EY2">
-        <v>0.6277723175292066</v>
+        <v>0.6275053965369426</v>
       </c>
       <c r="EZ2">
-        <v>0.6793828121589534</v>
+        <v>0.6792097705121329</v>
       </c>
       <c r="FA2">
-        <v>0.742645824479327</v>
+        <v>0.7425902991767238</v>
       </c>
       <c r="FB2">
-        <v>0.7727247096807358</v>
+        <v>0.7727193871002778</v>
       </c>
       <c r="FC2">
-        <v>0.7758336088981949</v>
+        <v>0.7758237807319821</v>
       </c>
       <c r="FD2">
-        <v>0.7759325696895675</v>
+        <v>0.7759121303119511</v>
       </c>
       <c r="FE2">
-        <v>0.7846084124592247</v>
+        <v>0.7845947599771362</v>
       </c>
       <c r="FF2">
-        <v>0.794378571199828</v>
+        <v>0.7943739254206902</v>
       </c>
       <c r="FG2">
-        <v>0.8011505485200328</v>
+        <v>0.8011488276671481</v>
       </c>
       <c r="FH2">
-        <v>0.8123054867238703</v>
+        <v>0.8123155815832288</v>
       </c>
       <c r="FI2">
-        <v>0.8398919859914515</v>
+        <v>0.8399472277966136</v>
       </c>
       <c r="FJ2">
-        <v>0.8647079393325906</v>
+        <v>0.8648027080628529</v>
       </c>
       <c r="FK2">
-        <v>0.8831112508439846</v>
+        <v>0.8832325385287875</v>
       </c>
       <c r="FL2">
-        <v>0.8881607537099208</v>
+        <v>0.88828147230126</v>
       </c>
       <c r="FM2">
-        <v>0.8897670944672725</v>
+        <v>0.8898802595502174</v>
       </c>
       <c r="FN2">
-        <v>0.8901844487561918</v>
+        <v>0.890287648485299</v>
       </c>
       <c r="FO2">
-        <v>0.8941957746496916</v>
+        <v>0.8942962993552281</v>
       </c>
       <c r="FP2">
-        <v>0.8989909612223799</v>
+        <v>0.8990904009567624</v>
       </c>
       <c r="FQ2">
-        <v>0.9041215076861644</v>
+        <v>0.9042205427230938</v>
       </c>
       <c r="FR2">
-        <v>0.9128804534536153</v>
+        <v>0.9129864439595525</v>
       </c>
       <c r="FS2">
-        <v>0.9251721191272729</v>
+        <v>0.925292231184116</v>
       </c>
       <c r="FT2">
-        <v>0.9319198746481208</v>
+        <v>0.9320428624975742</v>
       </c>
       <c r="FU2">
-        <v>0.9392737371528764</v>
+        <v>0.9394008302760203</v>
       </c>
       <c r="FV2">
-        <v>0.9450578939993076</v>
+        <v>0.9451859082661792</v>
       </c>
       <c r="FW2">
-        <v>0.9516377814246123</v>
+        <v>0.9517683309655837</v>
       </c>
       <c r="FX2">
-        <v>0.9539504843632103</v>
+        <v>0.9540749132433877</v>
       </c>
       <c r="FY2">
-        <v>0.954031209751067</v>
+        <v>0.9541449904295335</v>
       </c>
       <c r="FZ2">
-        <v>0.9542511962452264</v>
+        <v>0.9543546112115423</v>
       </c>
       <c r="GA2">
-        <v>0.9582429801392449</v>
+        <v>0.9583436804412681</v>
       </c>
       <c r="GB2">
-        <v>0.9710838137983221</v>
+        <v>0.9711997496322244</v>
       </c>
       <c r="GC2">
-        <v>0.9770274603405189</v>
+        <v>0.9771446408411714</v>
       </c>
       <c r="GD2">
-        <v>0.982868160185449</v>
+        <v>0.9829863765266543</v>
       </c>
       <c r="GE2">
-        <v>0.9871444664719135</v>
+        <v>0.9872605452992428</v>
       </c>
       <c r="GF2">
-        <v>0.9872811554182844</v>
+        <v>0.9873866995653408</v>
       </c>
       <c r="GG2">
-        <v>0.9874931985126547</v>
+        <v>0.9875883608344649</v>
       </c>
       <c r="GH2">
-        <v>0.9878951712619823</v>
+        <v>0.9879803370286777</v>
       </c>
       <c r="GI2">
-        <v>0.98790618272269</v>
+        <v>0.9879805588737711</v>
       </c>
       <c r="GJ2">
-        <v>0.9892632251866607</v>
+        <v>0.9893295421306124</v>
       </c>
       <c r="GK2">
-        <v>0.9909521248418205</v>
+        <v>0.9910110557471572</v>
       </c>
       <c r="GL2">
-        <v>0.9945770890455781</v>
+        <v>0.9946325611970784</v>
       </c>
       <c r="GM2">
-        <v>0.9956385383173967</v>
+        <v>0.9956853516543605</v>
       </c>
       <c r="GN2">
-        <v>0.9956401358277542</v>
+        <v>0.9956853516543605</v>
       </c>
       <c r="GO2">
-        <v>0.9958399906224481</v>
+        <v>0.9958747998999817</v>
       </c>
       <c r="GP2">
-        <v>0.9976990764730895</v>
+        <v>0.9977268449327579</v>
       </c>
       <c r="GQ2">
-        <v>0.9992528368318374</v>
+        <v>0.9992729451243745</v>
       </c>
       <c r="GR2">
-        <v>0.9999425963735243</v>
+        <v>0.9999532918831612</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001023715072703465</v>
+        <v>9.937496186170261E-05</v>
       </c>
       <c r="C3">
-        <v>0.0002294975138806344</v>
+        <v>0.0002235188288909139</v>
       </c>
       <c r="D3">
-        <v>0.0002323021654058506</v>
+        <v>0.0002235188288909139</v>
       </c>
       <c r="E3">
-        <v>0.0002323763765978719</v>
+        <v>0.0002235188288909139</v>
       </c>
       <c r="F3">
-        <v>0.0002433766493045585</v>
+        <v>0.0002314693828958243</v>
       </c>
       <c r="G3">
-        <v>0.0002464309921231169</v>
+        <v>0.0002314693828958243</v>
       </c>
       <c r="H3">
-        <v>0.000271759638447749</v>
+        <v>0.0002537566488848425</v>
       </c>
       <c r="I3">
-        <v>0.0003996474550377238</v>
+        <v>0.0003786627692274174</v>
       </c>
       <c r="J3">
-        <v>0.0005567618708483949</v>
+        <v>0.0005328124971471484</v>
       </c>
       <c r="K3">
-        <v>0.001006339408860774</v>
+        <v>0.0009795955455525599</v>
       </c>
       <c r="L3">
-        <v>0.001470166966493187</v>
+        <v>0.001440636906346228</v>
       </c>
       <c r="M3">
-        <v>0.001672409561100552</v>
+        <v>0.001639941075309093</v>
       </c>
       <c r="N3">
-        <v>0.001744730395172175</v>
+        <v>0.001709247876047537</v>
       </c>
       <c r="O3">
-        <v>0.001800892277674664</v>
+        <v>0.001762386321549788</v>
       </c>
       <c r="P3">
-        <v>0.001900786585011063</v>
+        <v>0.001859282641876377</v>
       </c>
       <c r="Q3">
-        <v>0.002103029179618428</v>
+        <v>0.002058586810839243</v>
       </c>
       <c r="R3">
-        <v>0.002188037967351737</v>
+        <v>0.002140588948966674</v>
       </c>
       <c r="S3">
-        <v>0.002218868090529676</v>
+        <v>0.002168380893381605</v>
       </c>
       <c r="T3">
-        <v>0.002224009186092593</v>
+        <v>0.002170468860507228</v>
       </c>
       <c r="U3">
-        <v>0.002225168100461692</v>
+        <v>0.002170468860507228</v>
       </c>
       <c r="V3">
-        <v>0.002268307019311427</v>
+        <v>0.00221057676367108</v>
       </c>
       <c r="W3">
-        <v>0.002334518122545962</v>
+        <v>0.002273770278027735</v>
       </c>
       <c r="X3">
-        <v>0.002394803776938494</v>
+        <v>0.002331034895240198</v>
       </c>
       <c r="Y3">
-        <v>0.002415576802384598</v>
+        <v>0.002348763889216931</v>
       </c>
       <c r="Z3">
-        <v>0.002477703650728035</v>
+        <v>0.002407870771859153</v>
       </c>
       <c r="AA3">
-        <v>0.002590029451732959</v>
+        <v>0.002517205820335229</v>
       </c>
       <c r="AB3">
-        <v>0.002725697288115485</v>
+        <v>0.002649896488036115</v>
       </c>
       <c r="AC3">
-        <v>0.002867603094331682</v>
+        <v>0.002788828755743778</v>
       </c>
       <c r="AD3">
-        <v>0.003088544558440457</v>
+        <v>0.003006842675974881</v>
       </c>
       <c r="AE3">
-        <v>0.003380951900643651</v>
+        <v>0.003296364063714216</v>
       </c>
       <c r="AF3">
-        <v>0.003688989832430069</v>
+        <v>0.003601525137224713</v>
       </c>
       <c r="AG3">
-        <v>0.003999442024152112</v>
+        <v>0.003909101875644205</v>
       </c>
       <c r="AH3">
-        <v>0.00411114510117364</v>
+        <v>0.004017813837744004</v>
       </c>
       <c r="AI3">
-        <v>0.004199727668811657</v>
+        <v>0.004103391835529661</v>
       </c>
       <c r="AJ3">
-        <v>0.004243383387647613</v>
+        <v>0.004144016839430372</v>
       </c>
       <c r="AK3">
-        <v>0.004243546775923256</v>
+        <v>0.004144016839430372</v>
       </c>
       <c r="AL3">
-        <v>0.004250725212731849</v>
+        <v>0.00414814333342802</v>
       </c>
       <c r="AM3">
-        <v>0.004346929835166631</v>
+        <v>0.004241347821648812</v>
       </c>
       <c r="AN3">
-        <v>0.004442558222616777</v>
+        <v>0.00433397573954626</v>
       </c>
       <c r="AO3">
-        <v>0.004530301060277185</v>
+        <v>0.004418713518675257</v>
       </c>
       <c r="AP3">
-        <v>0.004632561462550494</v>
+        <v>0.004517977310882608</v>
       </c>
       <c r="AQ3">
-        <v>0.004702402120688249</v>
+        <v>0.004584802492354142</v>
       </c>
       <c r="AR3">
-        <v>0.00479726488215881</v>
+        <v>0.004676664338717615</v>
       </c>
       <c r="AS3">
-        <v>0.004930304798611409</v>
+        <v>0.004806725557176231</v>
       </c>
       <c r="AT3">
-        <v>0.005066759594972952</v>
+        <v>0.004940203642825798</v>
       </c>
       <c r="AU3">
-        <v>0.00535264383735008</v>
+        <v>0.005223198134635175</v>
       </c>
       <c r="AV3">
-        <v>0.005680415798610306</v>
+        <v>0.005548104721795423</v>
       </c>
       <c r="AW3">
-        <v>0.005842235764295507</v>
+        <v>0.005706962737974297</v>
       </c>
       <c r="AX3">
-        <v>0.005940762631668368</v>
+        <v>0.005802490822558608</v>
       </c>
       <c r="AY3">
-        <v>0.006049059458780721</v>
+        <v>0.005907794552489434</v>
       </c>
       <c r="AZ3">
-        <v>0.00611710881696624</v>
+        <v>0.005972827391565583</v>
       </c>
       <c r="BA3">
-        <v>0.006139192664377392</v>
+        <v>0.005991867970337383</v>
       </c>
       <c r="BB3">
-        <v>0.006141526274515168</v>
+        <v>0.005991867970337383</v>
       </c>
       <c r="BC3">
-        <v>0.006243105571806638</v>
+        <v>0.006090450261195319</v>
       </c>
       <c r="BD3">
-        <v>0.006410856857333686</v>
+        <v>0.006255243048934845</v>
       </c>
       <c r="BE3">
-        <v>0.006614373321907084</v>
+        <v>0.006455821829189625</v>
       </c>
       <c r="BF3">
-        <v>0.006987107551968427</v>
+        <v>0.006825716850846467</v>
       </c>
       <c r="BG3">
-        <v>0.007228317165536768</v>
+        <v>0.007064010715543054</v>
       </c>
       <c r="BH3">
-        <v>0.007379239851512537</v>
+        <v>0.007211965110364042</v>
       </c>
       <c r="BI3">
-        <v>0.007750461041614224</v>
+        <v>0.007580346211550883</v>
       </c>
       <c r="BJ3">
-        <v>0.008293232927141651</v>
+        <v>0.00812037784172113</v>
       </c>
       <c r="BK3">
-        <v>0.00852748760089544</v>
+        <v>0.008351712719190921</v>
       </c>
       <c r="BL3">
-        <v>0.008650446827616832</v>
+        <v>0.008471687381482655</v>
       </c>
       <c r="BM3">
-        <v>0.008698076626346822</v>
+        <v>0.008516288777984634</v>
       </c>
       <c r="BN3">
-        <v>0.008731525765454929</v>
+        <v>0.008546701262460408</v>
       </c>
       <c r="BO3">
-        <v>0.008734580108273488</v>
+        <v>0.008546701262460408</v>
       </c>
       <c r="BP3">
-        <v>0.008734747966149013</v>
+        <v>0.008546701262460408</v>
       </c>
       <c r="BQ3">
-        <v>0.00873501584820187</v>
+        <v>0.008546701262460408</v>
       </c>
       <c r="BR3">
-        <v>0.008742620814399089</v>
+        <v>0.008551254534064542</v>
       </c>
       <c r="BS3">
-        <v>0.008792779233061656</v>
+        <v>0.008598386022024021</v>
       </c>
       <c r="BT3">
-        <v>0.008872975780923279</v>
+        <v>0.008675573119807141</v>
       </c>
       <c r="BU3">
-        <v>0.008951773402822204</v>
+        <v>0.008751360477525611</v>
       </c>
       <c r="BV3">
-        <v>0.009055626590053044</v>
+        <v>0.008852217981608268</v>
       </c>
       <c r="BW3">
-        <v>0.009171818012954892</v>
+        <v>0.008965420901571606</v>
       </c>
       <c r="BX3">
-        <v>0.009289706859811482</v>
+        <v>0.009080322233301897</v>
       </c>
       <c r="BY3">
-        <v>0.009473162294919792</v>
+        <v>0.009260828309618706</v>
       </c>
       <c r="BZ3">
-        <v>0.009660624009921277</v>
+        <v>0.009445342997274644</v>
       </c>
       <c r="CA3">
-        <v>0.009850240084865318</v>
+        <v>0.009632013298598266</v>
       </c>
       <c r="CB3">
-        <v>0.01004832062958366</v>
+        <v>0.009827152995576141</v>
       </c>
       <c r="CC3">
-        <v>0.01017532281619725</v>
+        <v>0.009951172970551874</v>
       </c>
       <c r="CD3">
-        <v>0.0102277282707999</v>
+        <v>0.01000055280210916</v>
       </c>
       <c r="CE3">
-        <v>0.01028626642223903</v>
+        <v>0.01005606889941264</v>
       </c>
       <c r="CF3">
-        <v>0.01030975439361274</v>
+        <v>0.01007651441927392</v>
       </c>
       <c r="CG3">
-        <v>0.01031010963720327</v>
+        <v>0.01007651441927392</v>
       </c>
       <c r="CH3">
-        <v>0.01031012908202675</v>
+        <v>0.01007651441927392</v>
       </c>
       <c r="CI3">
-        <v>0.01031016670537575</v>
+        <v>0.01007651441927392</v>
       </c>
       <c r="CJ3">
-        <v>0.01033370793674804</v>
+        <v>0.01009701323012831</v>
       </c>
       <c r="CK3">
-        <v>0.01034091582895585</v>
+        <v>0.01010116919666668</v>
       </c>
       <c r="CL3">
-        <v>0.01037312888609691</v>
+        <v>0.01013034487984018</v>
       </c>
       <c r="CM3">
-        <v>0.01044062284429724</v>
+        <v>0.01019482199571731</v>
       </c>
       <c r="CN3">
-        <v>0.02557865644065382</v>
+        <v>0.0253386090178298</v>
       </c>
       <c r="CO3">
-        <v>0.07627958808875447</v>
+        <v>0.07606598984360186</v>
       </c>
       <c r="CP3">
-        <v>0.09439744160565655</v>
+        <v>0.09419133088604381</v>
       </c>
       <c r="CQ3">
-        <v>0.155610906973449</v>
+        <v>0.1554373631778609</v>
       </c>
       <c r="CR3">
-        <v>0.1668318896742506</v>
+        <v>0.1666618197850874</v>
       </c>
       <c r="CS3">
-        <v>0.1669326798455631</v>
+        <v>0.1667596124907362</v>
       </c>
       <c r="CT3">
-        <v>0.1710958830345546</v>
+        <v>0.1709221823265689</v>
       </c>
       <c r="CU3">
-        <v>0.1712484970104853</v>
+        <v>0.1710718289955873</v>
       </c>
       <c r="CV3">
-        <v>0.1729815238642755</v>
+        <v>0.1728028082603352</v>
       </c>
       <c r="CW3">
-        <v>0.1748967313132081</v>
+        <v>0.1747160741398303</v>
       </c>
       <c r="CX3">
-        <v>0.1796732285858466</v>
+        <v>0.1794922949644809</v>
       </c>
       <c r="CY3">
-        <v>0.1797824581129341</v>
+        <v>0.1795985319371696</v>
       </c>
       <c r="CZ3">
-        <v>0.2191285170638033</v>
+        <v>0.2189644321220034</v>
       </c>
       <c r="DA3">
-        <v>0.3020596348525121</v>
+        <v>0.3019407553757814</v>
       </c>
       <c r="DB3">
-        <v>0.3040739383988023</v>
+        <v>0.3039531750213946</v>
       </c>
       <c r="DC3">
-        <v>0.3126891561690845</v>
+        <v>0.3125703502788135</v>
       </c>
       <c r="DD3">
-        <v>0.3182262864214414</v>
+        <v>0.3181076467319064</v>
       </c>
       <c r="DE3">
-        <v>0.3249795805413703</v>
+        <v>0.3248618147965144</v>
       </c>
       <c r="DF3">
-        <v>0.3482325239213493</v>
+        <v>0.3481252340565177</v>
       </c>
       <c r="DG3">
-        <v>0.3648743544776084</v>
+        <v>0.3647736931699342</v>
       </c>
       <c r="DH3">
-        <v>0.3649060619367629</v>
+        <v>0.3648023629608895</v>
       </c>
       <c r="DI3">
-        <v>0.3669066926834177</v>
+        <v>0.366801101850011</v>
       </c>
       <c r="DJ3">
-        <v>0.3704488731889684</v>
+        <v>0.3703422875995899</v>
       </c>
       <c r="DK3">
-        <v>0.3706148510645427</v>
+        <v>0.3705053059453446</v>
       </c>
       <c r="DL3">
-        <v>0.3722528746208661</v>
+        <v>0.3721412266256614</v>
       </c>
       <c r="DM3">
-        <v>0.3938093260460808</v>
+        <v>0.3937071666610616</v>
       </c>
       <c r="DN3">
-        <v>0.3987160649152465</v>
+        <v>0.398613704876056</v>
       </c>
       <c r="DO3">
-        <v>0.4017573806341523</v>
+        <v>0.4016537343618063</v>
       </c>
       <c r="DP3">
-        <v>0.4030936851985208</v>
+        <v>0.4029877604654508</v>
       </c>
       <c r="DQ3">
-        <v>0.4034149422899547</v>
+        <v>0.4033061483914703</v>
       </c>
       <c r="DR3">
-        <v>0.4068511918983299</v>
+        <v>0.4067413415976163</v>
       </c>
       <c r="DS3">
-        <v>0.4182883565933672</v>
+        <v>0.4181821060057243</v>
       </c>
       <c r="DT3">
-        <v>0.4251169020112895</v>
+        <v>0.4250115691606565</v>
       </c>
       <c r="DU3">
-        <v>0.4264367676760964</v>
+        <v>0.4263291467981571</v>
       </c>
       <c r="DV3">
-        <v>0.4299702685818785</v>
+        <v>0.429861647896893</v>
       </c>
       <c r="DW3">
-        <v>0.4413990452771394</v>
+        <v>0.4412940194238463</v>
       </c>
       <c r="DX3">
-        <v>0.4549018969170968</v>
+        <v>0.4548016728989424</v>
       </c>
       <c r="DY3">
-        <v>0.4575723798458906</v>
+        <v>0.4574706537892373</v>
       </c>
       <c r="DZ3">
-        <v>0.4604799990683612</v>
+        <v>0.4603769089741644</v>
       </c>
       <c r="EA3">
-        <v>0.4630134362008092</v>
+        <v>0.4629087643146076</v>
       </c>
       <c r="EB3">
-        <v>0.467194933089313</v>
+        <v>0.4670896384959315</v>
       </c>
       <c r="EC3">
-        <v>0.4912410794481419</v>
+        <v>0.4911467223375496</v>
       </c>
       <c r="ED3">
-        <v>0.510378690937853</v>
+        <v>0.5102924147987561</v>
       </c>
       <c r="EE3">
-        <v>0.5117923964001577</v>
+        <v>0.5117038868436226</v>
       </c>
       <c r="EF3">
-        <v>0.5153696813047723</v>
+        <v>0.5152801974211948</v>
       </c>
       <c r="EG3">
-        <v>0.5320494838600189</v>
+        <v>0.5319666506313218</v>
       </c>
       <c r="EH3">
-        <v>0.5409806546218765</v>
+        <v>0.5408999627484788</v>
       </c>
       <c r="EI3">
-        <v>0.5440669569395827</v>
+        <v>0.5439850050128839</v>
       </c>
       <c r="EJ3">
-        <v>0.5444379665096901</v>
+        <v>0.5443531743709247</v>
       </c>
       <c r="EK3">
-        <v>0.5446277338646301</v>
+        <v>0.5445399960402814</v>
       </c>
       <c r="EL3">
-        <v>0.5453527311052987</v>
+        <v>0.5452623590712457</v>
       </c>
       <c r="EM3">
-        <v>0.5515839479391483</v>
+        <v>0.5514941460280224</v>
       </c>
       <c r="EN3">
-        <v>0.5625704936462009</v>
+        <v>0.5624840292113964</v>
       </c>
       <c r="EO3">
-        <v>0.572155555390623</v>
+        <v>0.5720716128415667</v>
       </c>
       <c r="EP3">
-        <v>0.5751152253117058</v>
+        <v>0.5750299490158979</v>
       </c>
       <c r="EQ3">
-        <v>0.5751864760298059</v>
+        <v>0.5750981850779132</v>
       </c>
       <c r="ER3">
-        <v>0.5753153772363688</v>
+        <v>0.5752241051779688</v>
       </c>
       <c r="ES3">
-        <v>0.5784735238521594</v>
+        <v>0.5783810335500927</v>
       </c>
       <c r="ET3">
-        <v>0.5868367766291601</v>
+        <v>0.5867460971837449</v>
       </c>
       <c r="EU3">
-        <v>0.5987742953108558</v>
+        <v>0.5986875067584362</v>
       </c>
       <c r="EV3">
-        <v>0.6085077760513204</v>
+        <v>0.6084235957567641</v>
       </c>
       <c r="EW3">
-        <v>0.6104557375993797</v>
+        <v>0.6103696347965633</v>
       </c>
       <c r="EX3">
-        <v>0.612672443840273</v>
+        <v>0.6125845749245917</v>
       </c>
       <c r="EY3">
-        <v>0.6364184472071051</v>
+        <v>0.6363413411066452</v>
       </c>
       <c r="EZ3">
-        <v>0.6818139919966696</v>
+        <v>0.6817602476154271</v>
       </c>
       <c r="FA3">
-        <v>0.7399613164462182</v>
+        <v>0.7399383546548977</v>
       </c>
       <c r="FB3">
-        <v>0.788856711142462</v>
+        <v>0.7888591478004731</v>
       </c>
       <c r="FC3">
-        <v>0.8028040097705685</v>
+        <v>0.8028115069086857</v>
       </c>
       <c r="FD3">
-        <v>0.8044356895270611</v>
+        <v>0.804441080097411</v>
       </c>
       <c r="FE3">
-        <v>0.8063767324753048</v>
+        <v>0.8063801965111305</v>
       </c>
       <c r="FF3">
-        <v>0.8141033122692818</v>
+        <v>0.8141082166512881</v>
       </c>
       <c r="FG3">
-        <v>0.8194646301263265</v>
+        <v>0.8194695983954242</v>
       </c>
       <c r="FH3">
-        <v>0.8261336716485019</v>
+        <v>0.8261394648316609</v>
       </c>
       <c r="FI3">
-        <v>0.846015163118378</v>
+        <v>0.8460294701723846</v>
       </c>
       <c r="FJ3">
-        <v>0.8752625333385206</v>
+        <v>0.8752908047163385</v>
       </c>
       <c r="FK3">
-        <v>0.9058154855238508</v>
+        <v>0.9058584810060923</v>
       </c>
       <c r="FL3">
-        <v>0.9202712511383996</v>
+        <v>0.9203196030020147</v>
       </c>
       <c r="FM3">
-        <v>0.9252990183043382</v>
+        <v>0.9253472399459385</v>
       </c>
       <c r="FN3">
-        <v>0.9257567666521328</v>
+        <v>0.9258021985591112</v>
       </c>
       <c r="FO3">
-        <v>0.9260646118239244</v>
+        <v>0.9261071667604506</v>
       </c>
       <c r="FP3">
-        <v>0.9283128244639777</v>
+        <v>0.92835363162272</v>
       </c>
       <c r="FQ3">
-        <v>0.933068254337178</v>
+        <v>0.9331087727878046</v>
       </c>
       <c r="FR3">
-        <v>0.9362423370525437</v>
+        <v>0.9362816465334823</v>
       </c>
       <c r="FS3">
-        <v>0.9454142068079832</v>
+        <v>0.9454557977184822</v>
       </c>
       <c r="FT3">
-        <v>0.9510186730585446</v>
+        <v>0.9510604693558189</v>
       </c>
       <c r="FU3">
-        <v>0.9564065049148824</v>
+        <v>0.9564483805290128</v>
       </c>
       <c r="FV3">
-        <v>0.9603924978085991</v>
+        <v>0.9604336369424211</v>
       </c>
       <c r="FW3">
-        <v>0.9645892271966967</v>
+        <v>0.9646297524878592</v>
       </c>
       <c r="FX3">
-        <v>0.9692117055734421</v>
+        <v>0.9692518647856518</v>
       </c>
       <c r="FY3">
-        <v>0.9701836603475257</v>
+        <v>0.9702213290664358</v>
       </c>
       <c r="FZ3">
-        <v>0.9701872713084294</v>
+        <v>0.9702218860084436</v>
       </c>
       <c r="GA3">
-        <v>0.9709138536590557</v>
+        <v>0.970945835071817</v>
       </c>
       <c r="GB3">
-        <v>0.9764299295119739</v>
+        <v>0.976462064872909</v>
       </c>
       <c r="GC3">
-        <v>0.9838121937151318</v>
+        <v>0.983845569048531</v>
       </c>
       <c r="GD3">
-        <v>0.9863763253467613</v>
+        <v>0.9864081367507535</v>
       </c>
       <c r="GE3">
-        <v>0.989020522176256</v>
+        <v>0.9890508162446103</v>
       </c>
       <c r="GF3">
-        <v>0.9893760422167763</v>
+        <v>0.9894034870589656</v>
       </c>
       <c r="GG3">
-        <v>0.9904852081872013</v>
+        <v>0.9905102423858511</v>
       </c>
       <c r="GH3">
-        <v>0.9922493995401606</v>
+        <v>0.9922724042858811</v>
       </c>
       <c r="GI3">
-        <v>0.9942729034862055</v>
+        <v>0.9942940296854018</v>
       </c>
       <c r="GJ3">
-        <v>0.9942729135302036</v>
+        <v>0.9942940296854018</v>
       </c>
       <c r="GK3">
-        <v>0.9944915289743744</v>
+        <v>0.9945097162320726</v>
       </c>
       <c r="GL3">
-        <v>0.9962405622277378</v>
+        <v>0.9962567112112835</v>
       </c>
       <c r="GM3">
-        <v>0.9981557696766704</v>
+        <v>0.9981699770907786</v>
       </c>
       <c r="GN3">
-        <v>0.9983507050614726</v>
+        <v>0.9983619697975213</v>
       </c>
       <c r="GO3">
-        <v>0.9983963261842561</v>
+        <v>0.9984045613491322</v>
       </c>
       <c r="GP3">
-        <v>0.9987950335436249</v>
+        <v>0.9988004446151032</v>
       </c>
       <c r="GQ3">
-        <v>0.9996274777514285</v>
+        <v>0.9996303171417336</v>
       </c>
       <c r="GR3">
-        <v>0.9999999999414955</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001463351377408007</v>
+        <v>8.282393344217215E-06</v>
       </c>
       <c r="C4">
-        <v>0.0002904918955152323</v>
+        <v>1.433314201433036E-05</v>
       </c>
       <c r="D4">
-        <v>0.0005387798916820308</v>
+        <v>0.0001270612964418649</v>
       </c>
       <c r="E4">
-        <v>0.0007658256181767787</v>
+        <v>0.0002180277753530155</v>
       </c>
       <c r="F4">
-        <v>0.000953236065283437</v>
+        <v>0.0002683898319326063</v>
       </c>
       <c r="G4">
-        <v>0.001186796391677609</v>
+        <v>0.0003660302026321126</v>
       </c>
       <c r="H4">
-        <v>0.00129808215395952</v>
+        <v>0.0003660302026321126</v>
       </c>
       <c r="I4">
-        <v>0.001436332581825137</v>
+        <v>0.0003660302026321126</v>
       </c>
       <c r="J4">
-        <v>0.001518994940548952</v>
+        <v>0.0003660302026321126</v>
       </c>
       <c r="K4">
-        <v>0.001691258977889448</v>
+        <v>0.0004008754966595792</v>
       </c>
       <c r="L4">
-        <v>0.0018335230356931</v>
+        <v>0.0004049872659621454</v>
       </c>
       <c r="M4">
-        <v>0.001909939914513336</v>
+        <v>0.0004049872659621454</v>
       </c>
       <c r="N4">
-        <v>0.002014883246893165</v>
+        <v>0.0004049872659621454</v>
       </c>
       <c r="O4">
-        <v>0.002047276020393069</v>
+        <v>0.0004049872659621454</v>
       </c>
       <c r="P4">
-        <v>0.002051104511033962</v>
+        <v>0.0004049872659621454</v>
       </c>
       <c r="Q4">
-        <v>0.002118223819997739</v>
+        <v>0.0004049872659621454</v>
       </c>
       <c r="R4">
-        <v>0.002250535457955042</v>
+        <v>0.0004049872659621454</v>
       </c>
       <c r="S4">
-        <v>0.002393177035752865</v>
+        <v>0.0004094857861976838</v>
       </c>
       <c r="T4">
-        <v>0.003181409923583709</v>
+        <v>0.001075361307197923</v>
       </c>
       <c r="U4">
-        <v>0.00392648078208091</v>
+        <v>0.001697019421513829</v>
       </c>
       <c r="V4">
-        <v>0.004290642246458793</v>
+        <v>0.001928454326919364</v>
       </c>
       <c r="W4">
-        <v>0.004613369291476361</v>
+        <v>0.002117441678308799</v>
       </c>
       <c r="X4">
-        <v>0.004786048718810445</v>
+        <v>0.002152712519247813</v>
       </c>
       <c r="Y4">
-        <v>0.004998164225535693</v>
+        <v>0.002228383711778166</v>
       </c>
       <c r="Z4">
-        <v>0.005121787033627138</v>
+        <v>0.002228383711778166</v>
       </c>
       <c r="AA4">
-        <v>0.005178769967747405</v>
+        <v>0.002228383711778166</v>
       </c>
       <c r="AB4">
-        <v>0.005245889276711182</v>
+        <v>0.002228383711778166</v>
       </c>
       <c r="AC4">
-        <v>0.005306158855780709</v>
+        <v>0.002228383711778166</v>
       </c>
       <c r="AD4">
-        <v>0.005308223789148829</v>
+        <v>0.002228383711778166</v>
       </c>
       <c r="AE4">
-        <v>0.005308400400116102</v>
+        <v>0.002228383711778166</v>
       </c>
       <c r="AF4">
-        <v>0.005316048519998027</v>
+        <v>0.002228383711778166</v>
       </c>
       <c r="AG4">
-        <v>0.005320425895630447</v>
+        <v>0.002228383711778166</v>
       </c>
       <c r="AH4">
-        <v>0.0169815007156006</v>
+        <v>0.01403295870892095</v>
       </c>
       <c r="AI4">
-        <v>0.03897273437608828</v>
+        <v>0.03642028066251674</v>
       </c>
       <c r="AJ4">
-        <v>0.04360125530463072</v>
+        <v>0.04102034511537928</v>
       </c>
       <c r="AK4">
-        <v>0.0727748188542338</v>
+        <v>0.07076561586218738</v>
       </c>
       <c r="AL4">
-        <v>0.08108878172587844</v>
+        <v>0.07914123692639385</v>
       </c>
       <c r="AM4">
-        <v>0.08277807479979823</v>
+        <v>0.08073020492729986</v>
       </c>
       <c r="AN4">
-        <v>0.08298011192667908</v>
+        <v>0.08079555130824978</v>
       </c>
       <c r="AO4">
-        <v>0.08495606759617323</v>
+        <v>0.08267819124176388</v>
       </c>
       <c r="AP4">
-        <v>0.08503934736888752</v>
+        <v>0.08267819124176388</v>
       </c>
       <c r="AQ4">
-        <v>0.08564375428955637</v>
+        <v>0.0831557459707478</v>
       </c>
       <c r="AR4">
-        <v>0.08603406651353052</v>
+        <v>0.08341397106164797</v>
       </c>
       <c r="AS4">
-        <v>0.1126483241026455</v>
+        <v>0.1105373569195466</v>
       </c>
       <c r="AT4">
-        <v>0.1690580932317616</v>
+        <v>0.1681847999515855</v>
       </c>
       <c r="AU4">
-        <v>0.1882465599355199</v>
+        <v>0.1877008230278942</v>
       </c>
       <c r="AV4">
-        <v>0.1918488506799058</v>
+        <v>0.1912495644057034</v>
       </c>
       <c r="AW4">
-        <v>0.1926701554072261</v>
+        <v>0.1919493204230352</v>
       </c>
       <c r="AX4">
-        <v>0.1988297413121312</v>
+        <v>0.1981178867226633</v>
       </c>
       <c r="AY4">
-        <v>0.2151266080605315</v>
+        <v>0.214671605820952</v>
       </c>
       <c r="AZ4">
-        <v>0.2240957629220609</v>
+        <v>0.2237184393170186</v>
       </c>
       <c r="BA4">
-        <v>0.2312520338115786</v>
+        <v>0.2309080610670316</v>
       </c>
       <c r="BB4">
-        <v>0.2386803412968965</v>
+        <v>0.2383763711219093</v>
       </c>
       <c r="BC4">
-        <v>0.244895020000951</v>
+        <v>0.2446013773235295</v>
       </c>
       <c r="BD4">
-        <v>0.2454845223318499</v>
+        <v>0.2450636630228247</v>
       </c>
       <c r="BE4">
-        <v>0.2455737608154722</v>
+        <v>0.2450636630228247</v>
       </c>
       <c r="BF4">
-        <v>0.2552229546665029</v>
+        <v>0.2548071634973492</v>
       </c>
       <c r="BG4">
-        <v>0.2761204343438766</v>
+        <v>0.2760739875172145</v>
       </c>
       <c r="BH4">
-        <v>0.278093779513411</v>
+        <v>0.2779539531200692</v>
       </c>
       <c r="BI4">
-        <v>0.2785136454769289</v>
+        <v>0.2782424545844537</v>
       </c>
       <c r="BJ4">
-        <v>0.2785137177681978</v>
+        <v>0.2782424545844537</v>
       </c>
       <c r="BK4">
-        <v>0.2788314313632927</v>
+        <v>0.2784263058994347</v>
       </c>
       <c r="BL4">
-        <v>0.2840553108826437</v>
+        <v>0.2836362863673507</v>
       </c>
       <c r="BM4">
-        <v>0.2896784674958305</v>
+        <v>0.2892553068621245</v>
       </c>
       <c r="BN4">
-        <v>0.2921783258572364</v>
+        <v>0.2916746597062436</v>
       </c>
       <c r="BO4">
-        <v>0.2983496197619607</v>
+        <v>0.2978552202841172</v>
       </c>
       <c r="BP4">
-        <v>0.306605176634507</v>
+        <v>0.3061710072335982</v>
       </c>
       <c r="BQ4">
-        <v>0.310207467378893</v>
+        <v>0.3097197486114074</v>
       </c>
       <c r="BR4">
-        <v>0.3157344642935643</v>
+        <v>0.315240258156591</v>
       </c>
       <c r="BS4">
-        <v>0.3269437481205094</v>
+        <v>0.3265819951828755</v>
       </c>
       <c r="BT4">
-        <v>0.3373567659597477</v>
+        <v>0.3371079963053829</v>
       </c>
       <c r="BU4">
-        <v>0.3393017095297207</v>
+        <v>0.3389588658463127</v>
       </c>
       <c r="BV4">
-        <v>0.3406849710083651</v>
+        <v>0.340234319313369</v>
       </c>
       <c r="BW4">
-        <v>0.3462648379222202</v>
+        <v>0.3458089916097346</v>
       </c>
       <c r="BX4">
-        <v>0.3552511187834852</v>
+        <v>0.3548733698623124</v>
       </c>
       <c r="BY4">
-        <v>0.3629644733644024</v>
+        <v>0.3626336968483885</v>
       </c>
       <c r="BZ4">
-        <v>0.3737881721973004</v>
+        <v>0.3735804207402959</v>
       </c>
       <c r="CA4">
-        <v>0.3842044200364888</v>
+        <v>0.3841097308411713</v>
       </c>
       <c r="CB4">
-        <v>0.3919257139172834</v>
+        <v>0.3918781912550979</v>
       </c>
       <c r="CC4">
-        <v>0.3992724588038604</v>
+        <v>0.3992629443814802</v>
       </c>
       <c r="CD4">
-        <v>0.4010990882756599</v>
+        <v>0.4009926068643502</v>
       </c>
       <c r="CE4">
-        <v>0.401176297234468</v>
+        <v>0.4009926068643502</v>
       </c>
       <c r="CF4">
-        <v>0.4013769237913706</v>
+        <v>0.4010565081847377</v>
       </c>
       <c r="CG4">
-        <v>0.4031590218638576</v>
+        <v>0.402740550407763</v>
       </c>
       <c r="CH4">
-        <v>0.4074757107972143</v>
+        <v>0.4070211580982539</v>
       </c>
       <c r="CI4">
-        <v>0.416523352657532</v>
+        <v>0.4161483977197608</v>
       </c>
       <c r="CJ4">
-        <v>0.4215563119798305</v>
+        <v>0.4211627897010449</v>
       </c>
       <c r="CK4">
-        <v>0.4228475449598958</v>
+        <v>0.4223439644325772</v>
       </c>
       <c r="CL4">
-        <v>0.423509705109673</v>
+        <v>0.4228806845450763</v>
       </c>
       <c r="CM4">
-        <v>0.4257618472749032</v>
+        <v>0.4250462641547647</v>
       </c>
       <c r="CN4">
-        <v>0.4335559758545733</v>
+        <v>0.4328893401868777</v>
       </c>
       <c r="CO4">
-        <v>0.4480471626308507</v>
+        <v>0.4475932276877701</v>
       </c>
       <c r="CP4">
-        <v>0.4569727184930533</v>
+        <v>0.4565953961225774</v>
       </c>
       <c r="CQ4">
-        <v>0.4583869068712203</v>
+        <v>0.4579025326989496</v>
       </c>
       <c r="CR4">
-        <v>0.4608154343337274</v>
+        <v>0.4602488104950587</v>
       </c>
       <c r="CS4">
-        <v>0.4796531080429014</v>
+        <v>0.4794054631538264</v>
       </c>
       <c r="CT4">
-        <v>0.5228154233765387</v>
+        <v>0.5234815319699165</v>
       </c>
       <c r="CU4">
-        <v>0.5870075723855064</v>
+        <v>0.5891016459220216</v>
       </c>
       <c r="CV4">
-        <v>0.6376352946038888</v>
+        <v>0.6408256621906081</v>
       </c>
       <c r="CW4">
-        <v>0.6566376813105199</v>
+        <v>0.6601510553304699</v>
       </c>
       <c r="CX4">
-        <v>0.6610130572429705</v>
+        <v>0.6644917850065598</v>
       </c>
       <c r="CY4">
-        <v>0.6627047657168531</v>
+        <v>0.6660832274676362</v>
       </c>
       <c r="CZ4">
-        <v>0.6742830325381017</v>
+        <v>0.6778029696843765</v>
       </c>
       <c r="DA4">
-        <v>0.6865370253489181</v>
+        <v>0.6902149604202243</v>
       </c>
       <c r="DB4">
-        <v>0.6986762361615065</v>
+        <v>0.7025093625631808</v>
       </c>
       <c r="DC4">
-        <v>0.7206540688222011</v>
+        <v>0.7248829558421295</v>
       </c>
       <c r="DD4">
-        <v>0.7466818374203706</v>
+        <v>0.7514055121600623</v>
       </c>
       <c r="DE4">
-        <v>0.7728483060163989</v>
+        <v>0.7780701599020343</v>
       </c>
       <c r="DF4">
-        <v>0.7834745198523457</v>
+        <v>0.788814569988056</v>
       </c>
       <c r="DG4">
-        <v>0.7882793077781669</v>
+        <v>0.793595211434726</v>
       </c>
       <c r="DH4">
-        <v>0.7890710970359428</v>
+        <v>0.7942647302843326</v>
       </c>
       <c r="DI4">
-        <v>0.7890924669686129</v>
+        <v>0.7942647302843326</v>
       </c>
       <c r="DJ4">
-        <v>0.7895728911111959</v>
+        <v>0.7946152706674873</v>
       </c>
       <c r="DK4">
-        <v>0.7934774378509154</v>
+        <v>0.7984736586600358</v>
       </c>
       <c r="DL4">
-        <v>0.8043906446824315</v>
+        <v>0.8095120791574436</v>
       </c>
       <c r="DM4">
-        <v>0.8215879984169296</v>
+        <v>0.8269883035200342</v>
       </c>
       <c r="DN4">
-        <v>0.8319076202576099</v>
+        <v>0.8374186249695815</v>
       </c>
       <c r="DO4">
-        <v>0.8420444391011123</v>
+        <v>0.8476616736102708</v>
       </c>
       <c r="DP4">
-        <v>0.8517692409509756</v>
+        <v>0.8574826308143465</v>
       </c>
       <c r="DQ4">
-        <v>0.860005102823826</v>
+        <v>0.8657782411913946</v>
       </c>
       <c r="DR4">
-        <v>0.864083791760857</v>
+        <v>0.8698150294231882</v>
       </c>
       <c r="DS4">
-        <v>0.8649060031881634</v>
+        <v>0.8705157143107016</v>
       </c>
       <c r="DT4">
-        <v>0.8649160231980086</v>
+        <v>0.8705157143107016</v>
       </c>
       <c r="DU4">
-        <v>0.8666077316718912</v>
+        <v>0.872107156771778</v>
       </c>
       <c r="DV4">
-        <v>0.8725643822799293</v>
+        <v>0.878067825697471</v>
       </c>
       <c r="DW4">
-        <v>0.8768012822145178</v>
+        <v>0.8822666934266594</v>
       </c>
       <c r="DX4">
-        <v>0.8814168996432594</v>
+        <v>0.8868535388694997</v>
       </c>
       <c r="DY4">
-        <v>0.8876166249475448</v>
+        <v>0.8930632260379531</v>
       </c>
       <c r="DZ4">
-        <v>0.8892040512230373</v>
+        <v>0.8945478364420725</v>
       </c>
       <c r="EA4">
-        <v>0.8892041918951251</v>
+        <v>0.8945478364420725</v>
       </c>
       <c r="EB4">
-        <v>0.8892063887406912</v>
+        <v>0.8945478364420725</v>
       </c>
       <c r="EC4">
-        <v>0.8892574939019022</v>
+        <v>0.8945478364420725</v>
       </c>
       <c r="ED4">
-        <v>0.8896129127564151</v>
+        <v>0.8947703149674873</v>
       </c>
       <c r="EE4">
-        <v>0.8901351138183531</v>
+        <v>0.8951636537792992</v>
       </c>
       <c r="EF4">
-        <v>0.8915723363961645</v>
+        <v>0.896494387776577</v>
       </c>
       <c r="EG4">
-        <v>0.8924902137419939</v>
+        <v>0.8972930777600154</v>
       </c>
       <c r="EH4">
-        <v>0.892696966938802</v>
+        <v>0.8973632555259846</v>
       </c>
       <c r="EI4">
-        <v>0.8928963154157243</v>
+        <v>0.8974258475153899</v>
       </c>
       <c r="EJ4">
-        <v>0.892898932500684</v>
+        <v>0.8974258475153899</v>
       </c>
       <c r="EK4">
-        <v>0.8937133878881099</v>
+        <v>0.8981185867160358</v>
       </c>
       <c r="EL4">
-        <v>0.8943584502781511</v>
+        <v>0.8986377910025344</v>
       </c>
       <c r="EM4">
-        <v>0.8944255695871148</v>
+        <v>0.8986377910025344</v>
       </c>
       <c r="EN4">
-        <v>0.8944339204809859</v>
+        <v>0.8986377910025344</v>
       </c>
       <c r="EO4">
-        <v>0.894473686448372</v>
+        <v>0.8986377910025344</v>
       </c>
       <c r="EP4">
-        <v>0.8954615762331204</v>
+        <v>0.8995082053356487</v>
       </c>
       <c r="EQ4">
-        <v>0.8982546954899987</v>
+        <v>0.9022279897507554</v>
       </c>
       <c r="ER4">
-        <v>0.9016503871375742</v>
+        <v>0.9055650803691976</v>
       </c>
       <c r="ES4">
-        <v>0.9045216620932459</v>
+        <v>0.9083649315089601</v>
       </c>
       <c r="ET4">
-        <v>0.9048456079482446</v>
+        <v>0.908555167472091</v>
       </c>
       <c r="EU4">
-        <v>0.9050389413452599</v>
+        <v>0.9086115973037248</v>
       </c>
       <c r="EV4">
-        <v>0.9061713797277767</v>
+        <v>0.9096300946679627</v>
       </c>
       <c r="EW4">
-        <v>0.9069830005152465</v>
+        <v>0.9103199299583666</v>
       </c>
       <c r="EX4">
-        <v>0.9069954877230537</v>
+        <v>0.9103199299583666</v>
       </c>
       <c r="EY4">
-        <v>0.9074704797757205</v>
+        <v>0.9106649054287339</v>
       </c>
       <c r="EZ4">
-        <v>0.9103648037310363</v>
+        <v>0.9134883691512844</v>
       </c>
       <c r="FA4">
-        <v>0.9137604953786118</v>
+        <v>0.9168254597697266</v>
       </c>
       <c r="FB4">
-        <v>0.9148939983611122</v>
+        <v>0.9178450477650392</v>
       </c>
       <c r="FC4">
-        <v>0.9149820879997522</v>
+        <v>0.9178450477650392</v>
       </c>
       <c r="FD4">
-        <v>0.9186306330434241</v>
+        <v>0.9214411744301947</v>
       </c>
       <c r="FE4">
-        <v>0.9262877349252097</v>
+        <v>0.9291438732529755</v>
       </c>
       <c r="FF4">
-        <v>0.9351408617885304</v>
+        <v>0.9380718416895728</v>
       </c>
       <c r="FG4">
-        <v>0.9399456497143516</v>
+        <v>0.9428524831362428</v>
       </c>
       <c r="FH4">
-        <v>0.9409219274992793</v>
+        <v>0.9437110015384563</v>
       </c>
       <c r="FI4">
-        <v>0.9409522954448104</v>
+        <v>0.9437110015384563</v>
       </c>
       <c r="FJ4">
-        <v>0.9416832490735255</v>
+        <v>0.9443181972352223</v>
       </c>
       <c r="FK4">
-        <v>0.9431242429512787</v>
+        <v>0.9456527947464688</v>
       </c>
       <c r="FL4">
-        <v>0.9444345439310496</v>
+        <v>0.9468535037193391</v>
       </c>
       <c r="FM4">
-        <v>0.9479873734761992</v>
+        <v>0.9503515744962637</v>
       </c>
       <c r="FN4">
-        <v>0.9533004680941728</v>
+        <v>0.9556529515078335</v>
       </c>
       <c r="FO4">
-        <v>0.9554293220613064</v>
+        <v>0.9576922283352204</v>
       </c>
       <c r="FP4">
-        <v>0.9560550211516465</v>
+        <v>0.9581915958598509</v>
       </c>
       <c r="FQ4">
-        <v>0.9563789670066453</v>
+        <v>0.9583818318229818</v>
       </c>
       <c r="FR4">
-        <v>0.9564509086555346</v>
+        <v>0.9583818318229818</v>
       </c>
       <c r="FS4">
-        <v>0.9584078278253226</v>
+        <v>0.9602449697853803</v>
       </c>
       <c r="FT4">
-        <v>0.9609507979860629</v>
+        <v>0.9627084885779845</v>
       </c>
       <c r="FU4">
-        <v>0.9642155869356593</v>
+        <v>0.9659114757281243</v>
       </c>
       <c r="FV4">
-        <v>0.9672720858884715</v>
+        <v>0.9689010798738438</v>
       </c>
       <c r="FW4">
-        <v>0.9689148995631088</v>
+        <v>0.9704424319833692</v>
       </c>
       <c r="FX4">
-        <v>0.9690815752905356</v>
+        <v>0.9704715523247949</v>
       </c>
       <c r="FY4">
-        <v>0.9690896670564108</v>
+        <v>0.9704715523247949</v>
       </c>
       <c r="FZ4">
-        <v>0.9690904475068987</v>
+        <v>0.9704715523247949</v>
       </c>
       <c r="GA4">
-        <v>0.9690936415794493</v>
+        <v>0.9704715523247949</v>
       </c>
       <c r="GB4">
-        <v>0.9691763861331719</v>
+        <v>0.9704715523247949</v>
       </c>
       <c r="GC4">
-        <v>0.9692150204325755</v>
+        <v>0.9704715523247949</v>
       </c>
       <c r="GD4">
-        <v>0.9692388601652074</v>
+        <v>0.9704715523247949</v>
       </c>
       <c r="GE4">
-        <v>0.9695165971109196</v>
+        <v>0.9706144495004333</v>
       </c>
       <c r="GF4">
-        <v>0.9710882190866561</v>
+        <v>0.9720828691655985</v>
       </c>
       <c r="GG4">
-        <v>0.9760866160094882</v>
+        <v>0.9770618536441126</v>
       </c>
       <c r="GH4">
-        <v>0.9817767263216413</v>
+        <v>0.9827494649577594</v>
       </c>
       <c r="GI4">
-        <v>0.9849116683732424</v>
+        <v>0.9858194302554979</v>
       </c>
       <c r="GJ4">
-        <v>0.9871653125384494</v>
+        <v>0.9879865485913499</v>
       </c>
       <c r="GK4">
-        <v>0.9876667615807078</v>
+        <v>0.9883586279649968</v>
       </c>
       <c r="GL4">
-        <v>0.9876687302603774</v>
+        <v>0.9883586279649968</v>
       </c>
       <c r="GM4">
-        <v>0.9881832153124345</v>
+        <v>0.9887440620987352</v>
       </c>
       <c r="GN4">
-        <v>0.9885037542774858</v>
+        <v>0.9889308078682709</v>
       </c>
       <c r="GO4">
-        <v>0.9894113924634732</v>
+        <v>0.9897190083288155</v>
       </c>
       <c r="GP4">
-        <v>0.9913493672335537</v>
+        <v>0.9915627386720824</v>
       </c>
       <c r="GQ4">
-        <v>0.994168337890033</v>
+        <v>0.9943090065928806</v>
       </c>
       <c r="GR4">
-        <v>0.9973650630406803</v>
+        <v>0.9974422656805293</v>
       </c>
       <c r="GS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GX4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GY4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GZ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HA4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HB4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HC4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HD4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HE4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HF4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HG4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HH4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HI4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HJ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HK4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HL4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HM4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HN4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HO4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HP4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HQ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HR4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HX4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HY4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HZ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IA4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IB4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IC4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="ID4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IE4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IF4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IG4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IH4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="II4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IJ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IK4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IL4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IM4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IN4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IO4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IP4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IQ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IR4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.260141046149684E-05</v>
+        <v>1.536075397683742E-05</v>
       </c>
       <c r="C5">
-        <v>0.0001064962121745397</v>
+        <v>9.210207156532266E-05</v>
       </c>
       <c r="D5">
-        <v>0.0002273364396419691</v>
+        <v>0.0002058413592346251</v>
       </c>
       <c r="E5">
-        <v>0.0003610234723717165</v>
+        <v>0.0003324457230811294</v>
       </c>
       <c r="F5">
-        <v>0.0005948460071461248</v>
+        <v>0.00055932800315211</v>
       </c>
       <c r="G5">
-        <v>0.0008275811218983291</v>
+        <v>0.0007851213166561805</v>
       </c>
       <c r="H5">
-        <v>0.001149225528465967</v>
+        <v>0.001099950370074644</v>
       </c>
       <c r="I5">
-        <v>0.001584095087345542</v>
+        <v>0.001528165606277472</v>
       </c>
       <c r="J5">
-        <v>0.001894977553693433</v>
+        <v>0.001832217413686949</v>
       </c>
       <c r="K5">
-        <v>0.002084574477564801</v>
+        <v>0.002014811184542354</v>
       </c>
       <c r="L5">
-        <v>0.002229605710526185</v>
+        <v>0.002152775882508463</v>
       </c>
       <c r="M5">
-        <v>0.002263709547222549</v>
+        <v>0.002179655421639479</v>
       </c>
       <c r="N5">
-        <v>0.002272875700409713</v>
+        <v>0.002181561810522016</v>
       </c>
       <c r="O5">
-        <v>0.002273608531524676</v>
+        <v>0.002181561810522016</v>
       </c>
       <c r="P5">
-        <v>0.002275209866257374</v>
+        <v>0.002181561810522016</v>
       </c>
       <c r="Q5">
-        <v>0.002282472338005666</v>
+        <v>0.002181561810522016</v>
       </c>
       <c r="R5">
-        <v>0.002309838755564459</v>
+        <v>0.002201694348459138</v>
       </c>
       <c r="S5">
-        <v>0.002357879201545394</v>
+        <v>0.002242530317724874</v>
       </c>
       <c r="T5">
-        <v>0.002420448582822994</v>
+        <v>0.002297915885552168</v>
       </c>
       <c r="U5">
-        <v>0.002508238384615569</v>
+        <v>0.002378557742746431</v>
       </c>
       <c r="V5">
-        <v>0.002601102641511759</v>
+        <v>0.002464281272008791</v>
       </c>
       <c r="W5">
-        <v>0.002829949426184568</v>
+        <v>0.002686180725393392</v>
       </c>
       <c r="X5">
-        <v>0.003169265933113051</v>
+        <v>0.003018707012693052</v>
       </c>
       <c r="Y5">
-        <v>0.00351484064016932</v>
+        <v>0.003357500400624516</v>
       </c>
       <c r="Z5">
-        <v>0.00392758732859717</v>
+        <v>0.003763561302904759</v>
       </c>
       <c r="AA5">
-        <v>0.004409161538430404</v>
+        <v>0.004238547614100906</v>
       </c>
       <c r="AB5">
-        <v>0.004942441349319412</v>
+        <v>0.004765313062817076</v>
       </c>
       <c r="AC5">
-        <v>0.005415073678970064</v>
+        <v>0.005231344776557483</v>
       </c>
       <c r="AD5">
-        <v>0.005722707135251612</v>
+        <v>0.005532142953110845</v>
       </c>
       <c r="AE5">
-        <v>0.005888959148646303</v>
+        <v>0.005691358612015463</v>
       </c>
       <c r="AF5">
-        <v>0.005893438387437764</v>
+        <v>0.005691358612015463</v>
       </c>
       <c r="AG5">
-        <v>0.005893491149298841</v>
+        <v>0.005691358612015463</v>
       </c>
       <c r="AH5">
-        <v>0.006950883070889664</v>
+        <v>0.006742981571365069</v>
       </c>
       <c r="AI5">
-        <v>0.09172102480180608</v>
+        <v>0.09162641184073456</v>
       </c>
       <c r="AJ5">
-        <v>0.09244043366649564</v>
+        <v>0.09233957105872177</v>
       </c>
       <c r="AK5">
-        <v>0.1277956113884109</v>
+        <v>0.1277377586324479</v>
       </c>
       <c r="AL5">
-        <v>0.1405498406488387</v>
+        <v>0.1405028543442693</v>
       </c>
       <c r="AM5">
-        <v>0.1411742645115888</v>
+        <v>0.1411208934712541</v>
       </c>
       <c r="AN5">
-        <v>0.1442190311737597</v>
+        <v>0.144162717644691</v>
       </c>
       <c r="AO5">
-        <v>0.1442262639359074</v>
+        <v>0.144162717644691</v>
       </c>
       <c r="AP5">
-        <v>0.1475272638033103</v>
+        <v>0.1474611394419829</v>
       </c>
       <c r="AQ5">
-        <v>0.1478322120295371</v>
+        <v>0.1477592485695079</v>
       </c>
       <c r="AR5">
-        <v>0.1608316032949708</v>
+        <v>0.1607698549593349</v>
       </c>
       <c r="AS5">
-        <v>0.1640861149614245</v>
+        <v>0.1640217224394763</v>
       </c>
       <c r="AT5">
-        <v>0.1760399652055095</v>
+        <v>0.1759853008241777</v>
       </c>
       <c r="AU5">
-        <v>0.2393575464983873</v>
+        <v>0.2393856605093832</v>
       </c>
       <c r="AV5">
-        <v>0.2641829390052955</v>
+        <v>0.2642390872531165</v>
       </c>
       <c r="AW5">
-        <v>0.2642572787828135</v>
+        <v>0.2643062599572143</v>
       </c>
       <c r="AX5">
-        <v>0.2777103090575101</v>
+        <v>0.2777711505283572</v>
       </c>
       <c r="AY5">
-        <v>0.2923593663566283</v>
+        <v>0.2924337691310994</v>
       </c>
       <c r="AZ5">
-        <v>0.2951134574128639</v>
+        <v>0.2951845042954906</v>
       </c>
       <c r="BA5">
-        <v>0.3110274267378103</v>
+        <v>0.3111138339004981</v>
       </c>
       <c r="BB5">
-        <v>0.3235296339930921</v>
+        <v>0.3236265491777812</v>
       </c>
       <c r="BC5">
-        <v>0.3240996983547322</v>
+        <v>0.3241901514927761</v>
       </c>
       <c r="BD5">
-        <v>0.3243605576800587</v>
+        <v>0.3244441090155192</v>
       </c>
       <c r="BE5">
-        <v>0.3246564423061004</v>
+        <v>0.324733141652474</v>
       </c>
       <c r="BF5">
-        <v>0.3267382398486084</v>
+        <v>0.3268106271574411</v>
       </c>
       <c r="BG5">
-        <v>0.339332164105763</v>
+        <v>0.3394151898778623</v>
       </c>
       <c r="BH5">
-        <v>0.3433414836876291</v>
+        <v>0.3434229387723051</v>
       </c>
       <c r="BI5">
-        <v>0.3434888824106388</v>
+        <v>0.3435632743273986</v>
       </c>
       <c r="BJ5">
-        <v>0.343762656016229</v>
+        <v>0.3438301644972843</v>
       </c>
       <c r="BK5">
-        <v>0.3455808106533538</v>
+        <v>0.3456436321400609</v>
       </c>
       <c r="BL5">
-        <v>0.346249758137013</v>
+        <v>0.3463062582101015</v>
       </c>
       <c r="BM5">
-        <v>0.3503798672213454</v>
+        <v>0.3504349683956128</v>
       </c>
       <c r="BN5">
-        <v>0.3560207307365258</v>
+        <v>0.3560765816290837</v>
       </c>
       <c r="BO5">
-        <v>0.3570887874583344</v>
+        <v>0.3571388845562863</v>
       </c>
       <c r="BP5">
-        <v>0.358886507895042</v>
+        <v>0.3589318889368261</v>
       </c>
       <c r="BQ5">
-        <v>0.3642853845052814</v>
+        <v>0.3643311711080303</v>
       </c>
       <c r="BR5">
-        <v>0.3781636647886611</v>
+        <v>0.3782219164846563</v>
       </c>
       <c r="BS5">
-        <v>0.3808920164443712</v>
+        <v>0.380946875641569</v>
       </c>
       <c r="BT5">
-        <v>0.3831727581909415</v>
+        <v>0.3832235882919635</v>
       </c>
       <c r="BU5">
-        <v>0.3875359886800341</v>
+        <v>0.3875857514309162</v>
       </c>
       <c r="BV5">
-        <v>0.3875577202744778</v>
+        <v>0.3876002411318102</v>
       </c>
       <c r="BW5">
-        <v>0.4006437455416806</v>
+        <v>0.4006976047355543</v>
       </c>
       <c r="BX5">
-        <v>0.422042036978611</v>
+        <v>0.4221190563358986</v>
       </c>
       <c r="BY5">
-        <v>0.4263977700675504</v>
+        <v>0.4264737114117857</v>
       </c>
       <c r="BZ5">
-        <v>0.4279958069001806</v>
+        <v>0.4280667481952975</v>
       </c>
       <c r="CA5">
-        <v>0.4429414902053556</v>
+        <v>0.4430264146699533</v>
       </c>
       <c r="CB5">
-        <v>0.4578958785107083</v>
+        <v>0.4579947985251658</v>
       </c>
       <c r="CC5">
-        <v>0.4609638879733539</v>
+        <v>0.4610598985553291</v>
       </c>
       <c r="CD5">
-        <v>0.4609655033032868</v>
+        <v>0.4610598985553291</v>
       </c>
       <c r="CE5">
-        <v>0.461040979974828</v>
+        <v>0.4611282097703575</v>
       </c>
       <c r="CF5">
-        <v>0.4610570322161558</v>
+        <v>0.4611370120408761</v>
       </c>
       <c r="CG5">
-        <v>0.4639870077759828</v>
+        <v>0.4640638818543796</v>
       </c>
       <c r="CH5">
-        <v>0.4713506969263415</v>
+        <v>0.471430770950918</v>
       </c>
       <c r="CI5">
-        <v>0.4762403550261832</v>
+        <v>0.4763201103936895</v>
       </c>
       <c r="CJ5">
-        <v>0.4800706931043946</v>
+        <v>0.4801486232343579</v>
       </c>
       <c r="CK5">
-        <v>0.4817004637376728</v>
+        <v>0.4817734389507944</v>
       </c>
       <c r="CL5">
-        <v>0.4832760809698452</v>
+        <v>0.4833440242483638</v>
       </c>
       <c r="CM5">
-        <v>0.486169559128927</v>
+        <v>0.4862343447539834</v>
       </c>
       <c r="CN5">
-        <v>0.4923578256552848</v>
+        <v>0.4924241395232236</v>
       </c>
       <c r="CO5">
-        <v>0.502613559364696</v>
+        <v>0.5026871862870074</v>
       </c>
       <c r="CP5">
-        <v>0.5129107935749546</v>
+        <v>0.5129917925742595</v>
       </c>
       <c r="CQ5">
-        <v>0.5158736183354523</v>
+        <v>0.5159515583070489</v>
       </c>
       <c r="CR5">
-        <v>0.516004362368122</v>
+        <v>0.5160752154852574</v>
       </c>
       <c r="CS5">
-        <v>0.5289360986321743</v>
+        <v>0.5290180706537676</v>
       </c>
       <c r="CT5">
-        <v>0.566925669407881</v>
+        <v>0.5670543979537281</v>
       </c>
       <c r="CU5">
-        <v>0.6235617465643297</v>
+        <v>0.6237637509693159</v>
       </c>
       <c r="CV5">
-        <v>0.6818060277536162</v>
+        <v>0.6820835952291064</v>
       </c>
       <c r="CW5">
-        <v>0.7040058172069124</v>
+        <v>0.7043076847480519</v>
       </c>
       <c r="CX5">
-        <v>0.7067561732630717</v>
+        <v>0.707054679600395</v>
       </c>
       <c r="CY5">
-        <v>0.7075213453786957</v>
+        <v>0.7078136671544835</v>
       </c>
       <c r="CZ5">
-        <v>0.7154610115408153</v>
+        <v>0.7157573524257372</v>
       </c>
       <c r="DA5">
-        <v>0.7224746086840256</v>
+        <v>0.7227736516091392</v>
       </c>
       <c r="DB5">
-        <v>0.7290857178190174</v>
+        <v>0.7293868903599737</v>
       </c>
       <c r="DC5">
-        <v>0.7410921690641764</v>
+        <v>0.7414031445556645</v>
       </c>
       <c r="DD5">
-        <v>0.7655431855634403</v>
+        <v>0.7658816628487038</v>
       </c>
       <c r="DE5">
-        <v>0.7917963800995027</v>
+        <v>0.7921649222625804</v>
       </c>
       <c r="DF5">
-        <v>0.8076237504226809</v>
+        <v>0.808007529703449</v>
       </c>
       <c r="DG5">
-        <v>0.8122144335164178</v>
+        <v>0.8125974689334767</v>
       </c>
       <c r="DH5">
-        <v>0.8132732033380368</v>
+        <v>0.8136504717525241</v>
       </c>
       <c r="DI5">
-        <v>0.8134360306613615</v>
+        <v>0.8138062578507144</v>
       </c>
       <c r="DJ5">
-        <v>0.8170114644343681</v>
+        <v>0.817379503857536</v>
       </c>
       <c r="DK5">
-        <v>0.8219630765354747</v>
+        <v>0.822330885413462</v>
       </c>
       <c r="DL5">
-        <v>0.8258571514149876</v>
+        <v>0.8262232257028455</v>
       </c>
       <c r="DM5">
-        <v>0.8341084835834711</v>
+        <v>0.8344790202364289</v>
       </c>
       <c r="DN5">
-        <v>0.8412037347283486</v>
+        <v>0.8415770895510172</v>
       </c>
       <c r="DO5">
-        <v>0.8466492958395412</v>
+        <v>0.8470231226185565</v>
       </c>
       <c r="DP5">
-        <v>0.8509733689278342</v>
+        <v>0.8513460726664799</v>
       </c>
       <c r="DQ5">
-        <v>0.8542519089947784</v>
+        <v>0.8546220027206556</v>
       </c>
       <c r="DR5">
-        <v>0.8586701240849937</v>
+        <v>0.8590392286606373</v>
       </c>
       <c r="DS5">
-        <v>0.860300340418281</v>
+        <v>0.860664490710964</v>
       </c>
       <c r="DT5">
-        <v>0.8603126237875318</v>
+        <v>0.8606695187492606</v>
       </c>
       <c r="DU5">
-        <v>0.86113138504425</v>
+        <v>0.8614821716597058</v>
       </c>
       <c r="DV5">
-        <v>0.8652523481283957</v>
+        <v>0.8656017228374547</v>
       </c>
       <c r="DW5">
-        <v>0.8760005423478624</v>
+        <v>0.876357930495855</v>
       </c>
       <c r="DX5">
-        <v>0.8812127320542897</v>
+        <v>0.8815702602543941</v>
       </c>
       <c r="DY5">
-        <v>0.8854429591406665</v>
+        <v>0.8857992308312408</v>
       </c>
       <c r="DZ5">
-        <v>0.8865988422642684</v>
+        <v>0.8869494850682337</v>
       </c>
       <c r="EA5">
-        <v>0.8868784246399772</v>
+        <v>0.887222192269556</v>
       </c>
       <c r="EB5">
-        <v>0.8875690062540782</v>
+        <v>0.887906483238416</v>
       </c>
       <c r="EC5">
-        <v>0.8899257006021994</v>
+        <v>0.8902592565112655</v>
       </c>
       <c r="ED5">
-        <v>0.8901975984577513</v>
+        <v>0.8905242682633936</v>
       </c>
       <c r="EE5">
-        <v>0.8906966635679416</v>
+        <v>0.891016770350762</v>
       </c>
       <c r="EF5">
-        <v>0.8917981344904325</v>
+        <v>0.8921125350008133</v>
       </c>
       <c r="EG5">
-        <v>0.8934415865239901</v>
+        <v>0.8937510515754173</v>
       </c>
       <c r="EH5">
-        <v>0.8935543486362926</v>
+        <v>0.8938567012591078</v>
       </c>
       <c r="EI5">
-        <v>0.8935776853487691</v>
+        <v>0.893872798360857</v>
       </c>
       <c r="EJ5">
-        <v>0.8945870178693787</v>
+        <v>0.8948762935684402</v>
       </c>
       <c r="EK5">
-        <v>0.8974486250278096</v>
+        <v>0.8977346977460045</v>
       </c>
       <c r="EL5">
-        <v>0.8988443170563082</v>
+        <v>0.8991251019476361</v>
       </c>
       <c r="EM5">
-        <v>0.8992502216645963</v>
+        <v>0.8995243110388699</v>
       </c>
       <c r="EN5">
-        <v>0.8993483699166004</v>
+        <v>0.8996153260782155</v>
       </c>
       <c r="EO5">
-        <v>0.900122925432416</v>
+        <v>0.9003837103777049</v>
       </c>
       <c r="EP5">
-        <v>0.9002795399456139</v>
+        <v>0.9005332748298186</v>
       </c>
       <c r="EQ5">
-        <v>0.9007116745544377</v>
+        <v>0.9009587512262794</v>
       </c>
       <c r="ER5">
-        <v>0.9025363771916962</v>
+        <v>0.9027787761818516</v>
       </c>
       <c r="ES5">
-        <v>0.9042443971265721</v>
+        <v>0.9044819524871904</v>
       </c>
       <c r="ET5">
-        <v>0.9042830749673619</v>
+        <v>0.9045134125356306</v>
       </c>
       <c r="EU5">
-        <v>0.9052324674867476</v>
+        <v>0.905456882494441</v>
       </c>
       <c r="EV5">
-        <v>0.9085451151543883</v>
+        <v>0.9087669686576432</v>
       </c>
       <c r="EW5">
-        <v>0.9129001192433128</v>
+        <v>0.9131208936967209</v>
       </c>
       <c r="EX5">
-        <v>0.9135498712965801</v>
+        <v>0.9137642970363469</v>
       </c>
       <c r="EY5">
-        <v>0.9135590708907679</v>
+        <v>0.9137662369137903</v>
       </c>
       <c r="EZ5">
-        <v>0.9143265194064384</v>
+        <v>0.9145275041054548</v>
       </c>
       <c r="FA5">
-        <v>0.9165052501509258</v>
+        <v>0.9167020606722229</v>
       </c>
       <c r="FB5">
-        <v>0.9172613994663655</v>
+        <v>0.9174520125937683</v>
       </c>
       <c r="FC5">
-        <v>0.9172642230066231</v>
+        <v>0.9174520125937683</v>
       </c>
       <c r="FD5">
-        <v>0.9188997471400188</v>
+        <v>0.9190825899930345</v>
       </c>
       <c r="FE5">
-        <v>0.9250502662656058</v>
+        <v>0.9252345836765969</v>
       </c>
       <c r="FF5">
-        <v>0.9314261583957948</v>
+        <v>0.9316122708935541</v>
       </c>
       <c r="FG5">
-        <v>0.9339906280481586</v>
+        <v>0.9341731149717315</v>
       </c>
       <c r="FH5">
-        <v>0.9340067245344873</v>
+        <v>0.934181961550177</v>
       </c>
       <c r="FI5">
-        <v>0.9356477384679951</v>
+        <v>0.9358180365572295</v>
       </c>
       <c r="FJ5">
-        <v>0.940120544259325</v>
+        <v>0.9402899308380218</v>
       </c>
       <c r="FK5">
-        <v>0.9442811603442803</v>
+        <v>0.9444491914116598</v>
       </c>
       <c r="FL5">
-        <v>0.9475241269104983</v>
+        <v>0.9476894973719546</v>
       </c>
       <c r="FM5">
-        <v>0.9514182017900111</v>
+        <v>0.9515818376613381</v>
       </c>
       <c r="FN5">
-        <v>0.9577410775191175</v>
+        <v>0.9579064330765095</v>
       </c>
       <c r="FO5">
-        <v>0.9604523678744792</v>
+        <v>0.9606143066682421</v>
       </c>
       <c r="FP5">
-        <v>0.9612031428898092</v>
+        <v>0.9613588766462693</v>
       </c>
       <c r="FQ5">
-        <v>0.9613791736934036</v>
+        <v>0.9615278850029124</v>
       </c>
       <c r="FR5">
-        <v>0.9613871423115663</v>
+        <v>0.9615285921536186</v>
       </c>
       <c r="FS5">
-        <v>0.9629332252431356</v>
+        <v>0.9630696011464694</v>
       </c>
       <c r="FT5">
-        <v>0.9668055381222042</v>
+        <v>0.9669401484851723</v>
       </c>
       <c r="FU5">
-        <v>0.971785220823884</v>
+        <v>0.9719196405640913</v>
       </c>
       <c r="FV5">
-        <v>0.9754780156992869</v>
+        <v>0.9756104145859906</v>
       </c>
       <c r="FW5">
-        <v>0.9769351332290397</v>
+        <v>0.9770623316491254</v>
       </c>
       <c r="FX5">
-        <v>0.9777077085148148</v>
+        <v>0.9778287329022621</v>
       </c>
       <c r="FY5">
-        <v>0.978149659063839</v>
+        <v>0.9782640391992976</v>
       </c>
       <c r="FZ5">
-        <v>0.9781853398985676</v>
+        <v>0.9782924979792905</v>
       </c>
       <c r="GA5">
-        <v>0.9783254828814292</v>
+        <v>0.9784255674750159</v>
       </c>
       <c r="GB5">
-        <v>0.9791345958979504</v>
+        <v>0.9792285584233953</v>
       </c>
       <c r="GC5">
-        <v>0.9798053860116472</v>
+        <v>0.979893029744089</v>
       </c>
       <c r="GD5">
-        <v>0.9800413909964663</v>
+        <v>0.980122097578117</v>
       </c>
       <c r="GE5">
-        <v>0.9801742561091792</v>
+        <v>0.980247878853</v>
       </c>
       <c r="GF5">
-        <v>0.9804562244749366</v>
+        <v>0.9805229754377611</v>
       </c>
       <c r="GG5">
-        <v>0.9827374933215177</v>
+        <v>0.9828002159378157</v>
       </c>
       <c r="GH5">
-        <v>0.9881830544327103</v>
+        <v>0.9882462490053551</v>
       </c>
       <c r="GI5">
-        <v>0.9925293945214579</v>
+        <v>0.9925914977221878</v>
       </c>
       <c r="GJ5">
-        <v>0.9947911519676407</v>
+        <v>0.9948491990724442</v>
       </c>
       <c r="GK5">
-        <v>0.9961217889948109</v>
+        <v>0.9961744557505703</v>
       </c>
       <c r="GL5">
-        <v>0.9964244476809908</v>
+        <v>0.996470272081831</v>
       </c>
       <c r="GM5">
-        <v>0.9964737772339981</v>
+        <v>0.99651239899151</v>
       </c>
       <c r="GN5">
-        <v>0.9970271283152969</v>
+        <v>0.9970592642562912</v>
       </c>
       <c r="GO5">
-        <v>0.9970588833159454</v>
+        <v>0.9970837916188252</v>
       </c>
       <c r="GP5">
-        <v>0.9970720801202149</v>
+        <v>0.9970897343912412</v>
       </c>
       <c r="GQ5">
-        <v>0.9972759042443767</v>
+        <v>0.99728657559652</v>
       </c>
       <c r="GR5">
-        <v>0.9989301975781556</v>
+        <v>0.9989359488900016</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0002394125313847346</v>
+        <v>0.0001753420775827942</v>
       </c>
       <c r="C6">
-        <v>0.0004415035609947275</v>
+        <v>0.0003129032047820403</v>
       </c>
       <c r="D6">
-        <v>0.0007020910033863882</v>
+        <v>0.0005096808683966417</v>
       </c>
       <c r="E6">
-        <v>0.0007978401479395276</v>
+        <v>0.000539590982320076</v>
       </c>
       <c r="F6">
-        <v>0.0008640429110876539</v>
+        <v>0.000539590982320076</v>
       </c>
       <c r="G6">
-        <v>0.0008948476585525057</v>
+        <v>0.000539590982320076</v>
       </c>
       <c r="H6">
-        <v>0.00089712185216065</v>
+        <v>0.000539590982320076</v>
       </c>
       <c r="I6">
-        <v>0.0009966810768949693</v>
+        <v>0.0005733580806476031</v>
       </c>
       <c r="J6">
-        <v>0.001220634597544585</v>
+        <v>0.000733050838407004</v>
       </c>
       <c r="K6">
-        <v>0.001303670441493171</v>
+        <v>0.0007500911438685288</v>
       </c>
       <c r="L6">
-        <v>0.001347343065569926</v>
+        <v>0.0007500911438685288</v>
       </c>
       <c r="M6">
-        <v>0.001393641597771551</v>
+        <v>0.0007500911438685288</v>
       </c>
       <c r="N6">
-        <v>0.001517333393653441</v>
+        <v>0.0008082878988228662</v>
       </c>
       <c r="O6">
-        <v>0.001696587022177452</v>
+        <v>0.000922730483726405</v>
       </c>
       <c r="P6">
-        <v>0.001782654656270208</v>
+        <v>0.0009428399023683576</v>
       </c>
       <c r="Q6">
-        <v>0.00199624529642704</v>
+        <v>0.001092042206766809</v>
       </c>
       <c r="R6">
-        <v>0.002302851201007007</v>
+        <v>0.00133540484563662</v>
       </c>
       <c r="S6">
-        <v>0.002377651564563973</v>
+        <v>0.001344108287326198</v>
       </c>
       <c r="T6">
-        <v>0.002411948211194874</v>
+        <v>0.001344108287326198</v>
       </c>
       <c r="U6">
-        <v>0.002471886269045096</v>
+        <v>0.001344108287326198</v>
       </c>
       <c r="V6">
-        <v>0.002491641494984513</v>
+        <v>0.001344108287326198</v>
       </c>
       <c r="W6">
-        <v>0.002512889439994912</v>
+        <v>0.001344108287326198</v>
       </c>
       <c r="X6">
-        <v>0.002514814271886443</v>
+        <v>0.001344108287326198</v>
       </c>
       <c r="Y6">
-        <v>0.002514814860721971</v>
+        <v>0.001344108287326198</v>
       </c>
       <c r="Z6">
-        <v>0.002514818244020132</v>
+        <v>0.001344108287326198</v>
       </c>
       <c r="AA6">
-        <v>0.00253754346210078</v>
+        <v>0.001344108287326198</v>
       </c>
       <c r="AB6">
-        <v>0.002663836428106363</v>
+        <v>0.001404938234266634</v>
       </c>
       <c r="AC6">
-        <v>0.002780589767658311</v>
+        <v>0.001456111116603996</v>
       </c>
       <c r="AD6">
-        <v>0.002824711602756427</v>
+        <v>0.001456111116603996</v>
       </c>
       <c r="AE6">
-        <v>0.002881081123436955</v>
+        <v>0.001456111116603996</v>
       </c>
       <c r="AF6">
-        <v>0.002935153666008256</v>
+        <v>0.001456111116603996</v>
       </c>
       <c r="AG6">
-        <v>0.002990445318637528</v>
+        <v>0.001456111116603996</v>
       </c>
       <c r="AH6">
-        <v>0.003151427896292699</v>
+        <v>0.001552057723759982</v>
       </c>
       <c r="AI6">
-        <v>0.01236521433443398</v>
+        <v>0.01081225328181137</v>
       </c>
       <c r="AJ6">
-        <v>0.01471820244632514</v>
+        <v>0.01312719024014021</v>
       </c>
       <c r="AK6">
-        <v>0.01471972229889741</v>
+        <v>0.01312719024014021</v>
       </c>
       <c r="AL6">
-        <v>0.01564284044279425</v>
+        <v>0.01399465472960182</v>
       </c>
       <c r="AM6">
-        <v>0.01810780056000999</v>
+        <v>0.01642294213141086</v>
       </c>
       <c r="AN6">
-        <v>0.05314263722601434</v>
+        <v>0.05182205952058268</v>
       </c>
       <c r="AO6">
-        <v>0.06174902863527229</v>
+        <v>0.06046738267644727</v>
       </c>
       <c r="AP6">
-        <v>0.06351611211930204</v>
+        <v>0.06218920219249505</v>
       </c>
       <c r="AQ6">
-        <v>0.06362278534437465</v>
+        <v>0.06223017086849305</v>
       </c>
       <c r="AR6">
-        <v>0.07699667498034046</v>
+        <v>0.07570168282683513</v>
       </c>
       <c r="AS6">
-        <v>0.07733131872625371</v>
+        <v>0.0759734284685827</v>
       </c>
       <c r="AT6">
-        <v>0.124571935972677</v>
+        <v>0.1237285864395238</v>
       </c>
       <c r="AU6">
-        <v>0.1728574262687869</v>
+        <v>0.1725414804331357</v>
       </c>
       <c r="AV6">
-        <v>0.1789571485588458</v>
+        <v>0.178649275967737</v>
       </c>
       <c r="AW6">
-        <v>0.1840584968014291</v>
+        <v>0.1837464069106626</v>
       </c>
       <c r="AX6">
-        <v>0.1886520970198677</v>
+        <v>0.188329539166629</v>
       </c>
       <c r="AY6">
-        <v>0.1976255674465812</v>
+        <v>0.1973464602884339</v>
       </c>
       <c r="AZ6">
-        <v>0.2276929528763694</v>
+        <v>0.2277169743319818</v>
       </c>
       <c r="BA6">
-        <v>0.2441588396593683</v>
+        <v>0.2443185476555712</v>
       </c>
       <c r="BB6">
-        <v>0.2445710332989693</v>
+        <v>0.2446687978736713</v>
       </c>
       <c r="BC6">
-        <v>0.2448301955612932</v>
+        <v>0.2448641328124525</v>
       </c>
       <c r="BD6">
-        <v>0.2612458763419046</v>
+        <v>0.2614148820696203</v>
       </c>
       <c r="BE6">
-        <v>0.2628868320199366</v>
+        <v>0.2630090210756729</v>
       </c>
       <c r="BF6">
-        <v>0.2702198333686413</v>
+        <v>0.2703652780254925</v>
       </c>
       <c r="BG6">
-        <v>0.2713072817203525</v>
+        <v>0.2713990957197481</v>
       </c>
       <c r="BH6">
-        <v>0.2895285455868245</v>
+        <v>0.2897776558027503</v>
       </c>
       <c r="BI6">
-        <v>0.2910083724571944</v>
+        <v>0.2912086824151917</v>
       </c>
       <c r="BJ6">
-        <v>0.2923154194193481</v>
+        <v>0.2924648021018885</v>
       </c>
       <c r="BK6">
-        <v>0.2950237770481381</v>
+        <v>0.2951394833750848</v>
       </c>
       <c r="BL6">
-        <v>0.295888371039252</v>
+        <v>0.2959477032466348</v>
       </c>
       <c r="BM6">
-        <v>0.2982916069535326</v>
+        <v>0.2983135065859687</v>
       </c>
       <c r="BN6">
-        <v>0.301915966725881</v>
+        <v>0.3019154665026099</v>
       </c>
       <c r="BO6">
-        <v>0.3030268426787063</v>
+        <v>0.3029730002048824</v>
       </c>
       <c r="BP6">
-        <v>0.3120673761086089</v>
+        <v>0.3120578099130403</v>
       </c>
       <c r="BQ6">
-        <v>0.3269805318177711</v>
+        <v>0.3270875371728328</v>
       </c>
       <c r="BR6">
-        <v>0.3307237122957698</v>
+        <v>0.3308097805446202</v>
       </c>
       <c r="BS6">
-        <v>0.3334654187261456</v>
+        <v>0.3335182211618448</v>
       </c>
       <c r="BT6">
-        <v>0.3407843083741792</v>
+        <v>0.3408601926880472</v>
       </c>
       <c r="BU6">
-        <v>0.3465867666501023</v>
+        <v>0.3466670647218564</v>
       </c>
       <c r="BV6">
-        <v>0.3466561438134014</v>
+        <v>0.3466702782006527</v>
       </c>
       <c r="BW6">
-        <v>0.350618952301844</v>
+        <v>0.3506148533268132</v>
       </c>
       <c r="BX6">
-        <v>0.3567552809936436</v>
+        <v>0.3567597059084817</v>
       </c>
       <c r="BY6">
-        <v>0.3660517624357172</v>
+        <v>0.3661036144923216</v>
       </c>
       <c r="BZ6">
-        <v>0.3780723200073283</v>
+        <v>0.3782051341099361</v>
       </c>
       <c r="CA6">
-        <v>0.3931867547260619</v>
+        <v>0.3934386182367423</v>
       </c>
       <c r="CB6">
-        <v>0.3995709135296465</v>
+        <v>0.3998343518578023</v>
       </c>
       <c r="CC6">
-        <v>0.4086265619602679</v>
+        <v>0.4089344626408111</v>
       </c>
       <c r="CD6">
-        <v>0.4217655545850637</v>
+        <v>0.4221681858740954</v>
       </c>
       <c r="CE6">
-        <v>0.4239803920903853</v>
+        <v>0.4243432715144425</v>
       </c>
       <c r="CF6">
-        <v>0.4248614243322809</v>
+        <v>0.4251681320008563</v>
       </c>
       <c r="CG6">
-        <v>0.4256102011678873</v>
+        <v>0.4258591089427889</v>
       </c>
       <c r="CH6">
-        <v>0.4259655118847834</v>
+        <v>0.4261517759775176</v>
       </c>
       <c r="CI6">
-        <v>0.4259781018673821</v>
+        <v>0.4261517759775176</v>
       </c>
       <c r="CJ6">
-        <v>0.4322872165673981</v>
+        <v>0.4324715416600254</v>
       </c>
       <c r="CK6">
-        <v>0.4405553369605703</v>
+        <v>0.4407744294939658</v>
       </c>
       <c r="CL6">
-        <v>0.4462920512333671</v>
+        <v>0.4465147481791149</v>
       </c>
       <c r="CM6">
-        <v>0.4508438448498175</v>
+        <v>0.4510555591703866</v>
       </c>
       <c r="CN6">
-        <v>0.4598022682758156</v>
+        <v>0.4600572480544621</v>
       </c>
       <c r="CO6">
-        <v>0.4737549519393047</v>
+        <v>0.4741146793192708</v>
       </c>
       <c r="CP6">
-        <v>0.4896319706943013</v>
+        <v>0.4901201353193213</v>
       </c>
       <c r="CQ6">
-        <v>0.5007924827250148</v>
+        <v>0.5013510217532992</v>
       </c>
       <c r="CR6">
-        <v>0.5052378485364043</v>
+        <v>0.5057840947535676</v>
       </c>
       <c r="CS6">
-        <v>0.5056529761361448</v>
+        <v>0.5061373150505012</v>
       </c>
       <c r="CT6">
-        <v>0.5195223167956707</v>
+        <v>0.520110377312247</v>
       </c>
       <c r="CU6">
-        <v>0.5582160256356646</v>
+        <v>0.5592134096429874</v>
       </c>
       <c r="CV6">
-        <v>0.6167169404175465</v>
+        <v>0.6183674857244281</v>
       </c>
       <c r="CW6">
-        <v>0.6580150223813857</v>
+        <v>0.6601069524721468</v>
       </c>
       <c r="CX6">
-        <v>0.673013138094588</v>
+        <v>0.6752226856412566</v>
       </c>
       <c r="CY6">
-        <v>0.6765950807649194</v>
+        <v>0.6787817062775764</v>
       </c>
       <c r="CZ6">
-        <v>0.6768480730069498</v>
+        <v>0.6789707952396556</v>
       </c>
       <c r="DA6">
-        <v>0.6818717082458378</v>
+        <v>0.6839892564882454</v>
       </c>
       <c r="DB6">
-        <v>0.6900818406362524</v>
+        <v>0.6922334424546071</v>
       </c>
       <c r="DC6">
-        <v>0.699746081095814</v>
+        <v>0.7019496373756012</v>
       </c>
       <c r="DD6">
-        <v>0.7169560999141985</v>
+        <v>0.7193045034170827</v>
       </c>
       <c r="DE6">
-        <v>0.7371569828748069</v>
+        <v>0.7396870528150195</v>
       </c>
       <c r="DF6">
-        <v>0.7612169840189271</v>
+        <v>0.7639762283046796</v>
       </c>
       <c r="DG6">
-        <v>0.7732133525893879</v>
+        <v>0.7760532611409795</v>
       </c>
       <c r="DH6">
-        <v>0.7761975917312969</v>
+        <v>0.7790072201833769</v>
       </c>
       <c r="DI6">
-        <v>0.7771136543748582</v>
+        <v>0.7798675423153386</v>
       </c>
       <c r="DJ6">
-        <v>0.7790254041657673</v>
+        <v>0.7817358090616014</v>
       </c>
       <c r="DK6">
-        <v>0.7794566405862737</v>
+        <v>0.7821053364879151</v>
       </c>
       <c r="DL6">
-        <v>0.7803071794267192</v>
+        <v>0.7828993281820129</v>
       </c>
       <c r="DM6">
-        <v>0.7853699046674659</v>
+        <v>0.7879573606522977</v>
       </c>
       <c r="DN6">
-        <v>0.7942985310920471</v>
+        <v>0.7969288857171649</v>
       </c>
       <c r="DO6">
-        <v>0.8036706705377185</v>
+        <v>0.8063493836970398</v>
       </c>
       <c r="DP6">
-        <v>0.8160462821262133</v>
+        <v>0.8188103282455246</v>
       </c>
       <c r="DQ6">
-        <v>0.8257708085886417</v>
+        <v>0.8285875513238764</v>
       </c>
       <c r="DR6">
-        <v>0.8356893540602962</v>
+        <v>0.8385611818942226</v>
       </c>
       <c r="DS6">
-        <v>0.8411146641182848</v>
+        <v>0.8439862628041099</v>
       </c>
       <c r="DT6">
-        <v>0.8436032131366223</v>
+        <v>0.8464384294996371</v>
       </c>
       <c r="DU6">
-        <v>0.8436432860645279</v>
+        <v>0.8464384294996371</v>
       </c>
       <c r="DV6">
-        <v>0.8491452006261593</v>
+        <v>0.8519410579575506</v>
       </c>
       <c r="DW6">
-        <v>0.8638677063262555</v>
+        <v>0.8667777881997896</v>
       </c>
       <c r="DX6">
-        <v>0.8718111507039885</v>
+        <v>0.8747520030745314</v>
       </c>
       <c r="DY6">
-        <v>0.8789757164446836</v>
+        <v>0.881937750879584</v>
       </c>
       <c r="DZ6">
-        <v>0.8840947426881076</v>
+        <v>0.8870527774494507</v>
       </c>
       <c r="EA6">
-        <v>0.8851260473371491</v>
+        <v>0.8880297602805831</v>
       </c>
       <c r="EB6">
-        <v>0.8853619651783676</v>
+        <v>0.8882015646464047</v>
       </c>
       <c r="EC6">
-        <v>0.8855279540562608</v>
+        <v>0.8883025791841611</v>
       </c>
       <c r="ED6">
-        <v>0.8856829789336327</v>
+        <v>0.8883924947484035</v>
       </c>
       <c r="EE6">
-        <v>0.8863688494662477</v>
+        <v>0.8890197909754904</v>
       </c>
       <c r="EF6">
-        <v>0.8885251985687882</v>
+        <v>0.8911356681880301</v>
       </c>
       <c r="EG6">
-        <v>0.892321521449314</v>
+        <v>0.8949117081751106</v>
       </c>
       <c r="EH6">
-        <v>0.893076514085216</v>
+        <v>0.8956089774373249</v>
       </c>
       <c r="EI6">
-        <v>0.8932153092918161</v>
+        <v>0.8956824635344502</v>
       </c>
       <c r="EJ6">
-        <v>0.8935764707089904</v>
+        <v>0.8959810532948574</v>
       </c>
       <c r="EK6">
-        <v>0.8950865756808001</v>
+        <v>0.8974427307491408</v>
       </c>
       <c r="EL6">
-        <v>0.8971163285773205</v>
+        <v>0.8994304532853962</v>
       </c>
       <c r="EM6">
-        <v>0.9003635981317373</v>
+        <v>0.9026506807921308</v>
       </c>
       <c r="EN6">
-        <v>0.9017659822984245</v>
+        <v>0.9040033113377939</v>
       </c>
       <c r="EO6">
-        <v>0.9019220352258452</v>
+        <v>0.9040942676079575</v>
       </c>
       <c r="EP6">
-        <v>0.9021531381168348</v>
+        <v>0.9042611977488136</v>
       </c>
       <c r="EQ6">
-        <v>0.9037683168936411</v>
+        <v>0.9058292425255362</v>
       </c>
       <c r="ER6">
-        <v>0.9071102135525576</v>
+        <v>0.9091452620494739</v>
       </c>
       <c r="ES6">
-        <v>0.9111420763442839</v>
+        <v>0.9131597415761025</v>
       </c>
       <c r="ET6">
-        <v>0.9138095242711285</v>
+        <v>0.915793009525989</v>
       </c>
       <c r="EU6">
-        <v>0.9138099370855681</v>
+        <v>0.915793009525989</v>
       </c>
       <c r="EV6">
-        <v>0.9156842884746987</v>
+        <v>0.9176234174751825</v>
       </c>
       <c r="EW6">
-        <v>0.9195828703600872</v>
+        <v>0.9215029753328006</v>
       </c>
       <c r="EX6">
-        <v>0.9209939810271894</v>
+        <v>0.9228644398069906</v>
       </c>
       <c r="EY6">
-        <v>0.921090538481781</v>
+        <v>0.9228951681817021</v>
       </c>
       <c r="EZ6">
-        <v>0.9211707813755968</v>
+        <v>0.922909381154249</v>
       </c>
       <c r="FA6">
-        <v>0.9218749660090828</v>
+        <v>0.9235552169390552</v>
       </c>
       <c r="FB6">
-        <v>0.9219277895875947</v>
+        <v>0.9235552169390552</v>
       </c>
       <c r="FC6">
-        <v>0.9220722968944665</v>
+        <v>0.9236344854556086</v>
       </c>
       <c r="FD6">
-        <v>0.9229026962739543</v>
+        <v>0.9244080897606943</v>
       </c>
       <c r="FE6">
-        <v>0.9288250722555798</v>
+        <v>0.9303363557543874</v>
       </c>
       <c r="FF6">
-        <v>0.9397301647741474</v>
+        <v>0.9413086783188399</v>
       </c>
       <c r="FG6">
-        <v>0.9483734731851609</v>
+        <v>0.9499913729454468</v>
       </c>
       <c r="FH6">
-        <v>0.9506471690932814</v>
+        <v>0.9522260415685264</v>
       </c>
       <c r="FI6">
-        <v>0.9508002220005595</v>
+        <v>0.9523139608866177</v>
       </c>
       <c r="FJ6">
-        <v>0.9509562749279802</v>
+        <v>0.9524049171567813</v>
       </c>
       <c r="FK6">
-        <v>0.9519847425768867</v>
+        <v>0.9533790280627169</v>
       </c>
       <c r="FL6">
-        <v>0.9530204927261395</v>
+        <v>0.9543605111206604</v>
       </c>
       <c r="FM6">
-        <v>0.9545034921966603</v>
+        <v>0.9557947493897391</v>
       </c>
       <c r="FN6">
-        <v>0.9590869159146149</v>
+        <v>0.9603675798667959</v>
       </c>
       <c r="FO6">
-        <v>0.965769217632377</v>
+        <v>0.9670651267084421</v>
       </c>
       <c r="FP6">
-        <v>0.9700077972339333</v>
+        <v>0.9712888678447125</v>
       </c>
       <c r="FQ6">
-        <v>0.9729323451730036</v>
+        <v>0.9741824008521023</v>
       </c>
       <c r="FR6">
-        <v>0.9743109075385581</v>
+        <v>0.9755109163369063</v>
       </c>
       <c r="FS6">
-        <v>0.9743176689308796</v>
+        <v>0.9755109163369063</v>
       </c>
       <c r="FT6">
-        <v>0.9745463627417545</v>
+        <v>0.9756754077405212</v>
       </c>
       <c r="FU6">
-        <v>0.9753678781808199</v>
+        <v>0.9764400187388976</v>
       </c>
       <c r="FV6">
-        <v>0.9767875172483277</v>
+        <v>0.9778101166028832</v>
       </c>
       <c r="FW6">
-        <v>0.9777225701927921</v>
+        <v>0.9786896628169978</v>
       </c>
       <c r="FX6">
-        <v>0.977997317055857</v>
+        <v>0.9789007742116917</v>
       </c>
       <c r="FY6">
-        <v>0.9780070418253195</v>
+        <v>0.9789007742116917</v>
       </c>
       <c r="FZ6">
-        <v>0.978007073804075</v>
+        <v>0.9789007742116917</v>
       </c>
       <c r="GA6">
-        <v>0.9781044429687052</v>
+        <v>0.9789323242890475</v>
       </c>
       <c r="GB6">
-        <v>0.9785196923384515</v>
+        <v>0.979285667855044</v>
       </c>
       <c r="GC6">
-        <v>0.9786539822048373</v>
+        <v>0.9793545931486913</v>
       </c>
       <c r="GD6">
-        <v>0.9786554021320049</v>
+        <v>0.9793545931486913</v>
       </c>
       <c r="GE6">
-        <v>0.9786788202361184</v>
+        <v>0.9793545931486913</v>
       </c>
       <c r="GF6">
-        <v>0.9787731049706019</v>
+        <v>0.9793830208248362</v>
       </c>
       <c r="GG6">
-        <v>0.9797766118183214</v>
+        <v>0.9803318636481294</v>
       </c>
       <c r="GH6">
-        <v>0.983204834581343</v>
+        <v>0.983735271998907</v>
       </c>
       <c r="GI6">
-        <v>0.98672170644858</v>
+        <v>0.9872284207740685</v>
       </c>
       <c r="GJ6">
-        <v>0.9883685109268902</v>
+        <v>0.9888284805824094</v>
       </c>
       <c r="GK6">
-        <v>0.988919642253098</v>
+        <v>0.9893193788879251</v>
       </c>
       <c r="GL6">
-        <v>0.9890548890795294</v>
+        <v>0.9893892729223326</v>
       </c>
       <c r="GM6">
-        <v>0.9900462188266699</v>
+        <v>0.9903257887381123</v>
       </c>
       <c r="GN6">
-        <v>0.991558959798605</v>
+        <v>0.9917901346431603</v>
       </c>
       <c r="GO6">
-        <v>0.9931209889728838</v>
+        <v>0.9933043755159534</v>
       </c>
       <c r="GP6">
-        <v>0.9950565008649228</v>
+        <v>0.9951966968881318</v>
       </c>
       <c r="GQ6">
-        <v>0.9965540511361355</v>
+        <v>0.9966456650864159</v>
       </c>
       <c r="GR6">
-        <v>0.9979736902036432</v>
+        <v>0.9980157629504015</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>0.007460579820718383</v>
+        <v>0.006877190245744414</v>
       </c>
       <c r="F2">
-        <v>0.509174095312277</v>
+        <v>0.5088636995104447</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>133</v>
       </c>
       <c r="E3">
-        <v>0.01037312888609691</v>
+        <v>0.0253386090178298</v>
       </c>
       <c r="F3">
-        <v>0.510378690937853</v>
+        <v>0.5102924147987561</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>97</v>
       </c>
       <c r="E4">
-        <v>0.0169815007156006</v>
+        <v>0.0831557459707478</v>
       </c>
       <c r="F4">
-        <v>0.5228154233765387</v>
+        <v>0.5234815319699165</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>92</v>
       </c>
       <c r="E5">
-        <v>0.005888959148646303</v>
+        <v>0.005691358612015463</v>
       </c>
       <c r="F5">
-        <v>0.502613559364696</v>
+        <v>0.5026871862870074</v>
       </c>
       <c r="G5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>94</v>
       </c>
       <c r="E6">
-        <v>0.06351611211930204</v>
+        <v>0.07570168282683513</v>
       </c>
       <c r="F6">
-        <v>0.5007924827250148</v>
+        <v>0.5013510217532992</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>156</v>
       </c>
       <c r="E2">
-        <v>0.007460579820718383</v>
+        <v>0.006877190245744414</v>
       </c>
       <c r="F2">
-        <v>0.742645824479327</v>
+        <v>0.7425902991767238</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>156</v>
       </c>
       <c r="E3">
-        <v>0.01037312888609691</v>
+        <v>0.0253386090178298</v>
       </c>
       <c r="F3">
-        <v>0.7399613164462182</v>
+        <v>0.7399383546548977</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>0.0169815007156006</v>
+        <v>0.0831557459707478</v>
       </c>
       <c r="F4">
-        <v>0.7206540688222011</v>
+        <v>0.7025093625631808</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5">
-        <v>0.005888959148646303</v>
+        <v>0.005691358612015463</v>
       </c>
       <c r="F5">
-        <v>0.7040058172069124</v>
+        <v>0.7043076847480519</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.06351611211930204</v>
+        <v>0.07570168282683513</v>
       </c>
       <c r="F6">
-        <v>0.7169560999141985</v>
+        <v>0.7019496373756012</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.007460579820718383</v>
+        <v>0.006877190245744414</v>
       </c>
       <c r="F2">
-        <v>0.8011505485200328</v>
+        <v>0.8011488276671481</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>0.01037312888609691</v>
+        <v>0.0253386090178298</v>
       </c>
       <c r="F3">
-        <v>0.8028040097705685</v>
+        <v>0.8028115069086857</v>
       </c>
       <c r="G3">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>115</v>
       </c>
       <c r="E4">
-        <v>0.0169815007156006</v>
+        <v>0.0831557459707478</v>
       </c>
       <c r="F4">
-        <v>0.8043906446824315</v>
+        <v>0.8095120791574436</v>
       </c>
       <c r="G4">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>109</v>
       </c>
       <c r="E5">
-        <v>0.005888959148646303</v>
+        <v>0.005691358612015463</v>
       </c>
       <c r="F5">
-        <v>0.8076237504226809</v>
+        <v>0.808007529703449</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>118</v>
       </c>
       <c r="E6">
-        <v>0.06351611211930204</v>
+        <v>0.07570168282683513</v>
       </c>
       <c r="F6">
-        <v>0.8036706705377185</v>
+        <v>0.8063493836970398</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>172</v>
       </c>
       <c r="E2">
-        <v>0.007460579820718383</v>
+        <v>0.006877190245744414</v>
       </c>
       <c r="F2">
-        <v>0.9041215076861644</v>
+        <v>0.9042205427230938</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>166</v>
       </c>
       <c r="E3">
-        <v>0.01037312888609691</v>
+        <v>0.0253386090178298</v>
       </c>
       <c r="F3">
-        <v>0.9058154855238508</v>
+        <v>0.9058584810060923</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4">
-        <v>0.0169815007156006</v>
+        <v>0.0831557459707478</v>
       </c>
       <c r="F4">
-        <v>0.9016503871375742</v>
+        <v>0.9022279897507554</v>
       </c>
       <c r="G4">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>144</v>
       </c>
       <c r="E5">
-        <v>0.005888959148646303</v>
+        <v>0.005691358612015463</v>
       </c>
       <c r="F5">
-        <v>0.900122925432416</v>
+        <v>0.9003837103777049</v>
       </c>
       <c r="G5">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>142</v>
       </c>
       <c r="E6">
-        <v>0.06351611211930204</v>
+        <v>0.07570168282683513</v>
       </c>
       <c r="F6">
-        <v>0.9003635981317373</v>
+        <v>0.9026506807921308</v>
       </c>
       <c r="G6">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H6">
         <v>27</v>

--- a/on_trucks/Processed_Stand_Alone/27_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/27_11R22.xlsx
@@ -1994,31 +1994,31 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.012643461731851E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.646176802890383E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.531788384429265E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.33366141623313E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.157377944549986E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.199924173247287E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.717994632093763E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.119047840148611E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2030,19 +2030,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.218450933621822E-07</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.10850127891207E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.976308674069138E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.753621653855598E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.042440570430394E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -2057,40 +2057,40 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>4.44086889792452E-06</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>4.455316645303166E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>8.569385984703793E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>8.991539573695439E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>9.606988461111349E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>7.522375463066977E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>8.32911058184094E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>8.834957996899995E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>7.584750732794987E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0001031222310683195</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0001290499079067186</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>4.079012471833644E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -2105,40 +2105,40 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.286218563781999E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>6.551489043684607E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>3.869341723675632E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0001045164735108478</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0001484178054189532</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0002102258368549372</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0001484178054189532</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0001419900934440738</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0001625532405665778</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0001305942241519934</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>8.52152509724715E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>6.847527330455054E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -2153,445 +2153,445 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>1.614426172700625E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>4.707866295607847E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>7.921224876119019E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0001434261605546041</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0001414871052170281</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0001688492258798491</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.000136285775876731</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0001829100399679122</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0002534656395927469</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.000144539704764086</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0001014565290951639</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>6.811309512712053E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0001024068629087632</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>9.423916358070144E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>1.717994632093763E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>7.790501245001309E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0001091271671945323</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0001346134805562958</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0001324628769698327</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0002914107539984595</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0003020045596284555</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0002883069006955729</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0003633160158195504</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.000279853898813682</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0002179432296023404</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0001081489870099754</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>4.1083065735131E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>3.932515008870741E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.614426172700625E-06</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>2.172685287679122E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>4.913961405402232E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0001024068629087632</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0001133740143233977</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.000112378629310149</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0006149136889839546</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.08213186403578834</v>
+        <v>0.2857613066153818</v>
       </c>
       <c r="CO2">
-        <v>0.001491131916279355</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.05435285444151479</v>
+        <v>0.1333440931766633</v>
       </c>
       <c r="CQ2">
-        <v>0.01952682918145283</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>7.275126944137403E-05</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>8.569385984703793E-05</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.002749224943974227</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0001526811559565869</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.001003748178268754</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.005589463997873654</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.0004569010652405745</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.009510931442545688</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.07836678217114459</v>
+        <v>0.2651031444073255</v>
       </c>
       <c r="DA2">
-        <v>0.02543750048213608</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.0004993514499154897</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.006990057296793859</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.0116154767907552</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.007955432559635498</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.02303018521994874</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.01437245890299662</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0003715841835313497</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.002137445685191676</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0008287344181794153</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.0004055606740309423</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.009903134400809607</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.0117364196220558</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>6.302939891811419E-05</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.001415792001499234</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.0004120599909597128</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.001047688629368014</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.008128469848644492</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.01021563501318145</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.001564855759556041</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.002112813520931448</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.0111124114075179</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.01828124667951112</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.00477888209183426</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.002649264488464037</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.008205358498615404</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>2.929746548900231E-05</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.01469085044069628</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.0217180299510519</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.005173549639303195</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.001397948379663035</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.01760021302520357</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.01702887042459738</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.002629475728977498</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0007539752991364101</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.0004357666316310582</v>
+        <v>0</v>
       </c>
       <c r="EK2">
         <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.001828152766332228</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.006332620110128263</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.003704231116088747</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.00359996103636655</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.00133007227428745</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.001253364690859612</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.002152176405407976</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.005300268162658487</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0108170580072012</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.01396000194343128</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.00672522788789081</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.0001171423828413966</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.008132144287014465</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.03254118787164708</v>
+        <v>0.01366835643913014</v>
       </c>
       <c r="EZ2">
-        <v>0.05170437397519038</v>
+        <v>0.1188124731362116</v>
       </c>
       <c r="FA2">
-        <v>0.0633805286645909</v>
+        <v>0.182876922784723</v>
       </c>
       <c r="FB2">
-        <v>0.03012908792355391</v>
+        <v>0.0004337034405644292</v>
       </c>
       <c r="FC2">
-        <v>0.003104393631704347</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>8.834957996899995E-05</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.008682629665185146</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.009779165443553908</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.006774902246457894</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.01116675391608068</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.02763164621338482</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.02485548026623933</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.01842983046593466</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.005048933772472461</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.001598787248957408</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.0004073889350814802</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.004008650869929187</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0047941016015343</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.005130141766331461</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.008765901236458689</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.01230578722456349</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.006750631313458201</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.007357967778446152</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.005785077990158874</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.006582422699404504</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.002306582277803985</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>7.007718614581831E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0002096207820087571</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.003989069229725733</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.01285606919095639</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.005944891208946957</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.005841735685482988</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.004274168772588441</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0001261542660979408</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0002016612691240927</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.000391976194212837</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>2.218450933621822E-07</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.00134898325684132</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.001681513616544804</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.003621505449921274</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.00105279045728204</v>
+        <v>0</v>
       </c>
       <c r="GN2">
         <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.000189448245621291</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.00185204503277615</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001546100191616621</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.00068034675878674</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>4.670811683896271E-05</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>9.937496186170261E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001241438670292113</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2779,187 +2779,187 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>7.950554004910344E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.228726598901819E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001249061203425749</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.000154149727919731</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0004467830484054115</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0004610413607936682</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001993041689628652</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>6.930680073844342E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5.313844550225097E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>9.68963203265897E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0001993041689628652</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.200213812743179E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>2.779194441492986E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2.087967125622949E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>4.010790316385271E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>6.319351435665471E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>5.726461721246237E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1.77289939767331E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>5.910688264222205E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0001093350484760758</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0001326906677008864</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0001389322677076635</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0002180139202311022</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0002895213877393354</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0003051610735104966</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0003075767384194913</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0001087119620997995</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>8.557799778565714E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.06250039007114E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>4.126493997648196E-06</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>9.320448822079159E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>9.262791789744839E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>8.473777912899626E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>9.926379220735144E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>6.682518147153311E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>9.186184636347359E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0001300612184586153</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0001334780856495674</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0002829944918093762</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0003249065871602481</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0001588580161788747</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>9.55280845843102E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0001053037299308271</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>6.503283907614809E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1.904057877180002E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>9.858229085793555E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0001647927877395262</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0002005787802547812</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0003698950216568415</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.000238293864696587</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0001479543948209887</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0003683811011868402</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0005400316301702468</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0002313348774697913</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001199746622917344</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>4.460139650197958E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>3.041248447577488E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
         <v>0</v>
@@ -2971,49 +2971,49 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>4.553271604134062E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>4.713148795947885E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>7.718709778311895E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>7.578735771846962E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0001008575040826562</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0001132029199633381</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0001149013317302917</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0001805060763168084</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0001845146876559381</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0001866703013236217</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0001951396969778754</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0001240199749757325</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>4.937983155728846E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>5.551609730347866E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>2.044551986127559E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
         <v>0</v>
@@ -3025,343 +3025,343 @@
         <v>0</v>
       </c>
       <c r="CJ3">
-        <v>2.04988108543969E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>4.155966538368913E-06</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>2.917568317349591E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>6.447711587713239E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01514378702211249</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.05072738082577205</v>
+        <v>0.1168337605620137</v>
       </c>
       <c r="CP3">
-        <v>0.01812534104244196</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.06124603229181706</v>
+        <v>0.1761653340576083</v>
       </c>
       <c r="CR3">
-        <v>0.0112244566072265</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>9.779270564881334E-05</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.004162569835832687</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0001496466690184378</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.001730979264747923</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.001913265879495135</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.004776220824650582</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.0001062369726886989</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.03936590018483383</v>
+        <v>0.05274811937097038</v>
       </c>
       <c r="DA3">
-        <v>0.08297632325377798</v>
+        <v>0.2987373538124383</v>
       </c>
       <c r="DB3">
-        <v>0.002012419645613213</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.008617175257418853</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.005537296453092993</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.006754168064607972</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.02326341926000331</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.01664845911341646</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>2.866979095531812E-05</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.001998738889121491</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.003541185749578864</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0001630183457547108</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.001635920680316794</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.02156594003540022</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.004906538214994343</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.003040029485750339</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.001334026103644449</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.0003183879260195</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.003435193206145999</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.01144076440810805</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.006829463154932228</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.00131757763750059</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.00353250109873591</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01143237152695331</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.0135076534750961</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.002668980890294897</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.002906255184927142</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.002531855340443138</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.004180874181323924</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0240570838416181</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.01914569246120656</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.001411472044866443</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.003576310577572251</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.01668645321012698</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.008933312117157078</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.003085042264405075</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.000368169358040683</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0001868216693566557</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0007223630309642493</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.00623178695677671</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.01098988318337406</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.009587583630170366</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.002958336174331188</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>6.823606201529271E-05</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0001259201000556656</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.003156928372123916</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.00836506363365221</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.01194140957469124</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.009736088998327933</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.001946039039799205</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.002214940128028439</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.02375676618205351</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.04541890650878187</v>
+        <v>0.08689074599358783</v>
       </c>
       <c r="FA3">
-        <v>0.05817810703947061</v>
+        <v>0.1588603750354205</v>
       </c>
       <c r="FB3">
-        <v>0.0489207931455754</v>
+        <v>0.1066435104078153</v>
       </c>
       <c r="FC3">
-        <v>0.01395235910821265</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.0016295731887253</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.001939116413719424</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.007728020140157564</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.005361381744136153</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.006669866436236726</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.01989000534072367</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.02926133454395385</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.03056767628975387</v>
+        <v>0.003120800760145638</v>
       </c>
       <c r="FL3">
-        <v>0.01446112199592227</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.005027636943923822</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0004549586131726954</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0003049682013393726</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.00224646486226947</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.004755141165084605</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.003172873745677812</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.009174151184999861</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.00560467163733664</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.005387911173193954</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.003985256413408247</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.004196115545438088</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.004622112297792677</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0009694642807839283</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>5.569420078538806E-07</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0007239490633733091</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.005516229801091991</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.00738350417562207</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.002562567702222375</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.002642679493856931</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0003526708143553215</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.001106755326885448</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.001762161900030107</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.00202162539952071</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
         <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0002156865466708312</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.001746994979210878</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.001913265879495135</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0001919927067427003</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>4.259155161089913E-05</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.000395883265970941</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0008298725266303365</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0003696828582662774</v>
+        <v>0</v>
       </c>
       <c r="GS3">
         <v>0</v>
@@ -3540,22 +3540,22 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>8.282393344217215E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6.050748670113143E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001127281544275345</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>9.096647891115059E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5.036205657959082E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>9.764037069950628E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3567,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.484529402746657E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4.111769302566266E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3591,25 +3591,25 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>4.498520235538384E-06</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0006658755210002394</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0006216581143159054</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0002314349054055349</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0001889873513894355</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>3.527084093901372E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>7.567119253035298E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3636,295 +3636,295 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01180457499714278</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.02238732195359579</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.00460006445286254</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.02974527074680809</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.00837562106420648</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.001588968000906013</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>6.53463809499139E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.001882639933514108</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0004775547289839187</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0002582250909001563</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.02712338585789864</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.05764744303203887</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="AU4">
-        <v>0.01951602307630872</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.003548741377809177</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0006997560173318351</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.006168566299628086</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.01655371909828868</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.009046833496066661</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.007189621750012961</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.007468310054877757</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.006225006201620154</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.000462285699295249</v>
+        <v>0</v>
       </c>
       <c r="BE4">
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.009743500474524529</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.02126682401986522</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.001879965602854743</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0002885014643845145</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0001838513149810095</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.00520998046791595</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.005619020494773851</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.002419352844119115</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.006180560577873576</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.008315786949480986</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.003548741377809177</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.005520509545183585</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.01134173702628455</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01052600112250737</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.00185086954092981</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.001275453467056297</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.005574672296365601</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.009064378252577788</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.007760326986076083</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.01094672389190744</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0105293101008754</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.007768460413926648</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.007384753126382234</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.00172966248286996</v>
+        <v>0</v>
       </c>
       <c r="CE4">
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>6.390132038750011E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.001684042223025307</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.004280607690490861</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.009127239621506853</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.005014391981284196</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.00118117473153229</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0005367201124991029</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.002165579609688348</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.007843076032113082</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.01470388750089235</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.009002168434807258</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.001307136576372187</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.002346277796109104</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.01915665265876771</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.04407606881609009</v>
+        <v>0.139443189172288</v>
       </c>
       <c r="CU4">
-        <v>0.06562011395210514</v>
+        <v>0.3622358362954493</v>
       </c>
       <c r="CV4">
-        <v>0.05172401626858652</v>
+        <v>0.2185326288407979</v>
       </c>
       <c r="CW4">
-        <v>0.01932539313986179</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.004340729676089859</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.001591442461076337</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.01171974221674028</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.01241199073584789</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.01229440214295638</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.02237359327894873</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.02652255631793288</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.02666464774197196</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.01074441008602167</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.004780641446670003</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.000669518849606655</v>
+        <v>0</v>
       </c>
       <c r="DI4">
         <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0003505403831546257</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.003858387992548569</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.01103842049740772</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.01747622436259057</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.01043032144954736</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.01024304864068929</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.009820957204075692</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.00829561037704804</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.004036788231793679</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0007006848875133509</v>
+        <v>0</v>
       </c>
       <c r="DT4">
         <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.001591442461076337</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.005960668925693001</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.004198867729188384</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.004586845442840275</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.00620968716845342</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.001484610404119399</v>
+        <v>0</v>
       </c>
       <c r="EA4">
         <v>0</v>
@@ -3936,31 +3936,31 @@
         <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.0002224785254147762</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0003933388118119175</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.001330733997277744</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0007986899834384259</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>7.017776596914924E-05</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>6.25919894052661E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
         <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0006927392006459824</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0005192042864985384</v>
+        <v>0</v>
       </c>
       <c r="EM4">
         <v>0</v>
@@ -3972,109 +3972,109 @@
         <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.0008704143331143458</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.002719784415106713</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.003337090618442266</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.002799851139762593</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.0001902359631308418</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>5.642983163375245E-05</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.001018497364238024</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.0006898352904038689</v>
+        <v>0</v>
       </c>
       <c r="EX4">
         <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.0003449754703672545</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.002823463722550456</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.003337090618442266</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.001019587995312515</v>
+        <v>0</v>
       </c>
       <c r="FC4">
         <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.003596126665155467</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.007702698822780894</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.008927968436597265</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.004780641446670003</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.0008585184022135402</v>
+        <v>0</v>
       </c>
       <c r="FI4">
         <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0006071956967658901</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.001334597511246587</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.001200708972870264</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.003498070776924669</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.005301377011569794</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.002039276827386878</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0004993675246305085</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0001902359631308418</v>
+        <v>0</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001863137962398609</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.002463518792604247</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.003202987150139747</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.002989604145719428</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.001541352109525467</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>2.912034142565126E-05</v>
+        <v>0</v>
       </c>
       <c r="FY4">
         <v>0</v>
@@ -4095,49 +4095,49 @@
         <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0001428971756384604</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.001468419665165248</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.00497898447851413</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.005687611313646848</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.003069965297738457</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.002167118335852059</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0003720793736469046</v>
+        <v>0</v>
       </c>
       <c r="GL4">
         <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0003854341337383797</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0001867457695357123</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0007882004605446703</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.001843730343266916</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.00274626792079816</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.003133259087648683</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.002557734319470263</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,43 +4313,43 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.536075397683742E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.674131758848523E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001137392876693025</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001266043638465042</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002268822800709806</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0002257933135040706</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0003148290534184634</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0004282152362028283</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0003040518074094771</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0001825937708554041</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001379646979661092</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2.687953913101591E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.906388882537101E-06</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4361,46 +4361,46 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>2.013253793712168E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>4.083596926573619E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>5.538556782729391E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>8.064185719426276E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>8.572352926235923E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0002218994533846013</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.00033252628729966</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0003387933879314641</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0004060609022802435</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0004749863111961471</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0005267654487161703</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0004660317137404065</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0003007981765533623</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.000159215658904618</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -4409,508 +4409,508 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001051622959349606</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.08488343026936948</v>
+        <v>0.3503880121514336</v>
       </c>
       <c r="AJ5">
-        <v>0.0007131592179872219</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.03539818757372607</v>
+        <v>0.03425936134907515</v>
       </c>
       <c r="AL5">
-        <v>0.01276509571182148</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0006180391269847114</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.003041824173436956</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.003298421797291928</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0002981091275249613</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.01301060638982703</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0032518674801414</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.01196357838470143</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.06340035968520549</v>
+        <v>0.2131468115649504</v>
       </c>
       <c r="AV5">
-        <v>0.02485342674373323</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>6.717270409781647E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0134648905711429</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0146626186027422</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.00275073516439122</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.01592932960500749</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.01251271527728303</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0005636023149949134</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0002539575227431475</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0002890326369547623</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.002077485504967139</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01260456272042118</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.00400774889444275</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0001403355550935244</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0002668901698856636</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.001813467642776627</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0006626260700405749</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.004128710185511317</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.005641613233470922</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.001062302927202673</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001793004380539816</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.005399282171204087</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.01389074537662606</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.00272495915691267</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.00227671265039454</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.004362163138952732</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>1.448970089397761E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.01309736360374409</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.02142145160034433</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.00435465507588717</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.00159303678351177</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.01495966647465577</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.01496838385521246</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.003065100030163315</v>
+        <v>0</v>
       </c>
       <c r="CD5">
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>6.831121502838665E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>8.802270518703819E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.002926869813503512</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.007366889096538299</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.004889339442771578</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.003828512840668305</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0016248157164365</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.00157058529756936</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.002890320505619583</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.006189794769240226</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.01026304676378376</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.0103046062872522</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.00295976573278929</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.0001236571782085573</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.01294285516851025</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.03803632729996049</v>
+        <v>0.05111269997796731</v>
       </c>
       <c r="CU5">
-        <v>0.05670935301558778</v>
+        <v>0.1704023731070979</v>
       </c>
       <c r="CV5">
-        <v>0.05831984425979057</v>
+        <v>0.1806907418494757</v>
       </c>
       <c r="CW5">
-        <v>0.02222408951894548</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.00274699485234306</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.0007589875540884025</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.00794368527125381</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.007016299183402005</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.006613238750834563</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.01201625419569077</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.02447851829303938</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.02628325941387659</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.01584260744086866</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.004589939230027719</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.001053002819047373</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0001557860981902379</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.003573246006821579</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.004951381555925965</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.003892340289383457</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.008255794533583532</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.007098069314588182</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.005446033067539368</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.004322950047923393</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.003275930054175666</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.004417225939981699</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.001625262050326692</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>5.028038296597025E-06</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0008126529104451565</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.004119551177748945</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.01075620765840019</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.005212329758539176</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.004228970576846679</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.001150254236992881</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.0002727072013223395</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.000684290968859969</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.002352773272849425</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.0002650117521281445</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.0004925020873683408</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.001095764650051292</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.001638516574604019</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.0001056496836904769</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>1.609710174916282E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.001003495207583264</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.002858404177564194</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.001390404201631634</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.0003992090912337998</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>9.101503934560197E-05</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0007683842994893916</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0001495644521136858</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0004254763964608973</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.001820024955572168</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.001703176305338777</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>3.146004844012626E-05</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0009434699588103995</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.003310086163202114</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.004353925039077771</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0006434033396259588</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>1.939877443501621E-06</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.0007612671916644209</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.002174556566768103</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.0007499519215453962</v>
+        <v>0</v>
       </c>
       <c r="FC5">
         <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.001630577399266241</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.006151993683562403</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.00637768721695724</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.00256084407817736</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>8.846578445496532E-06</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.001636075007052582</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.004471894280792257</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.004159260573638007</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.003240305960294761</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.003892340289383457</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.006324595415171426</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.002707873591732682</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.0007445699780272112</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0001690083566431498</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>7.071507062072451E-07</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.001541008992850768</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.003870547338702859</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.004979492078919018</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.003690774021899272</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.001451917063134763</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0007664012531367475</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0004353062970354636</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>2.845877999294964E-05</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0001330694957253025</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0008029909483794191</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0006644713206936672</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0002290678340280099</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0001257812748830175</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0002750965847611043</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.002277240500054669</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.005446033067539368</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.004345248716832725</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.002257701350256423</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.00132525667812615</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0002958163312607733</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>4.212690967898011E-05</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0005468652647811908</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>2.452736253397454E-05</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>5.942772415930374E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.000196841205278849</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.001649373293481584</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.001064051109998516</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,16 +5086,16 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001753420775827942</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001375611271992462</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001967776636146014</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.991011392343433E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5107,13 +5107,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.37670983275271E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0001596927577594009</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.704030546152469E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5122,22 +5122,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.819675495433734E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001144425849035389</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.010941864195252E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0001492023043984518</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0002433626388698105</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>8.70344168957818E-06</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5164,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>6.08299469404358E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>5.117288233736239E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -5182,445 +5182,445 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>9.594660715598527E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.009260195558051392</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.002314936958328841</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.000867464489461601</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.00242828740180905</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.03539911738917182</v>
+        <v>0.05649436918396766</v>
       </c>
       <c r="AO6">
-        <v>0.00864532315586458</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.001721819516047783</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>4.096867599800016E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.01347151195834208</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0002717456417475581</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.04775515797094109</v>
+        <v>0.1934517165681731</v>
       </c>
       <c r="AU6">
-        <v>0.04881289399361192</v>
+        <v>0.2051759189078333</v>
       </c>
       <c r="AV6">
-        <v>0.00610779553460129</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.005097130942925601</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.004583132255966455</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.009016921121804921</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.03037051404354783</v>
+        <v>0.0007561113896260276</v>
       </c>
       <c r="BA6">
-        <v>0.01660157332358944</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0003502502181000521</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.000195334938781258</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.01655074925716777</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.001594139006052577</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.007356256949819642</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.001033817694255581</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.01837856008300215</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.001431026612441371</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.001256119686696844</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.00267468127319631</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0008082198715499597</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.002365803339333957</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.003601959916641128</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001057533702272558</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.009084809708157877</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.01502972725979252</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.003722243371787315</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002708440617224575</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.00734197152620249</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.005806872033809119</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>3.213478796338147E-06</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.003944575126160474</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.00614485258166854</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.009343908583839947</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.01210151961761441</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.01523348412680617</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.006395733621060035</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.009100110783008762</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0132337232332843</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.002175085640347051</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0008248604864138413</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0006909769419326096</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0002926670347287693</v>
+        <v>0</v>
       </c>
       <c r="CI6">
         <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.006319765682507779</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.008302887833940403</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.005740318685149073</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.004540810991271712</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.009001688884075428</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.01405743126480874</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.01600545600005049</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.0112308864339778</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.004433073000268399</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.0003532202969336283</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.01397306226174573</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.03910303233074043</v>
+        <v>0.09754945976714571</v>
       </c>
       <c r="CV6">
-        <v>0.05915407608144078</v>
+        <v>0.3198000865927293</v>
       </c>
       <c r="CW6">
-        <v>0.04173946674771863</v>
+        <v>0.1267723375905249</v>
       </c>
       <c r="CX6">
-        <v>0.01511573316910983</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.003559020636319758</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.0001890889620792097</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.005018461248589717</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.008244185966361629</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.009716194920994219</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.01735486604148155</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.02038254939793667</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.02428917548966012</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.01207703283629995</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.002953959042397409</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0008603221319617384</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.001868266746262846</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0003695274263136775</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0007939916940977318</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.005058032470284794</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.008971525064867234</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.009420497979874898</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.01246094454848483</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.009777223078351846</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.009973630570346155</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.005425080909887401</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.002452166695527215</v>
+        <v>0</v>
       </c>
       <c r="DU6">
         <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.005502628457913513</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01483673024223901</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.007974214874741849</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0071857478050526</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.005115026569866648</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0009769828311324801</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.0001718043658215873</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0001010145377564476</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>8.991556424238146E-05</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.000627296227086942</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.002115877212539672</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.003776039987080448</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0006972692622143255</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>7.348609712526784E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0002985897604072395</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.001461677454283422</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.001987722536255339</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.003220227506734715</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.001352630545663027</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>9.095627016368171E-05</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0001669301408561046</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.001568044776722521</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.003316019523937642</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.004014479526628586</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.002633267949886534</v>
+        <v>0</v>
       </c>
       <c r="EU6">
         <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.001830407949193486</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.003879557857618107</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.001361464474190069</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>3.072837471157322E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>1.421297254688487E-05</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.0006458357848062013</v>
+        <v>0</v>
       </c>
       <c r="FB6">
         <v>0</v>
       </c>
       <c r="FC6">
-        <v>7.926851655336864E-05</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.0007736043050857295</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.005928265993693079</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.01097232256445245</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0086826946266069</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.002234668623079659</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>8.791931809129309E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>9.095627016368171E-05</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0009741109059355257</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.0009814830579435692</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.001434238269078614</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.00457283047705676</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.006697546841646217</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.00422374113627037</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.002893533007389854</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.00132851548480409</v>
+        <v>0</v>
       </c>
       <c r="FS6">
         <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0001644914036148362</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0007646109983764488</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.001370097863985524</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0008795462141146179</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0002111113946940011</v>
+        <v>0</v>
       </c>
       <c r="FY6">
         <v>0</v>
@@ -5629,13 +5629,13 @@
         <v>0</v>
       </c>
       <c r="GA6">
-        <v>3.155007735578177E-05</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0003533435659964528</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>6.892529364735258E-05</v>
+        <v>0</v>
       </c>
       <c r="GD6">
         <v>0</v>
@@ -5644,46 +5644,46 @@
         <v>0</v>
       </c>
       <c r="GF6">
-        <v>2.842767614491065E-05</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0009488428232932509</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.003403408350777539</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.003493148775161505</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.001600059808340891</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.000490898305515758</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>6.989403440747851E-05</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0009365158157797398</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.001464345905048023</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.001514240872793006</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.001892321372178441</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.001448968198284056</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.001370097863985524</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.001984237049598436</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.012643461731851E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.012643461731851E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.277261142020889E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.809049526450155E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.142710942683285E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.300088887233271E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001050001306048056</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001221800769257432</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001302991247658918</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0001302991247658918</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0001302991247658918</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001302991247658918</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.000130520969859254</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001916059826483747</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0002513690693890661</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0002689052859276221</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.000279329691631926</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.000279329691631926</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.000279329691631926</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.000279329691631926</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.000279329691631926</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0002837705605298505</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0003283237269828822</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0004140175868299201</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0005039329825668746</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.000600002867177988</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0006752266218086579</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0007585177276270672</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0008468673075960672</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.000922714814924017</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.001025837045992336</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.001154886953899055</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.001195677078617391</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.001195677078617391</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.001195677078617391</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.001195677078617391</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.001195677078617391</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.001208539264255211</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.001274054154692057</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.001312747571928814</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.001417264045439661</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.001565681850858615</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.001775907687713552</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.001924325493132505</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.002066315586576579</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.002228868827143157</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.00235946305129515</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.002444678302267622</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.002513153575572172</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.002513153575572172</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.002513153575572172</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.002513153575572172</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.002513153575572172</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.002514768001744873</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.002561846664700951</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.002641058913462141</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.002784485074016745</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.002925972179233773</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.003094821405113623</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.003231107180990353</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.003414017220958266</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.003667482860551013</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.003812022565315099</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.003913479094410263</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.003981592189537383</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.004083999052446146</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.004093422968804216</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.004093422968804216</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.004110602915125153</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.004188507927575166</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.004297635094769698</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.004432248575325994</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.004564711452295827</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.004856122206294286</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.005158126765922742</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.005446433666618315</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.005809749682437865</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.006089603581251548</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.006307546810853888</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.006415695797863863</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.006456778863598994</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.006496104013687702</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.006496104013687702</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.006497718439860403</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.006499891125148082</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.006549030739202104</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.006651437602110867</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.006764811616434265</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.006877190245744414</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.007492103934728368</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.08962396797051671</v>
+        <v>0.2857613066153818</v>
       </c>
       <c r="CO2">
-        <v>0.09111509988679606</v>
+        <v>0.2857613066153818</v>
       </c>
       <c r="CP2">
-        <v>0.1454679543283108</v>
+        <v>0.4191053997920451</v>
       </c>
       <c r="CQ2">
-        <v>0.1649947835097637</v>
+        <v>0.4191053997920451</v>
       </c>
       <c r="CR2">
-        <v>0.165067534779205</v>
+        <v>0.4191053997920451</v>
       </c>
       <c r="CS2">
-        <v>0.165153228639052</v>
+        <v>0.4191053997920451</v>
       </c>
       <c r="CT2">
-        <v>0.1679024535830263</v>
+        <v>0.4191053997920451</v>
       </c>
       <c r="CU2">
-        <v>0.1680551347389829</v>
+        <v>0.4191053997920451</v>
       </c>
       <c r="CV2">
-        <v>0.1690588829172516</v>
+        <v>0.4191053997920451</v>
       </c>
       <c r="CW2">
-        <v>0.1746483469151253</v>
+        <v>0.4191053997920451</v>
       </c>
       <c r="CX2">
-        <v>0.1751052479803659</v>
+        <v>0.4191053997920451</v>
       </c>
       <c r="CY2">
-        <v>0.1846161794229116</v>
+        <v>0.4191053997920451</v>
       </c>
       <c r="CZ2">
-        <v>0.2629829615940562</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DA2">
-        <v>0.2884204620761922</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DB2">
-        <v>0.2889198135261077</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DC2">
-        <v>0.2959098708229015</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DD2">
-        <v>0.3075253476136567</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DE2">
-        <v>0.3154807801732922</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DF2">
-        <v>0.338510965393241</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DG2">
-        <v>0.3528834242962376</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DH2">
-        <v>0.3532550084797689</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DI2">
-        <v>0.3553924541649606</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DJ2">
-        <v>0.3562211885831401</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DK2">
-        <v>0.356626749257171</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DL2">
-        <v>0.3665298836579806</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DM2">
-        <v>0.3782663032800364</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DN2">
-        <v>0.3783293326789545</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DO2">
-        <v>0.3797451246804537</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DP2">
-        <v>0.3801571846714135</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DQ2">
-        <v>0.3812048733007815</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DR2">
-        <v>0.389333343149426</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DS2">
-        <v>0.3995489781626074</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DT2">
-        <v>0.4011138339221635</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DU2">
-        <v>0.4032266474430949</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DV2">
-        <v>0.4143390588506128</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DW2">
-        <v>0.432620305530124</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DX2">
-        <v>0.4373991876219582</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DY2">
-        <v>0.4400484521104223</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="DZ2">
-        <v>0.4482538106090377</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EA2">
-        <v>0.4482831080745267</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EB2">
-        <v>0.462973958515223</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EC2">
-        <v>0.4846919884662749</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="ED2">
-        <v>0.4898655381055781</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EE2">
-        <v>0.4912634864852412</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EF2">
-        <v>0.5088636995104447</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EG2">
-        <v>0.5258925699350421</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EH2">
-        <v>0.5285220456640196</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EI2">
-        <v>0.5292760209631561</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EJ2">
-        <v>0.5297117875947871</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EK2">
-        <v>0.5297117875947871</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EL2">
-        <v>0.5315399403611193</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EM2">
-        <v>0.5378725604712475</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EN2">
-        <v>0.5415767915873363</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EO2">
-        <v>0.5451767526237028</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EP2">
-        <v>0.5465068248979903</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EQ2">
-        <v>0.5477601895888499</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="ER2">
-        <v>0.5499123659942579</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="ES2">
-        <v>0.5552126341569164</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="ET2">
-        <v>0.5660296921641176</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EU2">
-        <v>0.5799896941075489</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EV2">
-        <v>0.5867149219954396</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EW2">
-        <v>0.5868320643782811</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EX2">
-        <v>0.5949642086652955</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="EY2">
-        <v>0.6275053965369426</v>
+        <v>0.6978769006385007</v>
       </c>
       <c r="EZ2">
-        <v>0.6792097705121329</v>
+        <v>0.8166893737747123</v>
       </c>
       <c r="FA2">
-        <v>0.7425902991767238</v>
+        <v>0.9995662965594353</v>
       </c>
       <c r="FB2">
-        <v>0.7727193871002778</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC2">
-        <v>0.7758237807319821</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD2">
-        <v>0.7759121303119511</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE2">
-        <v>0.7845947599771362</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF2">
-        <v>0.7943739254206902</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG2">
-        <v>0.8011488276671481</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH2">
-        <v>0.8123155815832288</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI2">
-        <v>0.8399472277966136</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ2">
-        <v>0.8648027080628529</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK2">
-        <v>0.8832325385287875</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL2">
-        <v>0.88828147230126</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM2">
-        <v>0.8898802595502174</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN2">
-        <v>0.890287648485299</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO2">
-        <v>0.8942962993552281</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP2">
-        <v>0.8990904009567624</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ2">
-        <v>0.9042205427230938</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR2">
-        <v>0.9129864439595525</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS2">
-        <v>0.925292231184116</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT2">
-        <v>0.9320428624975742</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU2">
-        <v>0.9394008302760203</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV2">
-        <v>0.9451859082661792</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW2">
-        <v>0.9517683309655837</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX2">
-        <v>0.9540749132433877</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY2">
-        <v>0.9541449904295335</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ2">
-        <v>0.9543546112115423</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA2">
-        <v>0.9583436804412681</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB2">
-        <v>0.9711997496322244</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC2">
-        <v>0.9771446408411714</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD2">
-        <v>0.9829863765266543</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE2">
-        <v>0.9872605452992428</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF2">
-        <v>0.9873866995653408</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG2">
-        <v>0.9875883608344649</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH2">
-        <v>0.9879803370286777</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI2">
-        <v>0.9879805588737711</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ2">
-        <v>0.9893295421306124</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK2">
-        <v>0.9910110557471572</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL2">
-        <v>0.9946325611970784</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM2">
-        <v>0.9956853516543605</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN2">
-        <v>0.9956853516543605</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO2">
-        <v>0.9958747998999817</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP2">
-        <v>0.9977268449327579</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ2">
-        <v>0.9992729451243745</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR2">
-        <v>0.9999532918831612</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,598 +7418,598 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>9.937496186170261E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002235188288909139</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0002235188288909139</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0002235188288909139</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0002314693828958243</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0002314693828958243</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002537566488848425</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0003786627692274174</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0005328124971471484</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0009795955455525599</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001440636906346228</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001639941075309093</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001709247876047537</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001762386321549788</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001859282641876377</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.002058586810839243</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.002140588948966674</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.002168380893381605</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002170468860507228</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002170468860507228</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.00221057676367108</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.002273770278027735</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.002331034895240198</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.002348763889216931</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.002407870771859153</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002517205820335229</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.002649896488036115</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.002788828755743778</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.003006842675974881</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.003296364063714216</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.003601525137224713</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.003909101875644205</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004017813837744004</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004103391835529661</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.004144016839430372</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.004144016839430372</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.00414814333342802</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.004241347821648812</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.00433397573954626</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.004418713518675257</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.004517977310882608</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.004584802492354142</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.004676664338717615</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.004806725557176231</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.004940203642825798</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.005223198134635175</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.005548104721795423</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.005706962737974297</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.005802490822558608</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.005907794552489434</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.005972827391565583</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.005991867970337383</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.005991867970337383</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.006090450261195319</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.006255243048934845</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.006455821829189625</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.006825716850846467</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.007064010715543054</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.007211965110364042</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.007580346211550883</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.00812037784172113</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.008351712719190921</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.008471687381482655</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.008516288777984634</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.008546701262460408</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.008546701262460408</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.008546701262460408</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.008546701262460408</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.008551254534064542</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.008598386022024021</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.008675573119807141</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.008751360477525611</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.008852217981608268</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.008965420901571606</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.009080322233301897</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.009260828309618706</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.009445342997274644</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.009632013298598266</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.009827152995576141</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.009951172970551874</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01000055280210916</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01005606889941264</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01007651441927392</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01007651441927392</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01007651441927392</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01007651441927392</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01009701323012831</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.01010116919666668</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01013034487984018</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01019482199571731</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.0253386090178298</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.07606598984360186</v>
+        <v>0.1168337605620137</v>
       </c>
       <c r="CP3">
-        <v>0.09419133088604381</v>
+        <v>0.1168337605620137</v>
       </c>
       <c r="CQ3">
-        <v>0.1554373631778609</v>
+        <v>0.292999094619622</v>
       </c>
       <c r="CR3">
-        <v>0.1666618197850874</v>
+        <v>0.292999094619622</v>
       </c>
       <c r="CS3">
-        <v>0.1667596124907362</v>
+        <v>0.292999094619622</v>
       </c>
       <c r="CT3">
-        <v>0.1709221823265689</v>
+        <v>0.292999094619622</v>
       </c>
       <c r="CU3">
-        <v>0.1710718289955873</v>
+        <v>0.292999094619622</v>
       </c>
       <c r="CV3">
-        <v>0.1728028082603352</v>
+        <v>0.292999094619622</v>
       </c>
       <c r="CW3">
-        <v>0.1747160741398303</v>
+        <v>0.292999094619622</v>
       </c>
       <c r="CX3">
-        <v>0.1794922949644809</v>
+        <v>0.292999094619622</v>
       </c>
       <c r="CY3">
-        <v>0.1795985319371696</v>
+        <v>0.292999094619622</v>
       </c>
       <c r="CZ3">
-        <v>0.2189644321220034</v>
+        <v>0.3457472139905924</v>
       </c>
       <c r="DA3">
-        <v>0.3019407553757814</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DB3">
-        <v>0.3039531750213946</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DC3">
-        <v>0.3125703502788135</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DD3">
-        <v>0.3181076467319064</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DE3">
-        <v>0.3248618147965144</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DF3">
-        <v>0.3481252340565177</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DG3">
-        <v>0.3647736931699342</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DH3">
-        <v>0.3648023629608895</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DI3">
-        <v>0.366801101850011</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DJ3">
-        <v>0.3703422875995899</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DK3">
-        <v>0.3705053059453446</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DL3">
-        <v>0.3721412266256614</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DM3">
-        <v>0.3937071666610616</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DN3">
-        <v>0.398613704876056</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DO3">
-        <v>0.4016537343618063</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DP3">
-        <v>0.4029877604654508</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DQ3">
-        <v>0.4033061483914703</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DR3">
-        <v>0.4067413415976163</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DS3">
-        <v>0.4181821060057243</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DT3">
-        <v>0.4250115691606565</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DU3">
-        <v>0.4263291467981571</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DV3">
-        <v>0.429861647896893</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DW3">
-        <v>0.4412940194238463</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DX3">
-        <v>0.4548016728989424</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DY3">
-        <v>0.4574706537892373</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="DZ3">
-        <v>0.4603769089741644</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EA3">
-        <v>0.4629087643146076</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EB3">
-        <v>0.4670896384959315</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EC3">
-        <v>0.4911467223375496</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="ED3">
-        <v>0.5102924147987561</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EE3">
-        <v>0.5117038868436226</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EF3">
-        <v>0.5152801974211948</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EG3">
-        <v>0.5319666506313218</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EH3">
-        <v>0.5408999627484788</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EI3">
-        <v>0.5439850050128839</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EJ3">
-        <v>0.5443531743709247</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EK3">
-        <v>0.5445399960402814</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EL3">
-        <v>0.5452623590712457</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EM3">
-        <v>0.5514941460280224</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EN3">
-        <v>0.5624840292113964</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EO3">
-        <v>0.5720716128415667</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EP3">
-        <v>0.5750299490158979</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EQ3">
-        <v>0.5750981850779132</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="ER3">
-        <v>0.5752241051779688</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="ES3">
-        <v>0.5783810335500927</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="ET3">
-        <v>0.5867460971837449</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EU3">
-        <v>0.5986875067584362</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EV3">
-        <v>0.6084235957567641</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EW3">
-        <v>0.6103696347965633</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EX3">
-        <v>0.6125845749245917</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EY3">
-        <v>0.6363413411066452</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="EZ3">
-        <v>0.6817602476154271</v>
+        <v>0.7313753137966185</v>
       </c>
       <c r="FA3">
-        <v>0.7399383546548977</v>
+        <v>0.890235688832039</v>
       </c>
       <c r="FB3">
-        <v>0.7888591478004731</v>
+        <v>0.9968791992398542</v>
       </c>
       <c r="FC3">
-        <v>0.8028115069086857</v>
+        <v>0.9968791992398542</v>
       </c>
       <c r="FD3">
-        <v>0.804441080097411</v>
+        <v>0.9968791992398542</v>
       </c>
       <c r="FE3">
-        <v>0.8063801965111305</v>
+        <v>0.9968791992398542</v>
       </c>
       <c r="FF3">
-        <v>0.8141082166512881</v>
+        <v>0.9968791992398542</v>
       </c>
       <c r="FG3">
-        <v>0.8194695983954242</v>
+        <v>0.9968791992398542</v>
       </c>
       <c r="FH3">
-        <v>0.8261394648316609</v>
+        <v>0.9968791992398542</v>
       </c>
       <c r="FI3">
-        <v>0.8460294701723846</v>
+        <v>0.9968791992398542</v>
       </c>
       <c r="FJ3">
-        <v>0.8752908047163385</v>
+        <v>0.9968791992398542</v>
       </c>
       <c r="FK3">
-        <v>0.9058584810060923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL3">
-        <v>0.9203196030020147</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM3">
-        <v>0.9253472399459385</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN3">
-        <v>0.9258021985591112</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO3">
-        <v>0.9261071667604506</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP3">
-        <v>0.92835363162272</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ3">
-        <v>0.9331087727878046</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR3">
-        <v>0.9362816465334823</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS3">
-        <v>0.9454557977184822</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT3">
-        <v>0.9510604693558189</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU3">
-        <v>0.9564483805290128</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV3">
-        <v>0.9604336369424211</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW3">
-        <v>0.9646297524878592</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX3">
-        <v>0.9692518647856518</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY3">
-        <v>0.9702213290664358</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ3">
-        <v>0.9702218860084436</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA3">
-        <v>0.970945835071817</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB3">
-        <v>0.976462064872909</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC3">
-        <v>0.983845569048531</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD3">
-        <v>0.9864081367507535</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE3">
-        <v>0.9890508162446103</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF3">
-        <v>0.9894034870589656</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG3">
-        <v>0.9905102423858511</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH3">
-        <v>0.9922724042858811</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI3">
-        <v>0.9942940296854018</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ3">
-        <v>0.9942940296854018</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK3">
-        <v>0.9945097162320726</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL3">
-        <v>0.9962567112112835</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM3">
-        <v>0.9981699770907786</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN3">
-        <v>0.9983619697975213</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO3">
-        <v>0.9984045613491322</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP3">
-        <v>0.9988004446151032</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ3">
-        <v>0.9996303171417336</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR3">
         <v>0.9999999999999999</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>8.282393344217215E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.433314201433036E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001270612964418649</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0002180277753530155</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002683898319326063</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0003660302026321126</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0003660302026321126</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0003660302026321126</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0003660302026321126</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0004008754966595792</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0004049872659621454</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0004049872659621454</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0004049872659621454</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0004049872659621454</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0004049872659621454</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0004049872659621454</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0004049872659621454</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0004094857861976838</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001075361307197923</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001697019421513829</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001928454326919364</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.002117441678308799</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.002152712519247813</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.002228383711778166</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.002228383711778166</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.002228383711778166</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.002228383711778166</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.002228383711778166</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002228383711778166</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.002228383711778166</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002228383711778166</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002228383711778166</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01403295870892095</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.03642028066251674</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.04102034511537928</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.07076561586218738</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.07914123692639385</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.08073020492729986</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.08079555130824978</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.08267819124176388</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.08267819124176388</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0831557459707478</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.08341397106164797</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.1105373569195466</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.1681847999515855</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="AU4">
-        <v>0.1877008230278942</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="AV4">
-        <v>0.1912495644057034</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="AW4">
-        <v>0.1919493204230352</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="AX4">
-        <v>0.1981178867226633</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="AY4">
-        <v>0.214671605820952</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="AZ4">
-        <v>0.2237184393170186</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BA4">
-        <v>0.2309080610670316</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BB4">
-        <v>0.2383763711219093</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BC4">
-        <v>0.2446013773235295</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BD4">
-        <v>0.2450636630228247</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BE4">
-        <v>0.2450636630228247</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BF4">
-        <v>0.2548071634973492</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BG4">
-        <v>0.2760739875172145</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BH4">
-        <v>0.2779539531200692</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BI4">
-        <v>0.2782424545844537</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BJ4">
-        <v>0.2782424545844537</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BK4">
-        <v>0.2784263058994347</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BL4">
-        <v>0.2836362863673507</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BM4">
-        <v>0.2892553068621245</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BN4">
-        <v>0.2916746597062436</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BO4">
-        <v>0.2978552202841172</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BP4">
-        <v>0.3061710072335982</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BQ4">
-        <v>0.3097197486114074</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BR4">
-        <v>0.315240258156591</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BS4">
-        <v>0.3265819951828755</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BT4">
-        <v>0.3371079963053829</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BU4">
-        <v>0.3389588658463127</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BV4">
-        <v>0.340234319313369</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BW4">
-        <v>0.3458089916097346</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BX4">
-        <v>0.3548733698623124</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BY4">
-        <v>0.3626336968483885</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="BZ4">
-        <v>0.3735804207402959</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CA4">
-        <v>0.3841097308411713</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CB4">
-        <v>0.3918781912550979</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CC4">
-        <v>0.3992629443814802</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CD4">
-        <v>0.4009926068643502</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CE4">
-        <v>0.4009926068643502</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CF4">
-        <v>0.4010565081847377</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CG4">
-        <v>0.402740550407763</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CH4">
-        <v>0.4070211580982539</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CI4">
-        <v>0.4161483977197608</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CJ4">
-        <v>0.4211627897010449</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CK4">
-        <v>0.4223439644325772</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CL4">
-        <v>0.4228806845450763</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CM4">
-        <v>0.4250462641547647</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CN4">
-        <v>0.4328893401868777</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CO4">
-        <v>0.4475932276877701</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CP4">
-        <v>0.4565953961225774</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CQ4">
-        <v>0.4579025326989496</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CR4">
-        <v>0.4602488104950587</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CS4">
-        <v>0.4794054631538264</v>
+        <v>0.279788345691465</v>
       </c>
       <c r="CT4">
-        <v>0.5234815319699165</v>
+        <v>0.419231534863753</v>
       </c>
       <c r="CU4">
-        <v>0.5891016459220216</v>
+        <v>0.7814673711592023</v>
       </c>
       <c r="CV4">
-        <v>0.6408256621906081</v>
+        <v>1</v>
       </c>
       <c r="CW4">
-        <v>0.6601510553304699</v>
+        <v>1</v>
       </c>
       <c r="CX4">
-        <v>0.6644917850065598</v>
+        <v>1</v>
       </c>
       <c r="CY4">
-        <v>0.6660832274676362</v>
+        <v>1</v>
       </c>
       <c r="CZ4">
-        <v>0.6778029696843765</v>
+        <v>1</v>
       </c>
       <c r="DA4">
-        <v>0.6902149604202243</v>
+        <v>1</v>
       </c>
       <c r="DB4">
-        <v>0.7025093625631808</v>
+        <v>1</v>
       </c>
       <c r="DC4">
-        <v>0.7248829558421295</v>
+        <v>1</v>
       </c>
       <c r="DD4">
-        <v>0.7514055121600623</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.7780701599020343</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.788814569988056</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.793595211434726</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.7942647302843326</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.7942647302843326</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.7946152706674873</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.7984736586600358</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.8095120791574436</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.8269883035200342</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.8374186249695815</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.8476616736102708</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.8574826308143465</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.8657782411913946</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.8698150294231882</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.8705157143107016</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.8705157143107016</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.872107156771778</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.878067825697471</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.8822666934266594</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.8868535388694997</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.8930632260379531</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.8945478364420725</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.8945478364420725</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.8945478364420725</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.8945478364420725</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.8947703149674873</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.8951636537792992</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.896494387776577</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.8972930777600154</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.8973632555259846</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.8974258475153899</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.8974258475153899</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.8981185867160358</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.8986377910025344</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.8986377910025344</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.8986377910025344</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.8986377910025344</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8995082053356487</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.9022279897507554</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.9055650803691976</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.9083649315089601</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.908555167472091</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.9086115973037248</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.9096300946679627</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.9103199299583666</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.9103199299583666</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.9106649054287339</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.9134883691512844</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.9168254597697266</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.9178450477650392</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.9178450477650392</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.9214411744301947</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.9291438732529755</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.9380718416895728</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9428524831362428</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9437110015384563</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9437110015384563</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9443181972352223</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9456527947464688</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9468535037193391</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9503515744962637</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9556529515078335</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9576922283352204</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9581915958598509</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9583818318229818</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9583818318229818</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9602449697853803</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9627084885779845</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9659114757281243</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9689010798738438</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9704424319833692</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9704715523247949</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9704715523247949</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9704715523247949</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9704715523247949</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9704715523247949</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9704715523247949</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9704715523247949</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9706144495004333</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9720828691655985</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9770618536441126</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9827494649577594</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9858194302554979</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9879865485913499</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9883586279649968</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9883586279649968</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9887440620987352</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9889308078682709</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9897190083288155</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9915627386720824</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9943090065928806</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9974422656805293</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.536075397683742E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>9.210207156532266E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0002058413592346251</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0003324457230811294</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.00055932800315211</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007851213166561805</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001099950370074644</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001528165606277472</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001832217413686949</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.002014811184542354</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.002152775882508463</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.002179655421639479</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.002181561810522016</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.002181561810522016</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.002181561810522016</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.002181561810522016</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.002201694348459138</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.002242530317724874</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.002297915885552168</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002378557742746431</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002464281272008791</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002686180725393392</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.003018707012693052</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.003357500400624516</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.003763561302904759</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.004238547614100906</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.004765313062817076</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.005231344776557483</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.005532142953110845</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.005691358612015463</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.005691358612015463</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.005691358612015463</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.006742981571365069</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.09162641184073456</v>
+        <v>0.3503880121514336</v>
       </c>
       <c r="AJ5">
-        <v>0.09233957105872177</v>
+        <v>0.3503880121514336</v>
       </c>
       <c r="AK5">
-        <v>0.1277377586324479</v>
+        <v>0.3846473735005088</v>
       </c>
       <c r="AL5">
-        <v>0.1405028543442693</v>
+        <v>0.3846473735005088</v>
       </c>
       <c r="AM5">
-        <v>0.1411208934712541</v>
+        <v>0.3846473735005088</v>
       </c>
       <c r="AN5">
-        <v>0.144162717644691</v>
+        <v>0.3846473735005088</v>
       </c>
       <c r="AO5">
-        <v>0.144162717644691</v>
+        <v>0.3846473735005088</v>
       </c>
       <c r="AP5">
-        <v>0.1474611394419829</v>
+        <v>0.3846473735005088</v>
       </c>
       <c r="AQ5">
-        <v>0.1477592485695079</v>
+        <v>0.3846473735005088</v>
       </c>
       <c r="AR5">
-        <v>0.1607698549593349</v>
+        <v>0.3846473735005088</v>
       </c>
       <c r="AS5">
-        <v>0.1640217224394763</v>
+        <v>0.3846473735005088</v>
       </c>
       <c r="AT5">
-        <v>0.1759853008241777</v>
+        <v>0.3846473735005088</v>
       </c>
       <c r="AU5">
-        <v>0.2393856605093832</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="AV5">
-        <v>0.2642390872531165</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="AW5">
-        <v>0.2643062599572143</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="AX5">
-        <v>0.2777711505283572</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="AY5">
-        <v>0.2924337691310994</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="AZ5">
-        <v>0.2951845042954906</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BA5">
-        <v>0.3111138339004981</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BB5">
-        <v>0.3236265491777812</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BC5">
-        <v>0.3241901514927761</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BD5">
-        <v>0.3244441090155192</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BE5">
-        <v>0.324733141652474</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BF5">
-        <v>0.3268106271574411</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BG5">
-        <v>0.3394151898778623</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BH5">
-        <v>0.3434229387723051</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BI5">
-        <v>0.3435632743273986</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BJ5">
-        <v>0.3438301644972843</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BK5">
-        <v>0.3456436321400609</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BL5">
-        <v>0.3463062582101015</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BM5">
-        <v>0.3504349683956128</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BN5">
-        <v>0.3560765816290837</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BO5">
-        <v>0.3571388845562863</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BP5">
-        <v>0.3589318889368261</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BQ5">
-        <v>0.3643311711080303</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BR5">
-        <v>0.3782219164846563</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BS5">
-        <v>0.380946875641569</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BT5">
-        <v>0.3832235882919635</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BU5">
-        <v>0.3875857514309162</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BV5">
-        <v>0.3876002411318102</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BW5">
-        <v>0.4006976047355543</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BX5">
-        <v>0.4221190563358986</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BY5">
-        <v>0.4264737114117857</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="BZ5">
-        <v>0.4280667481952975</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CA5">
-        <v>0.4430264146699533</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CB5">
-        <v>0.4579947985251658</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CC5">
-        <v>0.4610598985553291</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CD5">
-        <v>0.4610598985553291</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CE5">
-        <v>0.4611282097703575</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CF5">
-        <v>0.4611370120408761</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CG5">
-        <v>0.4640638818543796</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CH5">
-        <v>0.471430770950918</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CI5">
-        <v>0.4763201103936895</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CJ5">
-        <v>0.4801486232343579</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CK5">
-        <v>0.4817734389507944</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CL5">
-        <v>0.4833440242483638</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CM5">
-        <v>0.4862343447539834</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CN5">
-        <v>0.4924241395232236</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CO5">
-        <v>0.5026871862870074</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CP5">
-        <v>0.5129917925742595</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CQ5">
-        <v>0.5159515583070489</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CR5">
-        <v>0.5160752154852574</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CS5">
-        <v>0.5290180706537676</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="CT5">
-        <v>0.5670543979537281</v>
+        <v>0.6489068850434265</v>
       </c>
       <c r="CU5">
-        <v>0.6237637509693159</v>
+        <v>0.8193092581505244</v>
       </c>
       <c r="CV5">
-        <v>0.6820835952291064</v>
+        <v>1</v>
       </c>
       <c r="CW5">
-        <v>0.7043076847480519</v>
+        <v>1</v>
       </c>
       <c r="CX5">
-        <v>0.707054679600395</v>
+        <v>1</v>
       </c>
       <c r="CY5">
-        <v>0.7078136671544835</v>
+        <v>1</v>
       </c>
       <c r="CZ5">
-        <v>0.7157573524257372</v>
+        <v>1</v>
       </c>
       <c r="DA5">
-        <v>0.7227736516091392</v>
+        <v>1</v>
       </c>
       <c r="DB5">
-        <v>0.7293868903599737</v>
+        <v>1</v>
       </c>
       <c r="DC5">
-        <v>0.7414031445556645</v>
+        <v>1</v>
       </c>
       <c r="DD5">
-        <v>0.7658816628487038</v>
+        <v>1</v>
       </c>
       <c r="DE5">
-        <v>0.7921649222625804</v>
+        <v>1</v>
       </c>
       <c r="DF5">
-        <v>0.808007529703449</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.8125974689334767</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.8136504717525241</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.8138062578507144</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.817379503857536</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.822330885413462</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.8262232257028455</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.8344790202364289</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.8415770895510172</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.8470231226185565</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.8513460726664799</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.8546220027206556</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.8590392286606373</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.860664490710964</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.8606695187492606</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.8614821716597058</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.8656017228374547</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.876357930495855</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.8815702602543941</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.8857992308312408</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.8869494850682337</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.887222192269556</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.887906483238416</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.8902592565112655</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.8905242682633936</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.891016770350762</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.8921125350008133</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.8937510515754173</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.8938567012591078</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.893872798360857</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.8948762935684402</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.8977346977460045</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.8991251019476361</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.8995243110388699</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.8996153260782155</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.9003837103777049</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.9005332748298186</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.9009587512262794</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.9027787761818516</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.9044819524871904</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.9045134125356306</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.905456882494441</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.9087669686576432</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.9131208936967209</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.9137642970363469</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.9137662369137903</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.9145275041054548</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.9167020606722229</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.9174520125937683</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.9174520125937683</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.9190825899930345</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.9252345836765969</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.9316122708935541</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.9341731149717315</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.934181961550177</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9358180365572295</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9402899308380218</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9444491914116598</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9476894973719546</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9515818376613381</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9579064330765095</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9606143066682421</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9613588766462693</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9615278850029124</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9615285921536186</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9630696011464694</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9669401484851723</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9719196405640913</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9756104145859906</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9770623316491254</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9778287329022621</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9782640391992976</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9782924979792905</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9784255674750159</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9792285584233953</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.979893029744089</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.980122097578117</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.980247878853</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9805229754377611</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9828002159378157</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9882462490053551</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9925914977221878</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9948491990724442</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9961744557505703</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.996470272081831</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.99651239899151</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9970592642562912</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9970837916188252</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9970897343912412</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.99728657559652</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9989359488900016</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001753420775827942</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0003129032047820403</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0005096808683966417</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.000539590982320076</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.000539590982320076</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000539590982320076</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.000539590982320076</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0005733580806476031</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.000733050838407004</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0007500911438685288</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0007500911438685288</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0007500911438685288</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0008082878988228662</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.000922730483726405</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0009428399023683576</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.001092042206766809</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.00133540484563662</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001344108287326198</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001344108287326198</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001344108287326198</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.001344108287326198</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.001344108287326198</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.001344108287326198</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.001344108287326198</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.001344108287326198</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001344108287326198</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001404938234266634</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001456111116603996</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001456111116603996</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001456111116603996</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001456111116603996</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001456111116603996</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001552057723759982</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.01081225328181137</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.01312719024014021</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.01312719024014021</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.01399465472960182</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.01642294213141086</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.05182205952058268</v>
+        <v>0.05649436918396766</v>
       </c>
       <c r="AO6">
-        <v>0.06046738267644727</v>
+        <v>0.05649436918396766</v>
       </c>
       <c r="AP6">
-        <v>0.06218920219249505</v>
+        <v>0.05649436918396766</v>
       </c>
       <c r="AQ6">
-        <v>0.06223017086849305</v>
+        <v>0.05649436918396766</v>
       </c>
       <c r="AR6">
-        <v>0.07570168282683513</v>
+        <v>0.05649436918396766</v>
       </c>
       <c r="AS6">
-        <v>0.0759734284685827</v>
+        <v>0.05649436918396766</v>
       </c>
       <c r="AT6">
-        <v>0.1237285864395238</v>
+        <v>0.2499460857521408</v>
       </c>
       <c r="AU6">
-        <v>0.1725414804331357</v>
+        <v>0.455122004659974</v>
       </c>
       <c r="AV6">
-        <v>0.178649275967737</v>
+        <v>0.455122004659974</v>
       </c>
       <c r="AW6">
-        <v>0.1837464069106626</v>
+        <v>0.455122004659974</v>
       </c>
       <c r="AX6">
-        <v>0.188329539166629</v>
+        <v>0.455122004659974</v>
       </c>
       <c r="AY6">
-        <v>0.1973464602884339</v>
+        <v>0.455122004659974</v>
       </c>
       <c r="AZ6">
-        <v>0.2277169743319818</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BA6">
-        <v>0.2443185476555712</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BB6">
-        <v>0.2446687978736713</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BC6">
-        <v>0.2448641328124525</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BD6">
-        <v>0.2614148820696203</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BE6">
-        <v>0.2630090210756729</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BF6">
-        <v>0.2703652780254925</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BG6">
-        <v>0.2713990957197481</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BH6">
-        <v>0.2897776558027503</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BI6">
-        <v>0.2912086824151917</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BJ6">
-        <v>0.2924648021018885</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BK6">
-        <v>0.2951394833750848</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BL6">
-        <v>0.2959477032466348</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BM6">
-        <v>0.2983135065859687</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BN6">
-        <v>0.3019154665026099</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BO6">
-        <v>0.3029730002048824</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BP6">
-        <v>0.3120578099130403</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BQ6">
-        <v>0.3270875371728328</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BR6">
-        <v>0.3308097805446202</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BS6">
-        <v>0.3335182211618448</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BT6">
-        <v>0.3408601926880472</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BU6">
-        <v>0.3466670647218564</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BV6">
-        <v>0.3466702782006527</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BW6">
-        <v>0.3506148533268132</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BX6">
-        <v>0.3567597059084817</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BY6">
-        <v>0.3661036144923216</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="BZ6">
-        <v>0.3782051341099361</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CA6">
-        <v>0.3934386182367423</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CB6">
-        <v>0.3998343518578023</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CC6">
-        <v>0.4089344626408111</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CD6">
-        <v>0.4221681858740954</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CE6">
-        <v>0.4243432715144425</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CF6">
-        <v>0.4251681320008563</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CG6">
-        <v>0.4258591089427889</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CH6">
-        <v>0.4261517759775176</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CI6">
-        <v>0.4261517759775176</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CJ6">
-        <v>0.4324715416600254</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CK6">
-        <v>0.4407744294939658</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CL6">
-        <v>0.4465147481791149</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CM6">
-        <v>0.4510555591703866</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CN6">
-        <v>0.4600572480544621</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CO6">
-        <v>0.4741146793192708</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CP6">
-        <v>0.4901201353193213</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CQ6">
-        <v>0.5013510217532992</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CR6">
-        <v>0.5057840947535676</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CS6">
-        <v>0.5061373150505012</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CT6">
-        <v>0.520110377312247</v>
+        <v>0.4558781160496</v>
       </c>
       <c r="CU6">
-        <v>0.5592134096429874</v>
+        <v>0.5534275758167457</v>
       </c>
       <c r="CV6">
-        <v>0.6183674857244281</v>
+        <v>0.873227662409475</v>
       </c>
       <c r="CW6">
-        <v>0.6601069524721468</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX6">
-        <v>0.6752226856412566</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY6">
-        <v>0.6787817062775764</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ6">
-        <v>0.6789707952396556</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA6">
-        <v>0.6839892564882454</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB6">
-        <v>0.6922334424546071</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC6">
-        <v>0.7019496373756012</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD6">
-        <v>0.7193045034170827</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE6">
-        <v>0.7396870528150195</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF6">
-        <v>0.7639762283046796</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG6">
-        <v>0.7760532611409795</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH6">
-        <v>0.7790072201833769</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI6">
-        <v>0.7798675423153386</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ6">
-        <v>0.7817358090616014</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK6">
-        <v>0.7821053364879151</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL6">
-        <v>0.7828993281820129</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM6">
-        <v>0.7879573606522977</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN6">
-        <v>0.7969288857171649</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO6">
-        <v>0.8063493836970398</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP6">
-        <v>0.8188103282455246</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ6">
-        <v>0.8285875513238764</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR6">
-        <v>0.8385611818942226</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS6">
-        <v>0.8439862628041099</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT6">
-        <v>0.8464384294996371</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU6">
-        <v>0.8464384294996371</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV6">
-        <v>0.8519410579575506</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW6">
-        <v>0.8667777881997896</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX6">
-        <v>0.8747520030745314</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY6">
-        <v>0.881937750879584</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ6">
-        <v>0.8870527774494507</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA6">
-        <v>0.8880297602805831</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB6">
-        <v>0.8882015646464047</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC6">
-        <v>0.8883025791841611</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED6">
-        <v>0.8883924947484035</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE6">
-        <v>0.8890197909754904</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF6">
-        <v>0.8911356681880301</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG6">
-        <v>0.8949117081751106</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH6">
-        <v>0.8956089774373249</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI6">
-        <v>0.8956824635344502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ6">
-        <v>0.8959810532948574</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK6">
-        <v>0.8974427307491408</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL6">
-        <v>0.8994304532853962</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM6">
-        <v>0.9026506807921308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN6">
-        <v>0.9040033113377939</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO6">
-        <v>0.9040942676079575</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP6">
-        <v>0.9042611977488136</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ6">
-        <v>0.9058292425255362</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER6">
-        <v>0.9091452620494739</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES6">
-        <v>0.9131597415761025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET6">
-        <v>0.915793009525989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU6">
-        <v>0.915793009525989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV6">
-        <v>0.9176234174751825</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW6">
-        <v>0.9215029753328006</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX6">
-        <v>0.9228644398069906</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY6">
-        <v>0.9228951681817021</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ6">
-        <v>0.922909381154249</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA6">
-        <v>0.9235552169390552</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB6">
-        <v>0.9235552169390552</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC6">
-        <v>0.9236344854556086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD6">
-        <v>0.9244080897606943</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE6">
-        <v>0.9303363557543874</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF6">
-        <v>0.9413086783188399</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG6">
-        <v>0.9499913729454468</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH6">
-        <v>0.9522260415685264</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI6">
-        <v>0.9523139608866177</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ6">
-        <v>0.9524049171567813</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK6">
-        <v>0.9533790280627169</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL6">
-        <v>0.9543605111206604</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM6">
-        <v>0.9557947493897391</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN6">
-        <v>0.9603675798667959</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO6">
-        <v>0.9670651267084421</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP6">
-        <v>0.9712888678447125</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ6">
-        <v>0.9741824008521023</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR6">
-        <v>0.9755109163369063</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS6">
-        <v>0.9755109163369063</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT6">
-        <v>0.9756754077405212</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU6">
-        <v>0.9764400187388976</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV6">
-        <v>0.9778101166028832</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW6">
-        <v>0.9786896628169978</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX6">
-        <v>0.9789007742116917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY6">
-        <v>0.9789007742116917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ6">
-        <v>0.9789007742116917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA6">
-        <v>0.9789323242890475</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB6">
-        <v>0.979285667855044</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC6">
-        <v>0.9793545931486913</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD6">
-        <v>0.9793545931486913</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE6">
-        <v>0.9793545931486913</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF6">
-        <v>0.9793830208248362</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG6">
-        <v>0.9803318636481294</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH6">
-        <v>0.983735271998907</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI6">
-        <v>0.9872284207740685</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ6">
-        <v>0.9888284805824094</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK6">
-        <v>0.9893193788879251</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL6">
-        <v>0.9893892729223326</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM6">
-        <v>0.9903257887381123</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN6">
-        <v>0.9917901346431603</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO6">
-        <v>0.9933043755159534</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP6">
-        <v>0.9951966968881318</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ6">
-        <v>0.9966456650864159</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR6">
-        <v>0.9980157629504015</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>0.006877190245744414</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5088636995104447</v>
+        <v>0.6842085441993706</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>0.0253386090178298</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5102924147987561</v>
+        <v>0.6444845678030307</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -10649,16 +10649,16 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>0.0831557459707478</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5234815319699165</v>
+        <v>0.7814673711592023</v>
       </c>
       <c r="G4">
         <v>55</v>
@@ -10693,16 +10693,16 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>0.005691358612015463</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5026871862870074</v>
+        <v>0.5977941850654592</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -10734,16 +10734,16 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.07570168282683513</v>
+        <v>0.05649436918396766</v>
       </c>
       <c r="F6">
-        <v>0.5013510217532992</v>
+        <v>0.5534275758167457</v>
       </c>
       <c r="G6">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2">
-        <v>0.006877190245744414</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7425902991767238</v>
+        <v>0.8166893737747123</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -10867,16 +10867,16 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3">
-        <v>0.0253386090178298</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7399383546548977</v>
+        <v>0.7313753137966185</v>
       </c>
       <c r="G3">
         <v>65</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>0.0831557459707478</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7025093625631808</v>
+        <v>0.7814673711592023</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -10952,16 +10952,16 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.005691358612015463</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7043076847480519</v>
+        <v>0.8193092581505244</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -10993,16 +10993,16 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.07570168282683513</v>
+        <v>0.05649436918396766</v>
       </c>
       <c r="F6">
-        <v>0.7019496373756012</v>
+        <v>0.873227662409475</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E2">
-        <v>0.006877190245744414</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8011488276671481</v>
+        <v>0.8166893737747123</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E3">
-        <v>0.0253386090178298</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8028115069086857</v>
+        <v>0.890235688832039</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.0831557459707478</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8095120791574436</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -11211,16 +11211,16 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.005691358612015463</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.808007529703449</v>
+        <v>0.8193092581505244</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -11252,16 +11252,16 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.07570168282683513</v>
+        <v>0.05649436918396766</v>
       </c>
       <c r="F6">
-        <v>0.8063493836970398</v>
+        <v>0.873227662409475</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E2">
-        <v>0.006877190245744414</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9042205427230938</v>
+        <v>0.9995662965594353</v>
       </c>
       <c r="G2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E3">
-        <v>0.0253386090178298</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9058584810060923</v>
+        <v>0.9968791992398542</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.0831557459707478</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9022279897507554</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -11470,16 +11470,16 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>0.005691358612015463</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9003837103777049</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -11511,16 +11511,16 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.07570168282683513</v>
+        <v>0.05649436918396766</v>
       </c>
       <c r="F6">
-        <v>0.9026506807921308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G6">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="H6">
         <v>27</v>

--- a/on_trucks/Processed_Stand_Alone/27_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/27_11R22.xlsx
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.3274732885047505</v>
+        <v>0.2473301041801955</v>
       </c>
       <c r="BK2">
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.1982021883742043</v>
+        <v>0.1594919023765798</v>
       </c>
       <c r="BM2">
-        <v>0.03613742565240962</v>
+        <v>0.04937079008747395</v>
       </c>
       <c r="BN2">
         <v>0</v>
@@ -1217,37 +1217,37 @@
         <v>0</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>0.005300352966552085</v>
       </c>
       <c r="BT2">
         <v>0</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>0.01770017044753307</v>
       </c>
       <c r="BV2">
-        <v>0.3099522795907251</v>
+        <v>0.2354247833835216</v>
       </c>
       <c r="BW2">
-        <v>0.06364304924047588</v>
+        <v>0.06806053986931215</v>
       </c>
       <c r="BX2">
         <v>0</v>
       </c>
       <c r="BY2">
-        <v>0</v>
+        <v>0.009729078059066037</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>0.02435481658866099</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>0.01278162847004912</v>
       </c>
       <c r="CB2">
-        <v>0.05244047949989871</v>
+        <v>0.06044852465014733</v>
       </c>
       <c r="CC2">
-        <v>0.01215128913753616</v>
+        <v>0.03307249064115646</v>
       </c>
       <c r="CD2">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="CH2">
-        <v>0</v>
+        <v>0.01894032994562631</v>
       </c>
       <c r="CI2">
-        <v>0</v>
+        <v>0.02473724205946225</v>
       </c>
       <c r="CJ2">
         <v>0</v>
@@ -1280,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0</v>
+        <v>0.01332877844168294</v>
       </c>
       <c r="CO2">
-        <v>0</v>
+        <v>0.0199284678329803</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -1471,25 +1471,25 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.01326722855059875</v>
+        <v>0.0348909637177272</v>
       </c>
       <c r="BK3">
-        <v>0.1758183340807987</v>
+        <v>0.1470856808091955</v>
       </c>
       <c r="BL3">
-        <v>0.02688740713280603</v>
+        <v>0.04429177386775178</v>
       </c>
       <c r="BM3">
-        <v>0.2238690856132825</v>
+        <v>0.180250884187144</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>0.02253335392956419</v>
       </c>
       <c r="BO3">
         <v>0</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>0.0002672952278985047</v>
       </c>
       <c r="BQ3">
         <v>0</v>
@@ -1501,34 +1501,34 @@
         <v>0</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>0.002202130687835745</v>
       </c>
       <c r="BU3">
         <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.1239174145493225</v>
+        <v>0.111263045431676</v>
       </c>
       <c r="BW3">
-        <v>0.3231362602232957</v>
+        <v>0.248766275303759</v>
       </c>
       <c r="BX3">
         <v>0</v>
       </c>
       <c r="BY3">
-        <v>0</v>
+        <v>0.01431262178447529</v>
       </c>
       <c r="BZ3">
-        <v>0</v>
+        <v>0.004601794569158657</v>
       </c>
       <c r="CA3">
-        <v>0</v>
+        <v>0.008438578648469986</v>
       </c>
       <c r="CB3">
-        <v>0.05035890636286246</v>
+        <v>0.06049208334728066</v>
       </c>
       <c r="CC3">
-        <v>0.02014079262204855</v>
+        <v>0.03963517984527064</v>
       </c>
       <c r="CD3">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.04260457086498474</v>
+        <v>0.05513994824749761</v>
       </c>
       <c r="CJ3">
-        <v>0</v>
+        <v>0.002613020122511478</v>
       </c>
       <c r="CK3">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="CO3">
-        <v>0</v>
+        <v>0.02321537027278377</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02309465338734465</v>
+        <v>0.03986683293836458</v>
       </c>
       <c r="E4">
-        <v>0.09930743786330479</v>
+        <v>0.08657292628573839</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.008070311355836472</v>
       </c>
       <c r="G4">
-        <v>0.1522964933391424</v>
+        <v>0.1190466351058682</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02473342351880821</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1611,37 +1611,37 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1334147087910022</v>
+        <v>0.1074751592998817</v>
       </c>
       <c r="P4">
-        <v>0.3532369723599254</v>
+        <v>0.2421906041255418</v>
       </c>
       <c r="Q4">
-        <v>0.07862947179256637</v>
+        <v>0.07390068211864098</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.003430382433436139</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.01499276674213758</v>
       </c>
       <c r="U4">
-        <v>0.05729612275208339</v>
+        <v>0.0608267943378947</v>
       </c>
       <c r="V4">
-        <v>0.003234482911118022</v>
+        <v>0.02769576501930714</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.01949911196372877</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.02072908014074349</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.01524185966118831</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1650,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.00825160469426265</v>
+        <v>0.03077044809183823</v>
       </c>
       <c r="AC4">
-        <v>0.09123805210925015</v>
+        <v>0.08162769974827043</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1668,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.01076212610396975</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.01256739100880507</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1862,16 +1862,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3922338992338083</v>
+        <v>0.2939499457803168</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1313626518898294</v>
+        <v>0.1152390022795949</v>
       </c>
       <c r="H5">
-        <v>0.01204783026552895</v>
+        <v>0.03350188267291314</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1889,37 +1889,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.01334208837802302</v>
+        <v>0.0343885196280096</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.007822473098350113</v>
+        <v>0.0306072840014912</v>
       </c>
       <c r="Q5">
-        <v>0.2789816423026122</v>
+        <v>0.2163660115758969</v>
       </c>
       <c r="R5">
-        <v>0.07577385893224044</v>
+        <v>0.07715766622335322</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.01573693731828986</v>
+        <v>0.03602912095151405</v>
       </c>
       <c r="U5">
-        <v>0.02205099760296674</v>
+        <v>0.04035459446491804</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.02872871526553722</v>
+        <v>0.04492919299219782</v>
       </c>
       <c r="X5">
-        <v>0.01071735687231554</v>
+        <v>0.03259043628767676</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01120154884049829</v>
+        <v>0.03292213402880542</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.001875611343449095</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.0023124507985344</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.007776146971328599</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.001632470806486129</v>
+        <v>0.02697069126213737</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2158,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1696694043249078</v>
+        <v>0.1388235336864395</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.02433954884711353</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2170,34 +2170,34 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.02870538140902542</v>
+        <v>0.04499162237643357</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2491015700126953</v>
+        <v>0.1916971093109504</v>
       </c>
       <c r="Q6">
-        <v>0.2559013423548722</v>
+        <v>0.1962233396365428</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.01348104140743194</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.009156237651297928</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.006956750828153963</v>
       </c>
       <c r="U6">
-        <v>6.855433990830583E-05</v>
+        <v>0.02592967903679988</v>
       </c>
       <c r="V6">
-        <v>0.1373424747163153</v>
+        <v>0.1173052942859627</v>
       </c>
       <c r="W6">
-        <v>0.04882732511193846</v>
+        <v>0.05838568135588925</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -2206,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.04850059701176616</v>
+        <v>0.05816819662834179</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01882341776294719</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.06025087991208491</v>
+        <v>0.06598970654387616</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.00275814937968192</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2889,97 +2889,97 @@
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.3274732885047505</v>
+        <v>0.2473301041801955</v>
       </c>
       <c r="BK2">
-        <v>0.3274732885047505</v>
+        <v>0.2473301041801955</v>
       </c>
       <c r="BL2">
-        <v>0.5256754768789548</v>
+        <v>0.4068220065567753</v>
       </c>
       <c r="BM2">
-        <v>0.5618129025313644</v>
+        <v>0.4561927966442493</v>
       </c>
       <c r="BN2">
-        <v>0.5618129025313644</v>
+        <v>0.4561927966442493</v>
       </c>
       <c r="BO2">
-        <v>0.5618129025313644</v>
+        <v>0.4561927966442493</v>
       </c>
       <c r="BP2">
-        <v>0.5618129025313644</v>
+        <v>0.4561927966442493</v>
       </c>
       <c r="BQ2">
-        <v>0.5618129025313644</v>
+        <v>0.4561927966442493</v>
       </c>
       <c r="BR2">
-        <v>0.5618129025313644</v>
+        <v>0.4561927966442493</v>
       </c>
       <c r="BS2">
-        <v>0.5618129025313644</v>
+        <v>0.4614931496108013</v>
       </c>
       <c r="BT2">
-        <v>0.5618129025313644</v>
+        <v>0.4614931496108013</v>
       </c>
       <c r="BU2">
-        <v>0.5618129025313644</v>
+        <v>0.4791933200583344</v>
       </c>
       <c r="BV2">
-        <v>0.8717651821220895</v>
+        <v>0.7146181034418561</v>
       </c>
       <c r="BW2">
-        <v>0.9354082313625655</v>
+        <v>0.7826786433111682</v>
       </c>
       <c r="BX2">
-        <v>0.9354082313625655</v>
+        <v>0.7826786433111682</v>
       </c>
       <c r="BY2">
-        <v>0.9354082313625655</v>
+        <v>0.7924077213702343</v>
       </c>
       <c r="BZ2">
-        <v>0.9354082313625655</v>
+        <v>0.8167625379588953</v>
       </c>
       <c r="CA2">
-        <v>0.9354082313625655</v>
+        <v>0.8295441664289445</v>
       </c>
       <c r="CB2">
-        <v>0.9878487108624642</v>
+        <v>0.8899926910790918</v>
       </c>
       <c r="CC2">
-        <v>1</v>
+        <v>0.9230651817202483</v>
       </c>
       <c r="CD2">
-        <v>1</v>
+        <v>0.9230651817202483</v>
       </c>
       <c r="CE2">
-        <v>1</v>
+        <v>0.9230651817202483</v>
       </c>
       <c r="CF2">
-        <v>1</v>
+        <v>0.9230651817202483</v>
       </c>
       <c r="CG2">
-        <v>1</v>
+        <v>0.9230651817202483</v>
       </c>
       <c r="CH2">
-        <v>1</v>
+        <v>0.9420055116658747</v>
       </c>
       <c r="CI2">
-        <v>1</v>
+        <v>0.9667427537253369</v>
       </c>
       <c r="CJ2">
-        <v>1</v>
+        <v>0.9667427537253369</v>
       </c>
       <c r="CK2">
-        <v>1</v>
+        <v>0.9667427537253369</v>
       </c>
       <c r="CL2">
-        <v>1</v>
+        <v>0.9667427537253369</v>
       </c>
       <c r="CM2">
-        <v>1</v>
+        <v>0.9667427537253369</v>
       </c>
       <c r="CN2">
-        <v>1</v>
+        <v>0.9800715321670198</v>
       </c>
       <c r="CO2">
         <v>1</v>
@@ -3170,97 +3170,97 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.01326722855059875</v>
+        <v>0.0348909637177272</v>
       </c>
       <c r="BK3">
-        <v>0.1890855626313975</v>
+        <v>0.1819766445269227</v>
       </c>
       <c r="BL3">
-        <v>0.2159729697642035</v>
+        <v>0.2262684183946745</v>
       </c>
       <c r="BM3">
-        <v>0.439842055377486</v>
+        <v>0.4065193025818185</v>
       </c>
       <c r="BN3">
-        <v>0.439842055377486</v>
+        <v>0.4290526565113826</v>
       </c>
       <c r="BO3">
-        <v>0.439842055377486</v>
+        <v>0.4290526565113826</v>
       </c>
       <c r="BP3">
-        <v>0.439842055377486</v>
+        <v>0.4293199517392811</v>
       </c>
       <c r="BQ3">
-        <v>0.439842055377486</v>
+        <v>0.4293199517392811</v>
       </c>
       <c r="BR3">
-        <v>0.439842055377486</v>
+        <v>0.4293199517392811</v>
       </c>
       <c r="BS3">
-        <v>0.439842055377486</v>
+        <v>0.4293199517392811</v>
       </c>
       <c r="BT3">
-        <v>0.439842055377486</v>
+        <v>0.4315220824271169</v>
       </c>
       <c r="BU3">
-        <v>0.439842055377486</v>
+        <v>0.4315220824271169</v>
       </c>
       <c r="BV3">
-        <v>0.5637594699268085</v>
+        <v>0.542785127858793</v>
       </c>
       <c r="BW3">
-        <v>0.8868957301501041</v>
+        <v>0.7915514031625519</v>
       </c>
       <c r="BX3">
-        <v>0.8868957301501041</v>
+        <v>0.7915514031625519</v>
       </c>
       <c r="BY3">
-        <v>0.8868957301501041</v>
+        <v>0.8058640249470271</v>
       </c>
       <c r="BZ3">
-        <v>0.8868957301501041</v>
+        <v>0.8104658195161858</v>
       </c>
       <c r="CA3">
-        <v>0.8868957301501041</v>
+        <v>0.8189043981646558</v>
       </c>
       <c r="CB3">
-        <v>0.9372546365129666</v>
+        <v>0.8793964815119364</v>
       </c>
       <c r="CC3">
-        <v>0.9573954291350152</v>
+        <v>0.919031661357207</v>
       </c>
       <c r="CD3">
-        <v>0.9573954291350152</v>
+        <v>0.919031661357207</v>
       </c>
       <c r="CE3">
-        <v>0.9573954291350152</v>
+        <v>0.919031661357207</v>
       </c>
       <c r="CF3">
-        <v>0.9573954291350152</v>
+        <v>0.919031661357207</v>
       </c>
       <c r="CG3">
-        <v>0.9573954291350152</v>
+        <v>0.919031661357207</v>
       </c>
       <c r="CH3">
-        <v>0.9573954291350152</v>
+        <v>0.919031661357207</v>
       </c>
       <c r="CI3">
-        <v>0.9999999999999999</v>
+        <v>0.9741716096047046</v>
       </c>
       <c r="CJ3">
-        <v>0.9999999999999999</v>
+        <v>0.9767846297272161</v>
       </c>
       <c r="CK3">
-        <v>0.9999999999999999</v>
+        <v>0.9767846297272161</v>
       </c>
       <c r="CL3">
-        <v>0.9999999999999999</v>
+        <v>0.9767846297272161</v>
       </c>
       <c r="CM3">
-        <v>0.9999999999999999</v>
+        <v>0.9767846297272161</v>
       </c>
       <c r="CN3">
-        <v>0.9999999999999999</v>
+        <v>0.9767846297272161</v>
       </c>
       <c r="CO3">
         <v>0.9999999999999999</v>
@@ -3277,97 +3277,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02309465338734465</v>
+        <v>0.03986683293836458</v>
       </c>
       <c r="E4">
-        <v>0.1224020912506494</v>
+        <v>0.126439759224103</v>
       </c>
       <c r="F4">
-        <v>0.1224020912506494</v>
+        <v>0.1345100705799394</v>
       </c>
       <c r="G4">
-        <v>0.2746985845897918</v>
+        <v>0.2535567056858076</v>
       </c>
       <c r="H4">
-        <v>0.2746985845897918</v>
+        <v>0.2782901292046158</v>
       </c>
       <c r="I4">
-        <v>0.2746985845897918</v>
+        <v>0.2782901292046158</v>
       </c>
       <c r="J4">
-        <v>0.2746985845897918</v>
+        <v>0.2782901292046158</v>
       </c>
       <c r="K4">
-        <v>0.2746985845897918</v>
+        <v>0.2782901292046158</v>
       </c>
       <c r="L4">
-        <v>0.2746985845897918</v>
+        <v>0.2782901292046158</v>
       </c>
       <c r="M4">
-        <v>0.2746985845897918</v>
+        <v>0.2782901292046158</v>
       </c>
       <c r="N4">
-        <v>0.2746985845897918</v>
+        <v>0.2782901292046158</v>
       </c>
       <c r="O4">
-        <v>0.4081132933807939</v>
+        <v>0.3857652885044975</v>
       </c>
       <c r="P4">
-        <v>0.7613502657407194</v>
+        <v>0.6279558926300393</v>
       </c>
       <c r="Q4">
-        <v>0.8399797375332858</v>
+        <v>0.7018565747486802</v>
       </c>
       <c r="R4">
-        <v>0.8399797375332858</v>
+        <v>0.7052869571821164</v>
       </c>
       <c r="S4">
-        <v>0.8399797375332858</v>
+        <v>0.7052869571821164</v>
       </c>
       <c r="T4">
-        <v>0.8399797375332858</v>
+        <v>0.720279723924254</v>
       </c>
       <c r="U4">
-        <v>0.8972758602853692</v>
+        <v>0.7811065182621487</v>
       </c>
       <c r="V4">
-        <v>0.9005103431964873</v>
+        <v>0.8088022832814559</v>
       </c>
       <c r="W4">
-        <v>0.9005103431964873</v>
+        <v>0.8283013952451846</v>
       </c>
       <c r="X4">
-        <v>0.9005103431964873</v>
+        <v>0.8490304753859281</v>
       </c>
       <c r="Y4">
-        <v>0.9005103431964873</v>
+        <v>0.8642723350471164</v>
       </c>
       <c r="Z4">
-        <v>0.9005103431964873</v>
+        <v>0.8642723350471164</v>
       </c>
       <c r="AA4">
-        <v>0.9005103431964873</v>
+        <v>0.8642723350471164</v>
       </c>
       <c r="AB4">
-        <v>0.9087619478907499</v>
+        <v>0.8950427831389547</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9766704828872251</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9766704828872251</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9766704828872251</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9766704828872251</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9766704828872251</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9874326089911949</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -3561,271 +3561,271 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3922338992338083</v>
+        <v>0.2939499457803168</v>
       </c>
       <c r="F5">
-        <v>0.3922338992338083</v>
+        <v>0.2939499457803168</v>
       </c>
       <c r="G5">
-        <v>0.5235965511236377</v>
+        <v>0.4091889480599117</v>
       </c>
       <c r="H5">
-        <v>0.5356443813891666</v>
+        <v>0.4426908307328249</v>
       </c>
       <c r="I5">
-        <v>0.5356443813891666</v>
+        <v>0.4426908307328249</v>
       </c>
       <c r="J5">
-        <v>0.5356443813891666</v>
+        <v>0.4426908307328249</v>
       </c>
       <c r="K5">
-        <v>0.5356443813891666</v>
+        <v>0.4426908307328249</v>
       </c>
       <c r="L5">
-        <v>0.5356443813891666</v>
+        <v>0.4426908307328249</v>
       </c>
       <c r="M5">
-        <v>0.5356443813891666</v>
+        <v>0.4426908307328249</v>
       </c>
       <c r="N5">
-        <v>0.5489864697671896</v>
+        <v>0.4770793503608345</v>
       </c>
       <c r="O5">
-        <v>0.5489864697671896</v>
+        <v>0.4770793503608345</v>
       </c>
       <c r="P5">
-        <v>0.5568089428655397</v>
+        <v>0.5076866343623256</v>
       </c>
       <c r="Q5">
-        <v>0.835790585168152</v>
+        <v>0.7240526459382225</v>
       </c>
       <c r="R5">
-        <v>0.9115644441003924</v>
+        <v>0.8012103121615757</v>
       </c>
       <c r="S5">
-        <v>0.9115644441003924</v>
+        <v>0.8012103121615757</v>
       </c>
       <c r="T5">
-        <v>0.9273013814186822</v>
+        <v>0.8372394331130897</v>
       </c>
       <c r="U5">
-        <v>0.9493523790216489</v>
+        <v>0.8775940275780078</v>
       </c>
       <c r="V5">
-        <v>0.9493523790216489</v>
+        <v>0.8775940275780078</v>
       </c>
       <c r="W5">
-        <v>0.9780810942871861</v>
+        <v>0.9225232205702055</v>
       </c>
       <c r="X5">
-        <v>0.9887984511595017</v>
+        <v>0.9551136568578823</v>
       </c>
       <c r="Y5">
-        <v>0.9887984511595017</v>
+        <v>0.9551136568578823</v>
       </c>
       <c r="Z5">
-        <v>0.9887984511595017</v>
+        <v>0.9551136568578823</v>
       </c>
       <c r="AA5">
-        <v>0.9887984511595017</v>
+        <v>0.9551136568578823</v>
       </c>
       <c r="AB5">
-        <v>0.9887984511595017</v>
+        <v>0.9551136568578823</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9880357908866877</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9899114022301367</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9899114022301367</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9899114022301367</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9899114022301367</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9899114022301367</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9922238530286711</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AY5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BB5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BC5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BD5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BE5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BF5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BG5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BI5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BK5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BL5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BM5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BN5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BO5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BR5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BT5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BU5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BV5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BW5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BX5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BY5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BZ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CA5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CC5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CD5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CE5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CF5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CG5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CH5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CI5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CJ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CK5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CL5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CM5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CN5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CO5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:93">
@@ -3842,271 +3842,271 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.001632470806486129</v>
+        <v>0.02697069126213737</v>
       </c>
       <c r="F6">
-        <v>0.001632470806486129</v>
+        <v>0.02697069126213737</v>
       </c>
       <c r="G6">
-        <v>0.001632470806486129</v>
+        <v>0.02697069126213737</v>
       </c>
       <c r="H6">
-        <v>0.001632470806486129</v>
+        <v>0.02697069126213737</v>
       </c>
       <c r="I6">
-        <v>0.001632470806486129</v>
+        <v>0.02697069126213737</v>
       </c>
       <c r="J6">
-        <v>0.1713018751313939</v>
+        <v>0.1657942249485769</v>
       </c>
       <c r="K6">
-        <v>0.1713018751313939</v>
+        <v>0.1901337737956905</v>
       </c>
       <c r="L6">
-        <v>0.1713018751313939</v>
+        <v>0.1901337737956905</v>
       </c>
       <c r="M6">
-        <v>0.1713018751313939</v>
+        <v>0.1901337737956905</v>
       </c>
       <c r="N6">
-        <v>0.2000072565404193</v>
+        <v>0.235125396172124</v>
       </c>
       <c r="O6">
-        <v>0.2000072565404193</v>
+        <v>0.235125396172124</v>
       </c>
       <c r="P6">
-        <v>0.4491088265531147</v>
+        <v>0.4268225054830744</v>
       </c>
       <c r="Q6">
-        <v>0.7050101689079868</v>
+        <v>0.6230458451196171</v>
       </c>
       <c r="R6">
-        <v>0.7050101689079868</v>
+        <v>0.636526886527049</v>
       </c>
       <c r="S6">
-        <v>0.7050101689079868</v>
+        <v>0.6456831241783469</v>
       </c>
       <c r="T6">
-        <v>0.7050101689079868</v>
+        <v>0.6526398750065009</v>
       </c>
       <c r="U6">
-        <v>0.7050787232478951</v>
+        <v>0.6785695540433008</v>
       </c>
       <c r="V6">
-        <v>0.8424211979642104</v>
+        <v>0.7958748483292635</v>
       </c>
       <c r="W6">
-        <v>0.8912485230761489</v>
+        <v>0.8542605296851528</v>
       </c>
       <c r="X6">
-        <v>0.8912485230761489</v>
+        <v>0.8542605296851528</v>
       </c>
       <c r="Y6">
-        <v>0.8912485230761489</v>
+        <v>0.8542605296851528</v>
       </c>
       <c r="Z6">
-        <v>0.939749120087915</v>
+        <v>0.9124287263134946</v>
       </c>
       <c r="AA6">
-        <v>0.939749120087915</v>
+        <v>0.9124287263134946</v>
       </c>
       <c r="AB6">
-        <v>0.939749120087915</v>
+        <v>0.9312521440764417</v>
       </c>
       <c r="AC6">
-        <v>0.939749120087915</v>
+        <v>0.9312521440764417</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>0.9972418506203179</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>0.9972418506203179</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>0.9972418506203179</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>0.9972418506203179</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>0.9972418506203179</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>0.9972418506203179</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CD6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CE6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CF6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CG6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CI6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4174,16 +4174,16 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5256754768789548</v>
+        <v>0.7146181034418561</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5637594699268085</v>
+        <v>0.542785127858793</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7613502657407194</v>
+        <v>0.6279558926300393</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -4297,16 +4297,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5235965511236377</v>
+        <v>0.5076866343623256</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -4341,10 +4341,10 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>0.001632470806486129</v>
+        <v>0.02697069126213737</v>
       </c>
       <c r="F6">
-        <v>0.7050101689079868</v>
+        <v>0.6230458451196171</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8717651821220895</v>
+        <v>0.7146181034418561</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8868957301501041</v>
+        <v>0.7915514031625519</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -4515,16 +4515,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7613502657407194</v>
+        <v>0.7018565747486802</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.835790585168152</v>
+        <v>0.7240526459382225</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -4597,16 +4597,16 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>0.001632470806486129</v>
+        <v>0.02697069126213737</v>
       </c>
       <c r="F6">
-        <v>0.7050101689079868</v>
+        <v>0.7958748483292635</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -4692,16 +4692,16 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8717651821220895</v>
+        <v>0.8167625379588953</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -4733,16 +4733,16 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8868957301501041</v>
+        <v>0.8058640249470271</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -4774,16 +4774,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8399797375332858</v>
+        <v>0.8088022832814559</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -4815,16 +4815,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.835790585168152</v>
+        <v>0.8012103121615757</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -4856,16 +4856,16 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>0.001632470806486129</v>
+        <v>0.02697069126213737</v>
       </c>
       <c r="F6">
-        <v>0.8424211979642104</v>
+        <v>0.8542605296851528</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -4951,16 +4951,16 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9354082313625655</v>
+        <v>0.9230651817202483</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -4992,16 +4992,16 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9372546365129666</v>
+        <v>0.919031661357207</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -5033,16 +5033,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9005103431964873</v>
+        <v>0.9766704828872251</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -5074,16 +5074,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9115644441003924</v>
+        <v>0.9225232205702055</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -5118,10 +5118,10 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>0.001632470806486129</v>
+        <v>0.02697069126213737</v>
       </c>
       <c r="F6">
-        <v>0.939749120087915</v>
+        <v>0.9124287263134946</v>
       </c>
       <c r="G6">
         <v>18</v>
